--- a/documents/o2conc.xlsx
+++ b/documents/o2conc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickos01/Desktop/O24U/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickos01/Desktop/O24U/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E230FDD-5D7E-C949-B4BF-A2073ED2EB76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DA8848-7C80-2940-BFDF-D67B265100FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="500" windowWidth="25120" windowHeight="16820" tabRatio="500" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2560" yWindow="500" windowWidth="25120" windowHeight="16820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volume" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="704">
   <si>
     <t>liters</t>
   </si>
@@ -2149,6 +2149,9 @@
   </si>
   <si>
     <t>Consumable</t>
+  </si>
+  <si>
+    <t>JLOX-101 data sheet</t>
   </si>
 </sst>
 </file>
@@ -2810,10 +2813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2821,6 +2824,14 @@
     <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:13">
+      <c r="H1">
+        <v>0.63</v>
+      </c>
+      <c r="I1" t="s">
+        <v>703</v>
+      </c>
+    </row>
     <row r="2" spans="1:13">
       <c r="H2">
         <v>0.64</v>
@@ -2842,7 +2853,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="F4">
-        <v>0.79</v>
+        <v>0.63</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
@@ -2901,18 +2912,24 @@
       </c>
       <c r="G6" s="27">
         <f>E6*F$4</f>
-        <v>2.0937360203661441</v>
+        <v>1.6696882187730009</v>
       </c>
       <c r="H6" s="28">
         <f>F6*G6</f>
-        <v>4.1874720407322883</v>
+        <v>3.3393764375460018</v>
       </c>
       <c r="I6" s="28">
         <f>H6*2.2</f>
-        <v>9.212438489611035</v>
+        <v>7.3466281626012044</v>
       </c>
       <c r="J6" t="s">
         <v>376</v>
+      </c>
+      <c r="L6">
+        <v>2.5</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2939,18 +2956,26 @@
       </c>
       <c r="G7" s="27">
         <f>E7*F$4</f>
-        <v>1.5912393754782694</v>
+        <v>1.2689630462674806</v>
       </c>
       <c r="H7" s="28">
         <f>F7*G7</f>
-        <v>3.1824787509565389</v>
+        <v>2.5379260925349612</v>
       </c>
       <c r="I7" s="28">
         <f>H7*2.2</f>
-        <v>7.001453252104386</v>
+        <v>5.583437403576915</v>
       </c>
       <c r="J7" t="s">
         <v>377</v>
+      </c>
+      <c r="L7" s="1">
+        <f>H6/L6</f>
+        <v>1.3357505750184007</v>
+      </c>
+      <c r="M7" s="1">
+        <f>M6*L7</f>
+        <v>13.357505750184007</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2977,15 +3002,15 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" ref="G9:G15" si="2">E9*F$4</f>
-        <v>0.89077869222581141</v>
+        <v>0.71036781785096348</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" ref="H9" si="3">F9*G9</f>
-        <v>0.89077869222581141</v>
+        <v>0.71036781785096348</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ref="I9:I15" si="4">H9*2.2</f>
-        <v>1.9597131228967852</v>
+        <v>1.5628091992721198</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3012,15 +3037,15 @@
       </c>
       <c r="G10" s="2">
         <f t="shared" si="2"/>
-        <v>0.67699180609161669</v>
+        <v>0.53987954156673235</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" ref="H10" si="5">F10*G10</f>
-        <v>0.67699180609161669</v>
+        <v>0.53987954156673235</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="4"/>
-        <v>1.4893819734015568</v>
+        <v>1.1877349914468112</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3047,15 +3072,15 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" si="2"/>
-        <v>0.46320491995742197</v>
+        <v>0.36939126528250105</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" ref="H11" si="6">F11*G11</f>
-        <v>0.46320491995742197</v>
+        <v>0.36939126528250105</v>
       </c>
       <c r="I11" s="1">
         <f t="shared" si="4"/>
-        <v>1.0190508239063285</v>
+        <v>0.8126607836215024</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3082,15 +3107,15 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" si="2"/>
-        <v>0.70609149585466857</v>
+        <v>0.5630856232765078</v>
       </c>
       <c r="H12" s="1">
         <f>F12*G12</f>
-        <v>0.70609149585466857</v>
+        <v>0.5630856232765078</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>1.553401290880271</v>
+        <v>1.2387883712083172</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3117,15 +3142,15 @@
       </c>
       <c r="G13" s="27">
         <f t="shared" si="2"/>
-        <v>0.47708884855045164</v>
+        <v>0.38046325897061328</v>
       </c>
       <c r="H13" s="28">
         <f t="shared" ref="H13" si="7">F13*G13</f>
-        <v>0.47708884855045164</v>
+        <v>0.38046325897061328</v>
       </c>
       <c r="I13" s="28">
         <f t="shared" si="4"/>
-        <v>1.0495954668109937</v>
+        <v>0.83701916973534929</v>
       </c>
       <c r="J13" t="s">
         <v>378</v>
@@ -3155,15 +3180,15 @@
       </c>
       <c r="G14" s="2">
         <f t="shared" si="2"/>
-        <v>0.36258752489834328</v>
+        <v>0.28915207681766614</v>
       </c>
       <c r="H14" s="1">
         <f>F14*G14</f>
-        <v>0.36258752489834328</v>
+        <v>0.28915207681766614</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="4"/>
-        <v>0.79769255477635526</v>
+        <v>0.63613456899886556</v>
       </c>
       <c r="K14">
         <f>A14*25.4</f>
@@ -3201,15 +3226,15 @@
       </c>
       <c r="G15" s="27">
         <f t="shared" si="2"/>
-        <v>0.17175198547816259</v>
+        <v>0.1369667732294208</v>
       </c>
       <c r="H15" s="28">
         <f t="shared" ref="H15" si="8">F15*G15</f>
-        <v>0.17175198547816259</v>
+        <v>0.1369667732294208</v>
       </c>
       <c r="I15" s="28">
         <f t="shared" si="4"/>
-        <v>0.37785436805195771</v>
+        <v>0.30132690110472576</v>
       </c>
       <c r="J15" t="s">
         <v>379</v>
@@ -3247,15 +3272,15 @@
       </c>
       <c r="G17" s="2">
         <f>E17*F$4</f>
-        <v>1.1547232871442537</v>
+        <v>0.92085527962136671</v>
       </c>
       <c r="H17" s="1">
         <f>F17*G17</f>
-        <v>2.3094465742885073</v>
+        <v>1.8417105592427334</v>
       </c>
       <c r="I17" s="1">
         <f>H17*2.2</f>
-        <v>5.0807824634347165</v>
+        <v>4.0517632303340134</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -3282,15 +3307,15 @@
       </c>
       <c r="G18" s="27">
         <f>E18*F$4</f>
-        <v>1.2701956158586793</v>
+        <v>1.0129408075835038</v>
       </c>
       <c r="H18" s="28">
         <f>F18*G18</f>
-        <v>1.2701956158586793</v>
+        <v>1.0129408075835038</v>
       </c>
       <c r="I18" s="28">
         <f>H18*2.2</f>
-        <v>2.7944303548890947</v>
+        <v>2.2284697766837085</v>
       </c>
       <c r="J18" t="s">
         <v>374</v>
@@ -3326,15 +3351,15 @@
       </c>
       <c r="G19" s="2">
         <f>E19*F$4</f>
-        <v>2.3094465742885073</v>
+        <v>1.8417105592427334</v>
       </c>
       <c r="H19" s="1">
         <f>F19*G19</f>
-        <v>4.6188931485770146</v>
+        <v>3.6834211184854668</v>
       </c>
       <c r="I19" s="1">
         <f>H19*2.2</f>
-        <v>10.161564926869433</v>
+        <v>8.1035264606680268</v>
       </c>
       <c r="L19" s="2">
         <f>L18/L14*L16</f>
@@ -3368,15 +3393,15 @@
       </c>
       <c r="G20" s="27">
         <f>E20*F$4</f>
-        <v>2.4249189030029332</v>
+        <v>1.9337960872048705</v>
       </c>
       <c r="H20" s="28">
         <f>F20*G20</f>
-        <v>2.4249189030029332</v>
+        <v>1.9337960872048705</v>
       </c>
       <c r="I20" s="28">
         <f>H20*2.2</f>
-        <v>5.3348215866064539</v>
+        <v>4.2543513918507152</v>
       </c>
       <c r="J20" t="s">
         <v>375</v>
@@ -3406,15 +3431,15 @@
       </c>
       <c r="G21" s="2">
         <f>E21*F$4</f>
-        <v>2.7410222295358233</v>
+        <v>2.1858784868450236</v>
       </c>
       <c r="H21" s="1">
         <f>F21*G21</f>
-        <v>2.7410222295358233</v>
+        <v>2.1858784868450236</v>
       </c>
       <c r="I21" s="1">
         <f>H21*2.2</f>
-        <v>6.0302489049788122</v>
+        <v>4.8089326710590523</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -3461,15 +3486,15 @@
       </c>
       <c r="G24" s="2">
         <f>E24*F$4</f>
-        <v>2.0450081597484262</v>
+        <v>1.6308292919512763</v>
       </c>
       <c r="H24" s="1">
         <f>F24*G24</f>
-        <v>4.0900163194968524</v>
+        <v>3.2616585839025527</v>
       </c>
       <c r="I24" s="1">
         <f>H24*2.2</f>
-        <v>8.9980359028930756</v>
+        <v>7.1756488845856161</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -3552,7 +3577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>

--- a/documents/o2conc.xlsx
+++ b/documents/o2conc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickos01/Desktop/O24U/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DA8848-7C80-2940-BFDF-D67B265100FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CADF32-15C0-3342-9850-BE7FAC201E9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2560" yWindow="500" windowWidth="25120" windowHeight="16820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>kg/m^3</t>
   </si>
   <si>
-    <t>13x</t>
-  </si>
-  <si>
     <t>kg</t>
   </si>
   <si>
@@ -1170,12 +1167,6 @@
     <t>Long Tank</t>
   </si>
   <si>
-    <t>PSA Column</t>
-  </si>
-  <si>
-    <t>Dryer Column</t>
-  </si>
-  <si>
     <t>Tester PSA Column</t>
   </si>
   <si>
@@ -2152,6 +2143,15 @@
   </si>
   <si>
     <t>JLOX-101 data sheet</t>
+  </si>
+  <si>
+    <t>O24U Dryer Column</t>
+  </si>
+  <si>
+    <t>O24U PSA Column</t>
+  </si>
+  <si>
+    <t>Li-X, Na-X</t>
   </si>
 </sst>
 </file>
@@ -2813,10 +2813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2829,7 +2829,7 @@
         <v>0.63</v>
       </c>
       <c r="I1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2841,30 +2841,28 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="F3" s="3" t="s">
-        <v>5</v>
+      <c r="E3" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="F3">
+        <v>0.63</v>
+      </c>
+      <c r="G3" t="s">
+        <v>4</v>
       </c>
       <c r="H3">
         <v>0.79</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="F4">
-        <v>0.63</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B5" t="s">
         <v>347</v>
-      </c>
-      <c r="B5" t="s">
-        <v>348</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -2876,55 +2874,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="26">
-        <v>2.87</v>
-      </c>
-      <c r="B6" s="26">
-        <v>25</v>
-      </c>
-      <c r="C6" s="26">
-        <f>A6*2.54</f>
-        <v>7.2898000000000005</v>
-      </c>
-      <c r="D6" s="26">
-        <f>B6*2.54</f>
-        <v>63.5</v>
-      </c>
-      <c r="E6" s="27">
-        <f>PI() * (C6/2)^2 * D6 /1000</f>
-        <v>2.6502987599571441</v>
-      </c>
-      <c r="F6" s="26">
-        <v>2</v>
-      </c>
-      <c r="G6" s="27">
-        <f>E6*F$4</f>
-        <v>1.6696882187730009</v>
-      </c>
-      <c r="H6" s="28">
-        <f>F6*G6</f>
-        <v>3.3393764375460018</v>
-      </c>
-      <c r="I6" s="28">
-        <f>H6*2.2</f>
-        <v>7.3466281626012044</v>
-      </c>
-      <c r="J6" t="s">
-        <v>376</v>
-      </c>
       <c r="L6">
         <v>2.5</v>
       </c>
@@ -2934,43 +2896,43 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="26">
-        <v>2.87</v>
+        <v>1.37</v>
       </c>
       <c r="B7" s="26">
-        <v>19</v>
-      </c>
-      <c r="C7" s="26">
+        <v>9</v>
+      </c>
+      <c r="C7" s="28">
         <f>A7*2.54</f>
-        <v>7.2898000000000005</v>
+        <v>3.4798000000000004</v>
       </c>
       <c r="D7" s="26">
         <f>B7*2.54</f>
-        <v>48.26</v>
-      </c>
-      <c r="E7" s="27">
+        <v>22.86</v>
+      </c>
+      <c r="E7" s="28">
         <f>PI() * (C7/2)^2 * D7 /1000</f>
-        <v>2.0142270575674295</v>
+        <v>0.21740757655463619</v>
       </c>
       <c r="F7" s="26">
-        <v>2</v>
-      </c>
-      <c r="G7" s="27">
-        <f>E7*F$4</f>
-        <v>1.2689630462674806</v>
+        <v>1</v>
+      </c>
+      <c r="G7" s="28">
+        <f>E7*F$3</f>
+        <v>0.1369667732294208</v>
       </c>
       <c r="H7" s="28">
-        <f>F7*G7</f>
-        <v>2.5379260925349612</v>
+        <f t="shared" ref="H7" si="0">F7*G7</f>
+        <v>0.1369667732294208</v>
       </c>
       <c r="I7" s="28">
         <f>H7*2.2</f>
-        <v>5.583437403576915</v>
+        <v>0.30132690110472576</v>
       </c>
       <c r="J7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L7" s="1">
-        <f>H6/L6</f>
+        <f>H17/L6</f>
         <v>1.3357505750184007</v>
       </c>
       <c r="M7" s="1">
@@ -2978,220 +2940,224 @@
         <v>13.357505750184007</v>
       </c>
     </row>
+    <row r="8" spans="1:13">
+      <c r="A8">
+        <v>1.37</v>
+      </c>
+      <c r="B8">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1">
+        <f>A8*2.54</f>
+        <v>3.4798000000000004</v>
+      </c>
+      <c r="D8">
+        <f>B8*2.54</f>
+        <v>48.26</v>
+      </c>
+      <c r="E8" s="1">
+        <f>PI() * (C8/2)^2 * D8 /1000</f>
+        <v>0.458971550504232</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <f>E8*F$3</f>
+        <v>0.28915207681766614</v>
+      </c>
+      <c r="H8" s="1">
+        <f>F8*G8</f>
+        <v>0.28915207681766614</v>
+      </c>
+      <c r="I8" s="1">
+        <f>H8*2.2</f>
+        <v>0.63613456899886556</v>
+      </c>
+    </row>
     <row r="9" spans="1:13">
-      <c r="A9">
-        <v>1.8720000000000001</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="26">
+        <v>1.37</v>
+      </c>
+      <c r="B9" s="26">
         <v>25</v>
       </c>
-      <c r="C9">
-        <f t="shared" ref="C9:D15" si="0">A9*2.54</f>
-        <v>4.75488</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
+      <c r="C9" s="28">
+        <f>A9*2.54</f>
+        <v>3.4798000000000004</v>
+      </c>
+      <c r="D9" s="26">
+        <f>B9*2.54</f>
         <v>63.5</v>
       </c>
-      <c r="E9" s="2">
-        <f t="shared" ref="E9:E15" si="1">PI() * (C9/2)^2 * D9 /1000</f>
-        <v>1.1275679648427992</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="28">
+        <f>PI() * (C9/2)^2 * D9 /1000</f>
+        <v>0.60390993487398936</v>
+      </c>
+      <c r="F9" s="26">
         <v>1</v>
       </c>
-      <c r="G9" s="2">
-        <f t="shared" ref="G9:G15" si="2">E9*F$4</f>
-        <v>0.71036781785096348</v>
-      </c>
-      <c r="H9" s="1">
-        <f t="shared" ref="H9" si="3">F9*G9</f>
-        <v>0.71036781785096348</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" ref="I9:I15" si="4">H9*2.2</f>
-        <v>1.5628091992721198</v>
+      <c r="G9" s="28">
+        <f>E9*F$3</f>
+        <v>0.38046325897061328</v>
+      </c>
+      <c r="H9" s="28">
+        <f t="shared" ref="H9" si="1">F9*G9</f>
+        <v>0.38046325897061328</v>
+      </c>
+      <c r="I9" s="28">
+        <f>H9*2.2</f>
+        <v>0.83701916973534929</v>
+      </c>
+      <c r="J9" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>1.8720000000000001</v>
+        <v>1.37</v>
       </c>
       <c r="B10">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>4.75488</v>
+        <v>37</v>
+      </c>
+      <c r="C10" s="1">
+        <f>A10*2.54</f>
+        <v>3.4798000000000004</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>48.26</v>
+        <f>B10*2.54</f>
+        <v>93.98</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="1"/>
-        <v>0.85695165328052747</v>
+        <f>PI() * (C10/2)^2 * D10 /1000</f>
+        <v>0.89378670361350443</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
-      <c r="G10" s="2">
-        <f t="shared" si="2"/>
-        <v>0.53987954156673235</v>
+      <c r="G10" s="1">
+        <f>E10*F$3</f>
+        <v>0.5630856232765078</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" ref="H10" si="5">F10*G10</f>
-        <v>0.53987954156673235</v>
+        <f>F10*G10</f>
+        <v>0.5630856232765078</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="4"/>
-        <v>1.1877349914468112</v>
+        <f>H10*2.2</f>
+        <v>1.2387883712083172</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11">
-        <v>1.8720000000000001</v>
-      </c>
-      <c r="B11">
-        <v>13</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>4.75488</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>33.020000000000003</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="1"/>
-        <v>0.58633534171825563</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="2"/>
-        <v>0.36939126528250105</v>
-      </c>
-      <c r="H11" s="1">
-        <f t="shared" ref="H11" si="6">F11*G11</f>
-        <v>0.36939126528250105</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="4"/>
-        <v>0.8126607836215024</v>
-      </c>
+      <c r="C11" s="1"/>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
-        <v>1.37</v>
+        <v>1.8720000000000001</v>
       </c>
       <c r="B12">
-        <v>37</v>
-      </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
-        <v>3.4798000000000004</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <f>A12*2.54</f>
+        <v>4.75488</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>93.98</v>
+        <f>B12*2.54</f>
+        <v>33.020000000000003</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="1"/>
-        <v>0.89378670361350443</v>
+        <f>PI() * (C12/2)^2 * D12 /1000</f>
+        <v>0.58633534171825563</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="G12" s="2">
-        <f t="shared" si="2"/>
-        <v>0.5630856232765078</v>
+      <c r="G12" s="1">
+        <f>E12*F$3</f>
+        <v>0.36939126528250105</v>
       </c>
       <c r="H12" s="1">
-        <f>F12*G12</f>
-        <v>0.5630856232765078</v>
+        <f t="shared" ref="H12" si="2">F12*G12</f>
+        <v>0.36939126528250105</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="4"/>
-        <v>1.2387883712083172</v>
+        <f>H12*2.2</f>
+        <v>0.8126607836215024</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="26">
-        <v>1.37</v>
-      </c>
-      <c r="B13" s="26">
-        <v>25</v>
-      </c>
-      <c r="C13" s="26">
-        <f t="shared" si="0"/>
-        <v>3.4798000000000004</v>
-      </c>
-      <c r="D13" s="26">
-        <f t="shared" si="0"/>
-        <v>63.5</v>
-      </c>
-      <c r="E13" s="28">
-        <f t="shared" si="1"/>
-        <v>0.60390993487398936</v>
-      </c>
-      <c r="F13" s="26">
+      <c r="A13">
+        <v>1.8720000000000001</v>
+      </c>
+      <c r="B13">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1">
+        <f>A13*2.54</f>
+        <v>4.75488</v>
+      </c>
+      <c r="D13">
+        <f>B13*2.54</f>
+        <v>48.26</v>
+      </c>
+      <c r="E13" s="2">
+        <f>PI() * (C13/2)^2 * D13 /1000</f>
+        <v>0.85695165328052747</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="G13" s="27">
-        <f t="shared" si="2"/>
-        <v>0.38046325897061328</v>
-      </c>
-      <c r="H13" s="28">
-        <f t="shared" ref="H13" si="7">F13*G13</f>
-        <v>0.38046325897061328</v>
-      </c>
-      <c r="I13" s="28">
-        <f t="shared" si="4"/>
-        <v>0.83701916973534929</v>
-      </c>
-      <c r="J13" t="s">
-        <v>378</v>
+      <c r="G13" s="1">
+        <f>E13*F$3</f>
+        <v>0.53987954156673235</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ref="H13" si="3">F13*G13</f>
+        <v>0.53987954156673235</v>
+      </c>
+      <c r="I13" s="1">
+        <f>H13*2.2</f>
+        <v>1.1877349914468112</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14">
-        <v>1.37</v>
+        <v>1.8720000000000001</v>
       </c>
       <c r="B14">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>3.4798000000000004</v>
+        <v>25</v>
+      </c>
+      <c r="C14" s="1">
+        <f>A14*2.54</f>
+        <v>4.75488</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>48.26</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>0.458971550504232</v>
+        <f>B14*2.54</f>
+        <v>63.5</v>
+      </c>
+      <c r="E14" s="2">
+        <f>PI() * (C14/2)^2 * D14 /1000</f>
+        <v>1.1275679648427992</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
-      <c r="G14" s="2">
-        <f t="shared" si="2"/>
-        <v>0.28915207681766614</v>
+      <c r="G14" s="1">
+        <f>E14*F$3</f>
+        <v>0.71036781785096348</v>
       </c>
       <c r="H14" s="1">
-        <f>F14*G14</f>
-        <v>0.28915207681766614</v>
+        <f t="shared" ref="H14" si="4">F14*G14</f>
+        <v>0.71036781785096348</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="4"/>
-        <v>0.63613456899886556</v>
+        <f>H14*2.2</f>
+        <v>1.5628091992721198</v>
       </c>
       <c r="K14">
-        <f>A14*25.4</f>
+        <f>A8*25.4</f>
         <v>34.798000000000002</v>
       </c>
       <c r="L14">
@@ -3199,370 +3165,505 @@
         <v>1440</v>
       </c>
       <c r="M14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="26">
-        <v>1.37</v>
-      </c>
-      <c r="B15" s="26">
-        <v>9</v>
-      </c>
-      <c r="C15" s="26">
-        <f t="shared" si="0"/>
-        <v>3.4798000000000004</v>
-      </c>
-      <c r="D15" s="26">
-        <f t="shared" si="0"/>
-        <v>22.86</v>
-      </c>
-      <c r="E15" s="28">
-        <f t="shared" si="1"/>
-        <v>0.21740757655463619</v>
-      </c>
-      <c r="F15" s="26">
-        <v>1</v>
-      </c>
-      <c r="G15" s="27">
-        <f t="shared" si="2"/>
-        <v>0.1369667732294208</v>
-      </c>
-      <c r="H15" s="28">
-        <f t="shared" ref="H15" si="8">F15*G15</f>
-        <v>0.1369667732294208</v>
-      </c>
-      <c r="I15" s="28">
-        <f t="shared" si="4"/>
-        <v>0.30132690110472576</v>
-      </c>
-      <c r="J15" t="s">
-        <v>379</v>
-      </c>
+      <c r="C15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:13">
+      <c r="A16" s="26">
+        <v>2.87</v>
+      </c>
+      <c r="B16" s="26">
+        <v>19</v>
+      </c>
+      <c r="C16" s="28">
+        <f>A16*2.54</f>
+        <v>7.2898000000000005</v>
+      </c>
+      <c r="D16" s="26">
+        <f>B16*2.54</f>
+        <v>48.26</v>
+      </c>
+      <c r="E16" s="27">
+        <f>PI() * (C16/2)^2 * D16 /1000</f>
+        <v>2.0142270575674295</v>
+      </c>
+      <c r="F16" s="26">
+        <v>2</v>
+      </c>
+      <c r="G16" s="28">
+        <f>E16*F$3</f>
+        <v>1.2689630462674806</v>
+      </c>
+      <c r="H16" s="28">
+        <f>F16*G16</f>
+        <v>2.5379260925349612</v>
+      </c>
+      <c r="I16" s="28">
+        <f>H16*2.2</f>
+        <v>5.583437403576915</v>
+      </c>
+      <c r="J16" t="s">
+        <v>701</v>
+      </c>
       <c r="L16">
         <v>1000</v>
       </c>
       <c r="M16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17">
-        <v>3.37</v>
-      </c>
-      <c r="B17">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <f t="shared" ref="C17:D21" si="9">A17*2.54</f>
-        <v>8.559800000000001</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="9"/>
-        <v>25.4</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="A17" s="26">
+        <v>2.87</v>
+      </c>
+      <c r="B17" s="26">
+        <v>25</v>
+      </c>
+      <c r="C17" s="28">
+        <f>A17*2.54</f>
+        <v>7.2898000000000005</v>
+      </c>
+      <c r="D17" s="26">
+        <f>B17*2.54</f>
+        <v>63.5</v>
+      </c>
+      <c r="E17" s="27">
         <f>PI() * (C17/2)^2 * D17 /1000</f>
-        <v>1.4616750470180424</v>
-      </c>
-      <c r="F17">
+        <v>2.6502987599571441</v>
+      </c>
+      <c r="F17" s="26">
         <v>2</v>
       </c>
-      <c r="G17" s="2">
-        <f>E17*F$4</f>
-        <v>0.92085527962136671</v>
-      </c>
-      <c r="H17" s="1">
+      <c r="G17" s="28">
+        <f>E17*F$3</f>
+        <v>1.6696882187730009</v>
+      </c>
+      <c r="H17" s="28">
         <f>F17*G17</f>
-        <v>1.8417105592427334</v>
-      </c>
-      <c r="I17" s="1">
+        <v>3.3393764375460018</v>
+      </c>
+      <c r="I17" s="28">
         <f>H17*2.2</f>
-        <v>4.0517632303340134</v>
+        <v>7.3466281626012044</v>
+      </c>
+      <c r="J17" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="26">
-        <v>3.37</v>
+        <v>2.87</v>
       </c>
       <c r="B18" s="26">
-        <v>11</v>
-      </c>
-      <c r="C18" s="26">
-        <f t="shared" si="9"/>
-        <v>8.559800000000001</v>
+        <v>37</v>
+      </c>
+      <c r="C18" s="28">
+        <f>A18*2.54</f>
+        <v>7.2898000000000005</v>
       </c>
       <c r="D18" s="26">
-        <f t="shared" si="9"/>
-        <v>27.94</v>
+        <f>B18*2.54</f>
+        <v>93.98</v>
       </c>
       <c r="E18" s="27">
         <f>PI() * (C18/2)^2 * D18 /1000</f>
-        <v>1.6078425517198471</v>
+        <v>3.9224421647365735</v>
       </c>
       <c r="F18" s="26">
-        <v>1</v>
-      </c>
-      <c r="G18" s="27">
-        <f>E18*F$4</f>
-        <v>1.0129408075835038</v>
+        <v>2</v>
+      </c>
+      <c r="G18" s="28">
+        <f>E18*F$3</f>
+        <v>2.4711385637840415</v>
       </c>
       <c r="H18" s="28">
         <f>F18*G18</f>
-        <v>1.0129408075835038</v>
+        <v>4.942277127568083</v>
       </c>
       <c r="I18" s="28">
         <f>H18*2.2</f>
-        <v>2.2284697766837085</v>
-      </c>
-      <c r="J18" t="s">
-        <v>374</v>
+        <v>10.873009680649783</v>
       </c>
       <c r="L18">
         <v>20</v>
       </c>
       <c r="M18" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19">
-        <v>3.37</v>
-      </c>
-      <c r="B19">
-        <v>20</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="9"/>
-        <v>8.559800000000001</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="9"/>
-        <v>50.8</v>
-      </c>
-      <c r="E19" s="2">
-        <f>PI() * (C19/2)^2 * D19 /1000</f>
-        <v>2.9233500940360848</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19" s="2">
-        <f>E19*F$4</f>
-        <v>1.8417105592427334</v>
-      </c>
-      <c r="H19" s="1">
-        <f>F19*G19</f>
-        <v>3.6834211184854668</v>
-      </c>
-      <c r="I19" s="1">
-        <f>H19*2.2</f>
-        <v>8.1035264606680268</v>
-      </c>
+      <c r="C19" s="1"/>
+      <c r="G19" s="1"/>
       <c r="L19" s="2">
         <f>L18/L14*L16</f>
         <v>13.888888888888888</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="26">
+      <c r="A20">
         <v>3.37</v>
       </c>
-      <c r="B20" s="26">
-        <v>21</v>
-      </c>
-      <c r="C20" s="26">
-        <f t="shared" si="9"/>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" ref="C20:D24" si="5">A20*2.54</f>
         <v>8.559800000000001</v>
       </c>
-      <c r="D20" s="26">
-        <f t="shared" si="9"/>
-        <v>53.34</v>
-      </c>
-      <c r="E20" s="27">
+      <c r="D20">
+        <f t="shared" si="5"/>
+        <v>25.4</v>
+      </c>
+      <c r="E20" s="2">
         <f>PI() * (C20/2)^2 * D20 /1000</f>
-        <v>3.0695175987378898</v>
-      </c>
-      <c r="F20" s="26">
+        <v>1.4616750470180424</v>
+      </c>
+      <c r="F20">
         <v>1</v>
       </c>
-      <c r="G20" s="27">
-        <f>E20*F$4</f>
-        <v>1.9337960872048705</v>
-      </c>
-      <c r="H20" s="28">
+      <c r="G20" s="1">
+        <f>E20*F$3</f>
+        <v>0.92085527962136671</v>
+      </c>
+      <c r="H20" s="1">
         <f>F20*G20</f>
-        <v>1.9337960872048705</v>
-      </c>
-      <c r="I20" s="28">
+        <v>0.92085527962136671</v>
+      </c>
+      <c r="I20" s="1">
         <f>H20*2.2</f>
-        <v>4.2543513918507152</v>
-      </c>
-      <c r="J20" t="s">
-        <v>375</v>
+        <v>2.0258816151670067</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21">
-        <v>3.87</v>
-      </c>
-      <c r="B21">
-        <v>18</v>
-      </c>
-      <c r="C21">
-        <f t="shared" si="9"/>
-        <v>9.8298000000000005</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="9"/>
-        <v>45.72</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="A21" s="26">
+        <v>3.37</v>
+      </c>
+      <c r="B21" s="26">
+        <v>11</v>
+      </c>
+      <c r="C21" s="28">
+        <f t="shared" si="5"/>
+        <v>8.559800000000001</v>
+      </c>
+      <c r="D21" s="26">
+        <f t="shared" si="5"/>
+        <v>27.94</v>
+      </c>
+      <c r="E21" s="27">
         <f>PI() * (C21/2)^2 * D21 /1000</f>
-        <v>3.4696483918174978</v>
-      </c>
-      <c r="F21">
+        <v>1.6078425517198471</v>
+      </c>
+      <c r="F21" s="26">
         <v>1</v>
       </c>
-      <c r="G21" s="2">
-        <f>E21*F$4</f>
-        <v>2.1858784868450236</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="G21" s="28">
+        <f>E21*F$3</f>
+        <v>1.0129408075835038</v>
+      </c>
+      <c r="H21" s="28">
         <f>F21*G21</f>
-        <v>2.1858784868450236</v>
-      </c>
-      <c r="I21" s="1">
+        <v>1.0129408075835038</v>
+      </c>
+      <c r="I21" s="28">
         <f>H21*2.2</f>
-        <v>4.8089326710590523</v>
-      </c>
+        <v>2.2284697766837085</v>
+      </c>
+      <c r="J21" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="C22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23">
-        <v>3.9980000000000002</v>
+        <v>3.37</v>
       </c>
       <c r="B23">
-        <v>48</v>
-      </c>
-      <c r="C23">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
         <f>A23*2.54</f>
-        <v>10.154920000000001</v>
+        <v>8.559800000000001</v>
       </c>
       <c r="D23">
         <f>B23*2.54</f>
-        <v>121.92</v>
+        <v>50.8</v>
       </c>
       <c r="E23" s="2">
         <f>PI() * (C23/2)^2 * D23 /1000</f>
-        <v>9.8745621632254927</v>
+        <v>2.9233500940360848</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1">
+        <f>E23*F$3</f>
+        <v>1.8417105592427334</v>
+      </c>
+      <c r="H23" s="1">
+        <f>F23*G23</f>
+        <v>1.8417105592427334</v>
+      </c>
+      <c r="I23" s="1">
+        <f>H23*2.2</f>
+        <v>4.0517632303340134</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24">
-        <v>2.0470000000000002</v>
-      </c>
-      <c r="B24">
-        <v>48</v>
-      </c>
-      <c r="C24">
+      <c r="A24" s="26">
+        <v>3.37</v>
+      </c>
+      <c r="B24" s="26">
+        <v>21</v>
+      </c>
+      <c r="C24" s="28">
         <f>A24*2.54</f>
-        <v>5.1993800000000006</v>
-      </c>
-      <c r="D24">
+        <v>8.559800000000001</v>
+      </c>
+      <c r="D24" s="26">
         <f>B24*2.54</f>
-        <v>121.92</v>
-      </c>
-      <c r="E24" s="2">
+        <v>53.34</v>
+      </c>
+      <c r="E24" s="27">
         <f>PI() * (C24/2)^2 * D24 /1000</f>
-        <v>2.5886179237321847</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24" s="2">
-        <f>E24*F$4</f>
-        <v>1.6308292919512763</v>
-      </c>
-      <c r="H24" s="1">
+        <v>3.0695175987378898</v>
+      </c>
+      <c r="F24" s="26">
+        <v>1</v>
+      </c>
+      <c r="G24" s="28">
+        <f>E24*F$3</f>
+        <v>1.9337960872048705</v>
+      </c>
+      <c r="H24" s="28">
         <f>F24*G24</f>
-        <v>3.2616585839025527</v>
-      </c>
-      <c r="I24" s="1">
+        <v>1.9337960872048705</v>
+      </c>
+      <c r="I24" s="28">
         <f>H24*2.2</f>
-        <v>7.1756488845856161</v>
+        <v>4.2543513918507152</v>
+      </c>
+      <c r="J24" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:13">
+      <c r="C25" s="1"/>
+      <c r="G25" s="1"/>
       <c r="K25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L25">
         <v>3.1</v>
       </c>
       <c r="M25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:13">
+      <c r="C26" s="1"/>
+      <c r="G26" s="1"/>
       <c r="K26" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L26">
         <v>250</v>
       </c>
       <c r="M26" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="27" spans="1:13">
+      <c r="A27">
+        <v>3.87</v>
+      </c>
+      <c r="B27">
+        <v>18</v>
+      </c>
+      <c r="C27" s="1">
+        <f>A27*2.54</f>
+        <v>9.8298000000000005</v>
+      </c>
+      <c r="D27">
+        <f>B27*2.54</f>
+        <v>45.72</v>
+      </c>
+      <c r="E27" s="2">
+        <f>PI() * (C27/2)^2 * D27 /1000</f>
+        <v>3.4696483918174978</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1">
+        <f>E27*F$3</f>
+        <v>2.1858784868450236</v>
+      </c>
+      <c r="H27" s="1">
+        <f>F27*G27</f>
+        <v>2.1858784868450236</v>
+      </c>
+      <c r="I27" s="1">
+        <f>H27*2.2</f>
+        <v>4.8089326710590523</v>
+      </c>
       <c r="K27" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L27">
         <v>50</v>
       </c>
       <c r="M27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="28" spans="1:13">
+      <c r="A28">
+        <v>3.87</v>
+      </c>
+      <c r="B28">
+        <v>37</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ref="C28" si="6">A28*2.54</f>
+        <v>9.8298000000000005</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28" si="7">B28*2.54</f>
+        <v>93.98</v>
+      </c>
+      <c r="E28" s="2">
+        <f>PI() * (C28/2)^2 * D28 /1000</f>
+        <v>7.1320550276248564</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <f>E28*F$3</f>
+        <v>4.4931946674036594</v>
+      </c>
+      <c r="H28" s="1">
+        <f>F28*G28</f>
+        <v>4.4931946674036594</v>
+      </c>
+      <c r="I28" s="1">
+        <f>H28*2.2</f>
+        <v>9.8850282682880515</v>
+      </c>
       <c r="K28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L28" s="1">
         <f>L25*(L26+100)/(L27+100)</f>
         <v>7.2333333333333334</v>
       </c>
       <c r="M28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:13">
+      <c r="A29">
+        <v>3.87</v>
+      </c>
+      <c r="B29">
+        <v>49</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" ref="C29" si="8">A29*2.54</f>
+        <v>9.8298000000000005</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29" si="9">B29*2.54</f>
+        <v>124.46000000000001</v>
+      </c>
+      <c r="E29" s="2">
+        <f>PI() * (C29/2)^2 * D29 /1000</f>
+        <v>9.4451539555031889</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <f>E29*F$3</f>
+        <v>5.9504469919670093</v>
+      </c>
+      <c r="H29" s="1">
+        <f>F29*G29</f>
+        <v>5.9504469919670093</v>
+      </c>
+      <c r="I29" s="1">
+        <f>H29*2.2</f>
+        <v>13.090983382327421</v>
+      </c>
       <c r="K29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L29">
         <v>5</v>
       </c>
       <c r="M29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:13">
+      <c r="C30" s="1"/>
       <c r="K30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L30" s="1">
         <f>L28/L29*60</f>
         <v>86.800000000000011</v>
       </c>
       <c r="M30" t="s">
-        <v>364</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="26">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="B32" s="26">
+        <v>17</v>
+      </c>
+      <c r="C32" s="28">
+        <f>A32*2.54</f>
+        <v>7.7927200000000001</v>
+      </c>
+      <c r="D32" s="26">
+        <f>B32*2.54</f>
+        <v>43.18</v>
+      </c>
+      <c r="E32" s="27">
+        <f>PI() * (C32/2)^2 * D32 /1000</f>
+        <v>2.0594472054167392</v>
+      </c>
+      <c r="F32" s="26">
+        <v>2</v>
+      </c>
+      <c r="G32" s="28">
+        <f>E32*F$3</f>
+        <v>1.2974517394125458</v>
+      </c>
+      <c r="H32" s="28">
+        <f>F32*G32</f>
+        <v>2.5949034788250915</v>
+      </c>
+      <c r="I32" s="28">
+        <f>H32*2.2</f>
+        <v>5.708787653415202</v>
       </c>
     </row>
   </sheetData>
@@ -3594,35 +3695,35 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3630,7 +3731,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3638,7 +3739,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3646,7 +3747,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3654,7 +3755,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3662,7 +3763,7 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3670,7 +3771,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3678,56 +3779,56 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="C14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
+        <v>364</v>
+      </c>
+      <c r="G14" t="s">
         <v>365</v>
-      </c>
-      <c r="G14" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="C20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -3735,12 +3836,12 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="C22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3748,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3756,7 +3857,7 @@
         <v>4</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3764,30 +3865,30 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="C28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="C29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="C30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -3795,22 +3896,22 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="C32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="C33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="C34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -3818,55 +3919,55 @@
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="C38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="C39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="C40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="C41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="C42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="C43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="C44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="C45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -3874,48 +3975,48 @@
         <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="C50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="C51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="C52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="C53" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="C54" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="C55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -3923,70 +4024,70 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="C57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="C58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="C59" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="C60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="C61" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="C62" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
         <v>75</v>
-      </c>
-      <c r="C64" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="C65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="C66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="C67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="C68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="C69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -3994,7 +4095,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -4002,76 +4103,76 @@
         <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="C72" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="C73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="C74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="C75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="C79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="C80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="C81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="C82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="C83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="C84" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B87">
         <v>4</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -4079,7 +4180,7 @@
         <v>4</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -4087,7 +4188,7 @@
         <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -4095,7 +4196,7 @@
         <v>2</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -4103,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -4111,7 +4212,7 @@
         <v>2</v>
       </c>
       <c r="C92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -4119,7 +4220,7 @@
         <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -4127,18 +4228,18 @@
         <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B97">
         <v>2</v>
       </c>
       <c r="C97" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -4146,7 +4247,7 @@
         <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -4154,7 +4255,7 @@
         <v>2</v>
       </c>
       <c r="C99" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -4162,7 +4263,7 @@
         <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -4170,7 +4271,7 @@
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -4178,7 +4279,7 @@
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -4186,7 +4287,7 @@
         <v>2</v>
       </c>
       <c r="C103" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -4194,7 +4295,7 @@
         <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -4202,7 +4303,7 @@
         <v>2</v>
       </c>
       <c r="C105" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -4210,7 +4311,7 @@
         <v>5</v>
       </c>
       <c r="C106" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -4218,18 +4319,18 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B110">
         <v>2</v>
       </c>
       <c r="C110" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -4237,7 +4338,7 @@
         <v>2</v>
       </c>
       <c r="C111" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -4245,7 +4346,7 @@
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -4253,7 +4354,7 @@
         <v>2</v>
       </c>
       <c r="C113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -4261,32 +4362,32 @@
         <v>2</v>
       </c>
       <c r="C114" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="C115" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="C116" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="C117" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="C118" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="C119" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -4294,265 +4395,265 @@
         <v>2</v>
       </c>
       <c r="C120" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B122">
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="C123" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="C124" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="C125" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="C126" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="C127" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="C128" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="C129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C132" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="C133" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="C134" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="C135" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="C136" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="C137" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="C138" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="C139" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="C140" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="C141" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="C142" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
+        <v>151</v>
+      </c>
+      <c r="C145" t="s">
         <v>152</v>
-      </c>
-      <c r="C145" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="C146" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="C147" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="C148" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="C149" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="C150" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="C151" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="C152" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="C153" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="C154" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="C155" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="C156" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="C157" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="C158" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="C159" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
+        <v>208</v>
+      </c>
+      <c r="C161" t="s">
         <v>209</v>
-      </c>
-      <c r="C161" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="C162" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="C163" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="C164" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
+        <v>174</v>
+      </c>
+      <c r="C166" t="s">
         <v>175</v>
-      </c>
-      <c r="C166" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="C167" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="C168" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="C169" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="C170" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="C171" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="C172" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="C173" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="C174" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="C175" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -4560,85 +4661,85 @@
         <v>6</v>
       </c>
       <c r="C176" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="C177" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="C178" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="C179" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="C182" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="C183" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="C184" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="C185" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="C186" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="C187" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="C188" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C190" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="C191" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="C192" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="C193" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="C194" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -4646,76 +4747,76 @@
         <v>3</v>
       </c>
       <c r="C195" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="C196" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C198" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="C199" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="C200" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="C201" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C203" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="C204" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="C205" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="C206" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C208" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="209" spans="3:3">
       <c r="C209" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="210" spans="3:3">
       <c r="C210" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -4741,28 +4842,28 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="34" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="68" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="C3" s="37" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="C4" s="40" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -4770,19 +4871,19 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="34" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F6" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -4790,705 +4891,705 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C8" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D8" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E8" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C9" s="37" t="s">
+        <v>571</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>573</v>
+      </c>
+      <c r="E9" t="s">
         <v>574</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>576</v>
-      </c>
-      <c r="E9" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C10" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="67" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C16" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C18" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E18" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C20" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C21" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E22" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="67" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C25" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E25" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C27" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C28" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E29" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="67" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="C32" t="s">
+        <v>426</v>
+      </c>
+      <c r="D32" t="s">
         <v>477</v>
-      </c>
-      <c r="C32" t="s">
-        <v>429</v>
-      </c>
-      <c r="D32" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="67" t="s">
+        <v>475</v>
+      </c>
+      <c r="C33" t="s">
+        <v>444</v>
+      </c>
+      <c r="D33" t="s">
         <v>478</v>
-      </c>
-      <c r="C33" t="s">
-        <v>447</v>
-      </c>
-      <c r="D33" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D35" s="39" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E35" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C38" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C39" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E39" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E40" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="67" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C41" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D41" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C43" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="67" t="s">
+        <v>473</v>
+      </c>
+      <c r="C44" t="s">
         <v>476</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>479</v>
-      </c>
-      <c r="D44" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="67" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C45" s="66" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D45" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="34" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="67" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="67" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="67" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C53" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E53" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E54" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E55" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C59" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E59" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D60" s="36" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E60" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D61" s="36" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E61" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C62" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C63" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D65" s="36" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E65" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="67" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C66" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D66" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D67" s="36" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E67" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C69" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="70" spans="2:5">
       <c r="B70" s="67" t="s">
+        <v>464</v>
+      </c>
+      <c r="C70" t="s">
         <v>467</v>
       </c>
-      <c r="C70" t="s">
-        <v>470</v>
-      </c>
       <c r="D70" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="71" spans="2:5">
       <c r="B71" s="67" t="s">
+        <v>464</v>
+      </c>
+      <c r="C71" s="40" t="s">
         <v>467</v>
       </c>
-      <c r="C71" s="40" t="s">
-        <v>470</v>
-      </c>
       <c r="D71" s="40" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C72" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="67" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C73" s="66" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D73" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="67" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D74" s="40" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="67" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D75" s="40" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="67" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C76" s="66" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D76" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="77" spans="2:5">
       <c r="B77" s="67" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C77" s="40" t="s">
+        <v>595</v>
+      </c>
+      <c r="D77" s="40" t="s">
+        <v>597</v>
+      </c>
+      <c r="E77" t="s">
         <v>598</v>
-      </c>
-      <c r="D77" s="40" t="s">
-        <v>600</v>
-      </c>
-      <c r="E77" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="67" t="s">
+        <v>489</v>
+      </c>
+      <c r="C79" t="s">
         <v>492</v>
       </c>
-      <c r="C79" t="s">
-        <v>495</v>
-      </c>
       <c r="D79" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="80" spans="2:5">
       <c r="B80" s="67" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C80" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D80" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="67" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C81" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D81" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="82" spans="2:5">
       <c r="B82" s="67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C82" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D82" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="67" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C83" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D83" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="85" spans="2:5">
       <c r="B85" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C85" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D85" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="67" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C86" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D86" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="87" spans="2:5">
       <c r="B87" t="s">
+        <v>510</v>
+      </c>
+      <c r="C87" s="36" t="s">
+        <v>512</v>
+      </c>
+      <c r="D87" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="E87" t="s">
         <v>513</v>
-      </c>
-      <c r="C87" s="36" t="s">
-        <v>515</v>
-      </c>
-      <c r="D87" s="36" t="s">
-        <v>572</v>
-      </c>
-      <c r="E87" t="s">
-        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -5524,25 +5625,25 @@
   <sheetData>
     <row r="2" spans="2:32">
       <c r="B2" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AA2" s="34" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="AB2" s="34" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AC2" s="34" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="2:32" ht="17" thickBot="1">
@@ -5592,219 +5693,219 @@
         <v>15</v>
       </c>
       <c r="AA3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="AB3" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AC3" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AD3" s="3">
         <v>2</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="2:32">
       <c r="B4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E4" s="44" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F4" s="45" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G4" s="44" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I4" s="44" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="J4" s="45" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="K4" s="44" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="L4" s="45" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M4" s="44" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="N4" s="45" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="O4" s="44" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="P4" s="45" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="Q4" s="46" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="AA4" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AB4" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AC4" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AD4" s="3">
         <v>4</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="2:32" ht="17" thickBot="1">
       <c r="C5" s="60" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="60" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F5" s="62"/>
       <c r="G5" s="60" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H5" s="62"/>
       <c r="I5" s="60" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="J5" s="62"/>
       <c r="K5" s="60" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L5" s="62"/>
       <c r="M5" s="60" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="N5" s="62"/>
       <c r="O5" s="60" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="P5" s="62"/>
       <c r="Q5" s="63" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AA5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AB5" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="AC5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AD5" s="3">
         <v>6</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="6" spans="2:32" ht="17" thickBot="1">
       <c r="AA6" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="AB6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="AC6" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AD6" s="3">
         <v>8</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="AF6" s="34"/>
     </row>
     <row r="7" spans="2:32">
       <c r="B7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D7" s="64"/>
       <c r="E7" s="54" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F7" s="64"/>
       <c r="G7" s="54" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H7" s="64"/>
       <c r="I7" s="47"/>
       <c r="J7" s="71"/>
       <c r="K7" s="71" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="L7" s="71"/>
       <c r="M7" s="72"/>
       <c r="N7" s="69" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="65" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AA7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="AB7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AC7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AD7" s="3">
         <v>10</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="8" spans="2:32" ht="17" thickBot="1">
       <c r="C8" s="57" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H8" s="58" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="I8" s="53"/>
       <c r="J8" s="51"/>
@@ -5812,68 +5913,68 @@
       <c r="L8" s="51"/>
       <c r="M8" s="52"/>
       <c r="N8" s="57" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="O8" s="58" t="s">
+        <v>517</v>
+      </c>
+      <c r="P8" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q8" s="61" t="s">
         <v>520</v>
       </c>
-      <c r="P8" s="61" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q8" s="61" t="s">
-        <v>523</v>
-      </c>
       <c r="AA8" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="AB8" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AC8" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AD8" s="3">
         <v>12</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9" spans="2:32">
       <c r="AA9" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AB9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="AC9" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AD9" s="3">
         <v>1</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="10" spans="2:32">
       <c r="B10" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="AA10" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AB10" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AC10" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AD10" s="3">
         <v>3</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="11" spans="2:32" ht="17" thickBot="1">
@@ -5932,146 +6033,146 @@
         <v>18</v>
       </c>
       <c r="AA11" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AB11" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AC11" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AD11" s="3">
         <v>5</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="2:32">
       <c r="B12" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D12" s="45" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="43"/>
       <c r="G12" s="42"/>
       <c r="H12" s="44" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="I12" s="50" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="J12" s="50" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="K12" s="45" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="44" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="N12" s="50" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="O12" s="45" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="P12" s="44" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="Q12" s="50" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="R12" s="45" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="S12" s="44" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="T12" s="50" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="U12" s="45" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="AA12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AD12" s="3">
         <v>14</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="2:32" ht="17" thickBot="1">
       <c r="C13" s="60" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D13" s="52"/>
       <c r="E13" s="53"/>
       <c r="F13" s="51" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G13" s="52"/>
       <c r="H13" s="53"/>
       <c r="I13" s="49"/>
       <c r="J13" s="51" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K13" s="52"/>
       <c r="L13" s="3"/>
       <c r="M13" s="53"/>
       <c r="N13" s="51" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="O13" s="52"/>
       <c r="P13" s="53"/>
       <c r="Q13" s="51" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="R13" s="52"/>
       <c r="S13" s="53"/>
       <c r="T13" s="51" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="U13" s="52"/>
     </row>
     <row r="14" spans="2:32" ht="17" thickBot="1">
       <c r="AA14" t="s">
+        <v>688</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="AE14" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>694</v>
-      </c>
       <c r="AF14" s="3" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="15" spans="2:32">
       <c r="B15" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="54" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="54"/>
       <c r="H15" s="55" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I15" s="48"/>
       <c r="J15" s="56"/>
@@ -6079,406 +6180,406 @@
       <c r="L15" s="3"/>
       <c r="M15" s="54"/>
       <c r="N15" s="55" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="O15" s="48"/>
       <c r="P15" s="56"/>
       <c r="Q15" s="42"/>
       <c r="R15" s="55" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="S15" s="42"/>
       <c r="T15" s="54" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="U15" s="42"/>
       <c r="AC15" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="AE15" s="3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="2:32" ht="17" thickBot="1">
       <c r="C16" s="57" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D16" s="58" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F16" s="58" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G16" s="57" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="H16" s="59" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="I16" s="59" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="J16" s="59" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="K16" s="58" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="57" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="N16" s="59" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="O16" s="59" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="P16" s="59" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="Q16" s="58" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="R16" s="59"/>
       <c r="S16" s="58"/>
       <c r="T16" s="57" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="U16" s="58" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" spans="27:31">
       <c r="AA18" s="34" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="19" spans="27:31">
       <c r="AA19" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="AB19" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="AC19" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AD19" s="3">
         <v>5</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="21" spans="27:31">
       <c r="AA21" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AB21" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="AC21" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AD21" s="3">
         <v>7</v>
       </c>
       <c r="AE21" s="3" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="22" spans="27:31">
       <c r="AC22" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AD22" s="3">
         <v>9</v>
       </c>
       <c r="AE22" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="27:31">
       <c r="AA24" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AB24" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="AC24" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AD24" s="3">
         <v>11</v>
       </c>
       <c r="AE24" s="3" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="27:31">
       <c r="AC25" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AD25" s="3">
         <v>13</v>
       </c>
       <c r="AE25" s="3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="26" spans="27:31">
       <c r="AC26" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AD26" s="3">
         <v>19</v>
       </c>
       <c r="AE26" s="3" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="27" spans="27:31">
       <c r="AC27" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AD27" s="3">
         <v>21</v>
       </c>
       <c r="AE27" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="29" spans="27:31">
       <c r="AA29" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AB29" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AC29" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AD29" s="3">
         <v>15</v>
       </c>
       <c r="AE29" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="30" spans="27:31">
       <c r="AC30" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AD30" s="3">
         <v>17</v>
       </c>
       <c r="AE30" s="3" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="31" spans="27:31">
       <c r="AC31" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AD31" s="3">
         <v>23</v>
       </c>
       <c r="AE31" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="32" spans="27:31">
       <c r="AC32" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AD32" s="3">
         <v>25</v>
       </c>
       <c r="AE32" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="34" spans="27:32">
       <c r="AA34" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AB34" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AC34" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AD34" s="3">
         <v>6</v>
       </c>
       <c r="AE34" s="3" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="36" spans="27:32">
       <c r="AA36" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="AB36" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="AC36" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AD36" s="3">
         <v>8</v>
       </c>
       <c r="AE36" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="37" spans="27:32">
       <c r="AC37" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AD37" s="3">
         <v>10</v>
       </c>
       <c r="AE37" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="38" spans="27:32">
       <c r="AC38" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="AD38" s="3">
         <v>12</v>
       </c>
       <c r="AE38" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="39" spans="27:32">
       <c r="AC39" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AD39" s="3">
         <v>14</v>
       </c>
       <c r="AE39" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="40" spans="27:32">
       <c r="AC40" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AD40" s="3">
         <v>16</v>
       </c>
       <c r="AE40" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="42" spans="27:32">
       <c r="AA42" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AC42" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AD42" s="3">
         <v>18</v>
       </c>
       <c r="AE42" s="3" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="43" spans="27:32">
       <c r="AA43" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AC43" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AD43" s="3">
         <v>20</v>
       </c>
       <c r="AE43" s="3" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="44" spans="27:32">
       <c r="AA44" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AB44" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AC44" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AD44" s="3">
         <v>22</v>
       </c>
       <c r="AE44" s="3" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="45" spans="27:32">
       <c r="AA45" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="AB45" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AC45" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AD45" s="3">
         <v>24</v>
       </c>
       <c r="AE45" s="3" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="46" spans="27:32">
       <c r="AA46" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="AB46" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="AC46" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AD46" s="3">
         <v>26</v>
       </c>
       <c r="AE46" s="3" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="48" spans="27:32">
       <c r="AA48" t="s">
+        <v>688</v>
+      </c>
+      <c r="AC48" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="AE48" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="AE48" s="3" t="s">
-        <v>694</v>
-      </c>
       <c r="AF48" s="3" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="49" spans="29:31">
       <c r="AC49" s="3" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="AE49" s="3" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -6504,38 +6605,38 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="D5" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F5" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="67" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -6544,26 +6645,26 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="G7" s="3" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="67" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E8" s="3">
         <v>4</v>
@@ -6572,12 +6673,12 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="G9" s="3" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="H9" s="3">
         <v>21</v>
@@ -6585,7 +6686,7 @@
     </row>
     <row r="10" spans="2:11">
       <c r="G10" s="3" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="H10" s="3">
         <v>20</v>
@@ -6593,13 +6694,13 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="67" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
@@ -6610,58 +6711,58 @@
     </row>
     <row r="12" spans="2:11">
       <c r="G12" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="2:11">
       <c r="G13" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="2:11">
       <c r="G14" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="2:11">
       <c r="G15" s="3" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="2:11">
       <c r="G16" s="3" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="67" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E17" s="3">
         <v>3</v>
@@ -6670,18 +6771,18 @@
         <v>3</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="67" t="s">
+        <v>464</v>
+      </c>
+      <c r="C18" s="40" t="s">
         <v>467</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>470</v>
-      </c>
       <c r="D18" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E18" s="3">
         <v>3</v>
@@ -6690,18 +6791,18 @@
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="67" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E19" s="3">
         <v>3</v>
@@ -6710,18 +6811,18 @@
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="67" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
@@ -6730,15 +6831,15 @@
         <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="10" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
@@ -6747,15 +6848,15 @@
         <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="10" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E22" s="3">
         <v>4</v>
@@ -6764,34 +6865,34 @@
         <v>4</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="G23" s="3" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="G24" s="3" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="10" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="E25" s="3">
         <v>5</v>
@@ -6802,34 +6903,34 @@
     </row>
     <row r="26" spans="2:8">
       <c r="G26" s="3" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="G27" s="3" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="G28" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="10" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E29" s="3">
         <v>2</v>
@@ -6840,10 +6941,10 @@
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="10" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
@@ -6854,7 +6955,7 @@
     </row>
     <row r="31" spans="2:8">
       <c r="D31" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E31" s="3">
         <f>SUM(E6:E30)</f>
@@ -6880,35 +6981,35 @@
   <sheetData>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C8">
         <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C9">
         <v>2.5</v>
       </c>
       <c r="D9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C10">
         <v>0.55000000000000004</v>
       </c>
       <c r="D10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -6919,72 +7020,72 @@
         <v>400</v>
       </c>
       <c r="D11" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C13" s="2">
         <f>C8/C9</f>
         <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C14" s="22">
         <f>PI()*C10^2</f>
         <v>0.9503317777109126</v>
       </c>
       <c r="D14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C15" s="29">
         <f>(C13*1000/C14)/60</f>
         <v>1403.018782077314</v>
       </c>
       <c r="D15" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C16" s="1">
         <f>C11/C15</f>
         <v>0.28509953331327381</v>
       </c>
       <c r="D16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C17" s="29">
         <f>2*PI()*C10*C11</f>
         <v>1382.3007675795091</v>
       </c>
       <c r="D17" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C19">
         <f>C9*1.1644</f>
@@ -6996,46 +7097,46 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C20" s="32">
         <v>1.9830000000000002E-5</v>
       </c>
       <c r="D20" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E20" s="32"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C21" s="31">
         <f>C20/C19</f>
         <v>6.8120920645826168E-6</v>
       </c>
       <c r="D21" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E21" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C22">
         <f>C10/100</f>
         <v>5.5000000000000005E-3</v>
       </c>
       <c r="D22" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C23" s="33">
         <f>(C10/100) * (C15/100) * C21</f>
@@ -7062,17 +7163,17 @@
   <sheetData>
     <row r="5" spans="3:4">
       <c r="C5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="3:4">
       <c r="C6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="3:4">
       <c r="C7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="3:4">
@@ -7082,7 +7183,7 @@
     </row>
     <row r="12" spans="3:4">
       <c r="C12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D12">
         <v>20</v>
@@ -7090,7 +7191,7 @@
     </row>
     <row r="13" spans="3:4">
       <c r="C13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D13">
         <f>D12/C11</f>
@@ -7099,7 +7200,7 @@
     </row>
     <row r="15" spans="3:4">
       <c r="C15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D15">
         <v>200</v>
@@ -7107,7 +7208,7 @@
     </row>
     <row r="16" spans="3:4">
       <c r="C16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D16">
         <f>D13*D15/3</f>
@@ -7136,47 +7237,47 @@
   <sheetData>
     <row r="2" spans="1:13">
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="7" customFormat="1" ht="51">
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3">
         <v>0.6</v>
@@ -7211,10 +7312,10 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -7249,10 +7350,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>70</v>
@@ -7287,10 +7388,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3">
         <v>25</v>
@@ -7325,10 +7426,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
         <v>23</v>
@@ -7373,10 +7474,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10" si="0">962*C4*SQRT(((C7+14.7)^2-(C8+14.7)^2)/(C5*(C6+460)))</f>
@@ -7421,10 +7522,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" ref="C11" si="3">C4*(816*(C7+14.7)/SQRT(C5*(C6+460)))</f>
@@ -7479,10 +7580,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" ref="C13" si="6">MIN(C10*28.3168/60, C11*28.3168/60)</f>
@@ -7527,10 +7628,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5">
         <f>MIN(C10/60, C11/60)</f>
@@ -7593,30 +7694,30 @@
   <sheetData>
     <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -7646,28 +7747,28 @@
   <sheetData>
     <row r="2" spans="2:9" ht="17">
       <c r="B2" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="F2" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>244</v>
-      </c>
       <c r="G2" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="2:9" s="10" customFormat="1" ht="54" customHeight="1">
@@ -7675,20 +7776,20 @@
         <v>1974</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G4" s="15">
         <v>1</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I4" s="9"/>
     </row>
@@ -7697,43 +7798,43 @@
         <v>1975</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G5" s="15">
         <v>1</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:9" ht="34">
       <c r="B6" s="17" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>246</v>
-      </c>
       <c r="F6" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G6" s="17">
         <v>2</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="34">
@@ -7741,16 +7842,16 @@
         <v>1981</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G7" s="17">
         <v>1</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="51">
@@ -7758,19 +7859,19 @@
         <v>1982</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G8" s="17">
         <v>1</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="17">
@@ -7778,19 +7879,19 @@
         <v>1983</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G9" s="17">
         <v>1</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="51">
@@ -7798,22 +7899,22 @@
         <v>1983</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G10" s="17">
         <v>1</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="51">
@@ -7821,22 +7922,22 @@
         <v>1986</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G11" s="17">
         <v>1</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="34">
@@ -7844,36 +7945,36 @@
         <v>1989</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G12" s="17">
         <v>1</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="34">
       <c r="B13" s="17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G13" s="17">
         <v>5</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="17">
@@ -7881,42 +7982,42 @@
         <v>1999</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G14" s="17">
         <v>1</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="51">
       <c r="B15" s="17" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G15" s="17">
         <v>2</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="68">
@@ -7924,19 +8025,19 @@
         <v>2001</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G16" s="17">
         <v>1</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="34">
@@ -7944,22 +8045,22 @@
         <v>2003</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G17" s="17">
         <v>1</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="51">
@@ -7967,39 +8068,39 @@
         <v>2005</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G18" s="17">
         <v>1</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="51">
       <c r="B19" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G19" s="17">
         <v>5</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="51">
@@ -8007,22 +8108,22 @@
         <v>2010</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G20" s="17">
         <v>1</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="34">
@@ -8030,19 +8131,19 @@
         <v>2018</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G21" s="17">
         <v>3</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="34">
@@ -8050,19 +8151,19 @@
         <v>2020</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G22" s="17">
         <v>1</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -8085,16 +8186,16 @@
   <sheetData>
     <row r="5" spans="2:8">
       <c r="B5" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E5" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="G5" s="24" t="s">
         <v>338</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>340</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -8103,7 +8204,7 @@
         <v>6.25E-2</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E6">
         <v>0.35</v>
@@ -8115,7 +8216,7 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="H6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -8124,7 +8225,7 @@
         <v>0.79374999999999996</v>
       </c>
       <c r="C7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E7">
         <f>E6/2*25.4</f>
@@ -8139,7 +8240,7 @@
         <v>7.1120000000000001</v>
       </c>
       <c r="H7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="2:8">
@@ -8148,7 +8249,7 @@
         <v>1.9793260902246004</v>
       </c>
       <c r="C8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E8" s="2">
         <f>E7^2*PI()</f>
@@ -8163,7 +8264,7 @@
         <v>158.9034654449753</v>
       </c>
       <c r="H8" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -8172,7 +8273,7 @@
         <v>505.22246179583618</v>
       </c>
       <c r="C9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E9" s="2">
         <f>1000/E8</f>
@@ -8187,7 +8288,7 @@
         <v>6.2931289585139822</v>
       </c>
       <c r="H9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -8201,7 +8302,7 @@
         <v>200</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:8">
@@ -8209,7 +8310,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11">
         <f>E10*100</f>
@@ -8224,7 +8325,7 @@
         <v>20000</v>
       </c>
       <c r="H11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -8233,7 +8334,7 @@
         <v>84.203743632639359</v>
       </c>
       <c r="C12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E12" s="2">
         <f>E11*E9/10/60</f>
@@ -8248,7 +8349,7 @@
         <v>209.7709652837994</v>
       </c>
       <c r="H12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -8257,7 +8358,7 @@
         <v>0.84203743632639361</v>
       </c>
       <c r="C13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E13" s="1">
         <f>E12/100</f>
@@ -8272,7 +8373,7 @@
         <v>2.0977096528379939</v>
       </c>
       <c r="H13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="2:6">
@@ -8281,7 +8382,7 @@
         <v>29.921259842519685</v>
       </c>
       <c r="C19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D19" s="20">
         <f>B22/25.4</f>
@@ -8293,7 +8394,7 @@
         <v>29.67</v>
       </c>
       <c r="C20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -8301,10 +8402,10 @@
         <v>760</v>
       </c>
       <c r="C22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -8313,13 +8414,13 @@
         <v>6.3819999999999597</v>
       </c>
       <c r="C23" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E23">
         <v>6.2</v>
       </c>
       <c r="F23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -8327,7 +8428,7 @@
         <v>1000</v>
       </c>
       <c r="C25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -8336,14 +8437,14 @@
         <v>8.3973684210525796</v>
       </c>
       <c r="C26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E26" s="2">
         <f>E23*B25/B22</f>
         <v>8.1578947368421044</v>
       </c>
       <c r="F26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -8351,7 +8452,7 @@
         <v>14.7</v>
       </c>
       <c r="D30" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -8359,7 +8460,7 @@
         <v>0.12</v>
       </c>
       <c r="D31" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -8368,7 +8469,7 @@
         <v>8.1632653061224492</v>
       </c>
       <c r="D32" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="3:4">
@@ -8377,7 +8478,7 @@
         <v>6.204081632653061</v>
       </c>
       <c r="D33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="3:4">
@@ -8385,7 +8486,7 @@
         <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37" spans="3:4">
@@ -8394,7 +8495,7 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -8414,15 +8515,15 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="C6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D6" t="s">
         <v>319</v>
-      </c>
-      <c r="D6" t="s">
-        <v>320</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -8450,10 +8551,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="C7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -8481,10 +8582,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="C8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -8512,10 +8613,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="C9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" t="s">
         <v>323</v>
-      </c>
-      <c r="D9" t="s">
-        <v>324</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -8543,10 +8644,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="C10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E10">
         <v>8</v>
@@ -8574,7 +8675,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="C11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -8605,10 +8706,10 @@
     </row>
     <row r="12" spans="1:13">
       <c r="C12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D12" t="s">
         <v>327</v>
-      </c>
-      <c r="D12" t="s">
-        <v>328</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -8664,7 +8765,7 @@
   <sheetData>
     <row r="5" spans="2:9">
       <c r="C5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -8672,7 +8773,7 @@
         <v>0.02</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>3.5</v>
@@ -8683,7 +8784,7 @@
         <v>189</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>25.4</v>
@@ -8695,7 +8796,7 @@
         <v>3.7800000000000002</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8">
         <f>E7*E6</f>
@@ -8704,7 +8805,7 @@
     </row>
     <row r="12" spans="2:9">
       <c r="B12" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="2:9">
@@ -8712,32 +8813,32 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="14" spans="2:9">
       <c r="C14" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>299</v>
-      </c>
       <c r="H14" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="15" spans="2:9">
       <c r="B15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -8763,7 +8864,7 @@
     </row>
     <row r="16" spans="2:9">
       <c r="B16" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -8789,7 +8890,7 @@
     </row>
     <row r="17" spans="2:12">
       <c r="B17" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -8815,7 +8916,7 @@
     </row>
     <row r="18" spans="2:12">
       <c r="B18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C18" s="3">
         <v>1</v>
@@ -8841,7 +8942,7 @@
     </row>
     <row r="19" spans="2:12">
       <c r="B19" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C19" s="3">
         <v>1</v>
@@ -8867,13 +8968,13 @@
     </row>
     <row r="20" spans="2:12">
       <c r="B20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C20" s="3">
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E20" s="21">
         <v>0.42</v>
@@ -8892,7 +8993,7 @@
     </row>
     <row r="21" spans="2:12">
       <c r="B21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -8918,7 +9019,7 @@
     </row>
     <row r="22" spans="2:12">
       <c r="B22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="21">
@@ -8940,7 +9041,7 @@
     </row>
     <row r="24" spans="2:12">
       <c r="L24" s="23" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" spans="2:12">
@@ -8950,10 +9051,10 @@
     </row>
     <row r="27" spans="2:12">
       <c r="K27" s="23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L27" s="23" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="28" spans="2:12">

--- a/documents/o2conc.xlsx
+++ b/documents/o2conc.xlsx
@@ -8,24 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickos01/Desktop/O24U/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CADF32-15C0-3342-9850-BE7FAC201E9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891C0D60-2F8C-C44A-A191-F969F8CCDE14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2560" yWindow="500" windowWidth="25120" windowHeight="16820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="500" windowWidth="25120" windowHeight="16820" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volume" sheetId="1" r:id="rId1"/>
-    <sheet name="intercooler" sheetId="10" r:id="rId2"/>
-    <sheet name="Heater" sheetId="6" r:id="rId3"/>
-    <sheet name="Valves" sheetId="2" r:id="rId4"/>
-    <sheet name="Materials" sheetId="9" r:id="rId5"/>
-    <sheet name="Things I have built" sheetId="7" r:id="rId6"/>
-    <sheet name="vacuum +velocity" sheetId="5" r:id="rId7"/>
-    <sheet name="Column HW" sheetId="8" r:id="rId8"/>
-    <sheet name="electrical" sheetId="3" r:id="rId9"/>
-    <sheet name="bom" sheetId="4" r:id="rId10"/>
-    <sheet name="EquipmentList" sheetId="11" r:id="rId11"/>
-    <sheet name="RTU config" sheetId="12" r:id="rId12"/>
-    <sheet name="O2 RTU" sheetId="13" r:id="rId13"/>
+    <sheet name="Model" sheetId="21" r:id="rId2"/>
+    <sheet name="intercooler" sheetId="10" r:id="rId3"/>
+    <sheet name="Heater" sheetId="6" r:id="rId4"/>
+    <sheet name="Valves" sheetId="2" r:id="rId5"/>
+    <sheet name="Materials" sheetId="9" r:id="rId6"/>
+    <sheet name="Things I have built" sheetId="7" r:id="rId7"/>
+    <sheet name="vacuum +velocity" sheetId="5" r:id="rId8"/>
+    <sheet name="Column HW" sheetId="8" r:id="rId9"/>
+    <sheet name="electrical" sheetId="3" r:id="rId10"/>
+    <sheet name="bom" sheetId="4" r:id="rId11"/>
+    <sheet name="EquipmentList" sheetId="11" r:id="rId12"/>
+    <sheet name="RTU config" sheetId="12" r:id="rId13"/>
+    <sheet name="O2 RTU" sheetId="13" r:id="rId14"/>
+    <sheet name="Compressor" sheetId="14" r:id="rId15"/>
+    <sheet name="mol" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="775">
   <si>
     <t>liters</t>
   </si>
@@ -1125,9 +1128,6 @@
     <t>Delivery</t>
   </si>
   <si>
-    <t>Eff Volume</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
@@ -2152,21 +2152,370 @@
   </si>
   <si>
     <t>Li-X, Na-X</t>
+  </si>
+  <si>
+    <t>Stored Vol</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>HP = horsepower</t>
+  </si>
+  <si>
+    <t>N = number of compression stages</t>
+  </si>
+  <si>
+    <t>k = 1.41 = adiabatic expansion coefficient</t>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> = absolute initial atmospheric pressure (psi) (14.7 psi at sea level)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> = absolute final pressure after compression (psi)</t>
+    </r>
+  </si>
+  <si>
+    <t>V = volume of air at atmospheric pressure - standard or free air (scfm, ft3/min)</t>
+  </si>
+  <si>
+    <r>
+      <t>HP = [144 N P</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> V k / (33000 (k - 1))] [(P</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/ P</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(k - 1)/N k</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> - 1] </t>
+    </r>
+  </si>
+  <si>
+    <t>Stages</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Pg</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>PSIA</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>KW</t>
+  </si>
+  <si>
+    <t>eff</t>
+  </si>
+  <si>
+    <t>HPideal</t>
+  </si>
+  <si>
+    <t>60 psig</t>
+  </si>
+  <si>
+    <t>40 psig</t>
+  </si>
+  <si>
+    <t>90 psig</t>
+  </si>
+  <si>
+    <t>g/l</t>
+  </si>
+  <si>
+    <t>kg/day</t>
+  </si>
+  <si>
+    <t>lpm = 1MTpd</t>
+  </si>
+  <si>
+    <t>g/mol</t>
+  </si>
+  <si>
+    <t>l/mol</t>
+  </si>
+  <si>
+    <t>SiO2</t>
+  </si>
+  <si>
+    <t>Al2O3</t>
+  </si>
+  <si>
+    <t>AlSiO</t>
+  </si>
+  <si>
+    <t>zeolite</t>
+  </si>
+  <si>
+    <t>silica gel</t>
+  </si>
+  <si>
+    <t>alumina</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>Ar</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>bed ratio big lunger</t>
+  </si>
+  <si>
+    <t>packing factor</t>
+  </si>
+  <si>
+    <t>gas volume</t>
+  </si>
+  <si>
+    <t>l/kg</t>
+  </si>
+  <si>
+    <t>iso-1</t>
+  </si>
+  <si>
+    <t>cyclecap</t>
+  </si>
+  <si>
+    <t>bedweight</t>
+  </si>
+  <si>
+    <t>bedcap</t>
+  </si>
+  <si>
+    <t>Airtotal</t>
+  </si>
+  <si>
+    <t>Prodrate</t>
+  </si>
+  <si>
+    <t>Prodrecovery</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Wasteload</t>
+  </si>
+  <si>
+    <t>Loadtime</t>
+  </si>
+  <si>
+    <t>air/O2</t>
+  </si>
+  <si>
+    <t>liters of waste per kg of adsorbent, adsorbed each cycle, no hysteresis</t>
+  </si>
+  <si>
+    <t>liters of waste adsorbed in the bed each cycle</t>
+  </si>
+  <si>
+    <t>recovery rate to calculate air needed for raw product out of column</t>
+  </si>
+  <si>
+    <t>avgblowdown</t>
+  </si>
+  <si>
+    <t>N2cap</t>
+  </si>
+  <si>
+    <t>Li-X ~= 22l/kg</t>
+  </si>
+  <si>
+    <t>fraction of capacity used from P/P0 range read off iostherm chart for adsorb/desorb pressure ratio</t>
+  </si>
+  <si>
+    <t>Aircycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">l </t>
+  </si>
+  <si>
+    <t>Volume of air delivered to the bed per cycle</t>
+  </si>
+  <si>
+    <t>airflow into bed during adsorption cycle</t>
+  </si>
+  <si>
+    <t>Time to load the bed with waste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% O2, 5% Ar </t>
+  </si>
+  <si>
+    <t>Product recovery ratio</t>
+  </si>
+  <si>
+    <t>recovered in product</t>
+  </si>
+  <si>
+    <t>adsorbed in bed</t>
+  </si>
+  <si>
+    <t>adsorbed waste over bed loading time assuming a/b operation with 2 columns</t>
+  </si>
+  <si>
+    <t>Average waste collection rate during adsorption</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
     <numFmt numFmtId="168" formatCode="0.0000000"/>
     <numFmt numFmtId="169" formatCode="0.00000000"/>
+    <numFmt numFmtId="175" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2222,8 +2571,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2258,6 +2644,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="darkUp">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -2358,7 +2750,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2366,8 +2758,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2527,8 +2920,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="7" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2536,6 +2933,7 @@
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="7" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2548,6 +2946,1323 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Input Power</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compressor!$C$84</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>40 psig</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compressor!$D$83:$M$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compressor!$D$84:$M$84</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>9.5686162258445853E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19137232451689171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28705848677533757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.38274464903378341</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47843081129222925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57411697355067515</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.66980313580912076</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76548929806756683</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86117546032601267</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9568616225844585</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE75-9440-9217-CF589E7E4D8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compressor!$C$85</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60 psig</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compressor!$D$83:$M$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compressor!$D$85:$M$85</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.12426368009800136</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24852736019600272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37279104029400406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49705472039200543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62131840049000664</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.74558208058800812</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.86984576068600938</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99410944078401087</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.118373120882012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2426368009800133</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FE75-9440-9217-CF589E7E4D8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Compressor!$C$86</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>90 psig</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Compressor!$D$83:$M$83</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Compressor!$D$86:$M$86</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.15829282621614343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.31658565243228687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4748784786484303</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63317130486457374</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79146413108071711</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9497569572968606</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1080497835130039</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2663426097291475</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4246354359452909</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5829282621614342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FE75-9440-9217-CF589E7E4D8E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="19638351"/>
+        <c:axId val="19640031"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="19638351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>SCFM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="19640031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="19640031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>kW</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="19638351"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6261100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A42C2FB-0D3D-C14E-A243-910F6A7BB948}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2813,286 +4528,300 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A2:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="H1">
+    <row r="2" spans="1:14">
+      <c r="A2" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="H2">
         <v>0.63</v>
       </c>
-      <c r="I1" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="H2">
+      <c r="I2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="H3">
         <v>0.64</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="E3" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="F3">
+    <row r="4" spans="1:14">
+      <c r="A4" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C4" s="3">
         <v>0.63</v>
       </c>
-      <c r="G3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="F4">
+        <v>0.63</v>
+      </c>
+      <c r="G4" t="s">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>0.79</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
         <v>346</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>347</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" t="s">
         <v>0</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" t="s">
         <v>348</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="L6">
+      <c r="K6" s="3" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="M7">
         <v>2.5</v>
       </c>
-      <c r="M6">
+      <c r="N7">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="26">
+    <row r="8" spans="1:14">
+      <c r="A8" s="26">
         <v>1.37</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B8" s="26">
         <v>9</v>
       </c>
-      <c r="C7" s="28">
-        <f>A7*2.54</f>
-        <v>3.4798000000000004</v>
-      </c>
-      <c r="D7" s="26">
-        <f>B7*2.54</f>
-        <v>22.86</v>
-      </c>
-      <c r="E7" s="28">
-        <f>PI() * (C7/2)^2 * D7 /1000</f>
-        <v>0.21740757655463619</v>
-      </c>
-      <c r="F7" s="26">
-        <v>1</v>
-      </c>
-      <c r="G7" s="28">
-        <f>E7*F$3</f>
-        <v>0.1369667732294208</v>
-      </c>
-      <c r="H7" s="28">
-        <f t="shared" ref="H7" si="0">F7*G7</f>
-        <v>0.1369667732294208</v>
-      </c>
-      <c r="I7" s="28">
-        <f>H7*2.2</f>
-        <v>0.30132690110472576</v>
-      </c>
-      <c r="J7" t="s">
-        <v>376</v>
-      </c>
-      <c r="L7" s="1">
-        <f>H17/L6</f>
-        <v>1.3357505750184007</v>
-      </c>
-      <c r="M7" s="1">
-        <f>M6*L7</f>
-        <v>13.357505750184007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8">
-        <v>1.37</v>
-      </c>
-      <c r="B8">
-        <v>19</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="C8" s="28">
         <f>A8*2.54</f>
         <v>3.4798000000000004</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="26">
         <f>B8*2.54</f>
-        <v>48.26</v>
-      </c>
-      <c r="E8" s="1">
+        <v>22.86</v>
+      </c>
+      <c r="E8" s="28">
         <f>PI() * (C8/2)^2 * D8 /1000</f>
-        <v>0.458971550504232</v>
-      </c>
-      <c r="F8">
+        <v>0.21740757655463619</v>
+      </c>
+      <c r="F8" s="26">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <f>E8*F$3</f>
-        <v>0.28915207681766614</v>
-      </c>
-      <c r="H8" s="1">
-        <f>F8*G8</f>
-        <v>0.28915207681766614</v>
-      </c>
-      <c r="I8" s="1">
+      <c r="G8" s="28">
+        <f>E8*F$4</f>
+        <v>0.1369667732294208</v>
+      </c>
+      <c r="H8" s="28">
+        <f t="shared" ref="H8" si="0">F8*G8</f>
+        <v>0.1369667732294208</v>
+      </c>
+      <c r="I8" s="28">
         <f>H8*2.2</f>
-        <v>0.63613456899886556</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="26">
+        <v>0.30132690110472576</v>
+      </c>
+      <c r="J8" t="s">
+        <v>375</v>
+      </c>
+      <c r="K8" s="1">
+        <f>E8*(1-M$34)</f>
+        <v>6.5222272966390868E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <f>H18/M7</f>
+        <v>1.3891805980191367</v>
+      </c>
+      <c r="N8" s="1">
+        <f>N7*M8</f>
+        <v>13.891805980191368</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
         <v>1.37</v>
       </c>
-      <c r="B9" s="26">
-        <v>25</v>
-      </c>
-      <c r="C9" s="28">
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1">
         <f>A9*2.54</f>
         <v>3.4798000000000004</v>
       </c>
-      <c r="D9" s="26">
+      <c r="D9">
         <f>B9*2.54</f>
-        <v>63.5</v>
-      </c>
-      <c r="E9" s="28">
+        <v>48.26</v>
+      </c>
+      <c r="E9" s="1">
         <f>PI() * (C9/2)^2 * D9 /1000</f>
-        <v>0.60390993487398936</v>
-      </c>
-      <c r="F9" s="26">
+        <v>0.458971550504232</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9" s="28">
-        <f>E9*F$3</f>
-        <v>0.38046325897061328</v>
-      </c>
-      <c r="H9" s="28">
-        <f t="shared" ref="H9" si="1">F9*G9</f>
-        <v>0.38046325897061328</v>
-      </c>
-      <c r="I9" s="28">
+      <c r="G9" s="1">
+        <f>E9*F$4</f>
+        <v>0.28915207681766614</v>
+      </c>
+      <c r="H9" s="1">
+        <f>F9*G9</f>
+        <v>0.28915207681766614</v>
+      </c>
+      <c r="I9" s="1">
         <f>H9*2.2</f>
-        <v>0.83701916973534929</v>
-      </c>
-      <c r="J9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10">
+        <v>0.63613456899886556</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" ref="K9:K36" si="1">E9*(1-M$34)</f>
+        <v>0.13769146515126962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="26">
         <v>1.37</v>
       </c>
-      <c r="B10">
-        <v>37</v>
-      </c>
-      <c r="C10" s="1">
+      <c r="B10" s="26">
+        <v>25</v>
+      </c>
+      <c r="C10" s="28">
         <f>A10*2.54</f>
         <v>3.4798000000000004</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="26">
         <f>B10*2.54</f>
+        <v>63.5</v>
+      </c>
+      <c r="E10" s="28">
+        <f>PI() * (C10/2)^2 * D10 /1000</f>
+        <v>0.60390993487398936</v>
+      </c>
+      <c r="F10" s="26">
+        <v>1</v>
+      </c>
+      <c r="G10" s="28">
+        <f>E10*F$4</f>
+        <v>0.38046325897061328</v>
+      </c>
+      <c r="H10" s="28">
+        <f t="shared" ref="H10" si="2">F10*G10</f>
+        <v>0.38046325897061328</v>
+      </c>
+      <c r="I10" s="28">
+        <f>H10*2.2</f>
+        <v>0.83701916973534929</v>
+      </c>
+      <c r="J10" t="s">
+        <v>374</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18117298046219685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>1.37</v>
+      </c>
+      <c r="B11">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1">
+        <f>A11*2.54</f>
+        <v>3.4798000000000004</v>
+      </c>
+      <c r="D11">
+        <f>B11*2.54</f>
         <v>93.98</v>
       </c>
-      <c r="E10" s="2">
-        <f>PI() * (C10/2)^2 * D10 /1000</f>
+      <c r="E11" s="2">
+        <f>PI() * (C11/2)^2 * D11 /1000</f>
         <v>0.89378670361350443</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
-        <f>E10*F$3</f>
+      <c r="G11" s="1">
+        <f>E11*F$4</f>
         <v>0.5630856232765078</v>
       </c>
-      <c r="H10" s="1">
-        <f>F10*G10</f>
+      <c r="H11" s="1">
+        <f>F11*G11</f>
         <v>0.5630856232765078</v>
       </c>
-      <c r="I10" s="1">
-        <f>H10*2.2</f>
+      <c r="I11" s="1">
+        <f>H11*2.2</f>
         <v>1.2387883712083172</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="C11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12">
-        <v>1.8720000000000001</v>
-      </c>
-      <c r="B12">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1">
-        <f>A12*2.54</f>
-        <v>4.75488</v>
-      </c>
-      <c r="D12">
-        <f>B12*2.54</f>
-        <v>33.020000000000003</v>
-      </c>
-      <c r="E12" s="2">
-        <f>PI() * (C12/2)^2 * D12 /1000</f>
-        <v>0.58633534171825563</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <f>E12*F$3</f>
-        <v>0.36939126528250105</v>
-      </c>
-      <c r="H12" s="1">
-        <f t="shared" ref="H12" si="2">F12*G12</f>
-        <v>0.36939126528250105</v>
-      </c>
-      <c r="I12" s="1">
-        <f>H12*2.2</f>
-        <v>0.8126607836215024</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="K11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.26813601108405138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="C12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13">
         <v>1.8720000000000001</v>
       </c>
       <c r="B13">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <f>A13*2.54</f>
@@ -3100,34 +4829,38 @@
       </c>
       <c r="D13">
         <f>B13*2.54</f>
-        <v>48.26</v>
+        <v>35.56</v>
       </c>
       <c r="E13" s="2">
         <f>PI() * (C13/2)^2 * D13 /1000</f>
-        <v>0.85695165328052747</v>
+        <v>0.6314380603119677</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" s="1">
-        <f>E13*F$3</f>
-        <v>0.53987954156673235</v>
+        <f>E13*F$4</f>
+        <v>0.39780597799653966</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" ref="H13" si="3">F13*G13</f>
-        <v>0.53987954156673235</v>
+        <v>0.39780597799653966</v>
       </c>
       <c r="I13" s="1">
         <f>H13*2.2</f>
-        <v>1.1877349914468112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0.87517315159238729</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.18943141809359035</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14">
         <v>1.8720000000000001</v>
       </c>
       <c r="B14">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <f>A14*2.54</f>
@@ -3135,93 +4868,93 @@
       </c>
       <c r="D14">
         <f>B14*2.54</f>
-        <v>63.5</v>
+        <v>50.8</v>
       </c>
       <c r="E14" s="2">
         <f>PI() * (C14/2)^2 * D14 /1000</f>
-        <v>1.1275679648427992</v>
+        <v>0.90205437187423942</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <f>E14*F$3</f>
-        <v>0.71036781785096348</v>
+        <f>E14*F$4</f>
+        <v>0.56829425428077085</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" ref="H14" si="4">F14*G14</f>
-        <v>0.71036781785096348</v>
+        <v>0.56829425428077085</v>
       </c>
       <c r="I14" s="1">
         <f>H14*2.2</f>
-        <v>1.5628091992721198</v>
-      </c>
-      <c r="K14">
-        <f>A8*25.4</f>
+        <v>1.2502473594176959</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.27061631156227189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15">
+        <v>1.8720000000000001</v>
+      </c>
+      <c r="B15">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1">
+        <f>A15*2.54</f>
+        <v>4.75488</v>
+      </c>
+      <c r="D15">
+        <f>B15*2.54</f>
+        <v>66.040000000000006</v>
+      </c>
+      <c r="E15" s="2">
+        <f>PI() * (C15/2)^2 * D15 /1000</f>
+        <v>1.1726706834365113</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <f>E15*F$4</f>
+        <v>0.73878253056500209</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" ref="H15" si="5">F15*G15</f>
+        <v>0.73878253056500209</v>
+      </c>
+      <c r="I15" s="1">
+        <f>H15*2.2</f>
+        <v>1.6253215672430048</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="1"/>
+        <v>0.35180120503095341</v>
+      </c>
+      <c r="L15">
+        <f>A9*25.4</f>
         <v>34.798000000000002</v>
       </c>
-      <c r="L14">
+      <c r="M15">
         <f>24*60</f>
         <v>1440</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N15" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="C15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="26">
-        <v>2.87</v>
-      </c>
-      <c r="B16" s="26">
-        <v>19</v>
-      </c>
-      <c r="C16" s="28">
-        <f>A16*2.54</f>
-        <v>7.2898000000000005</v>
-      </c>
-      <c r="D16" s="26">
-        <f>B16*2.54</f>
-        <v>48.26</v>
-      </c>
-      <c r="E16" s="27">
-        <f>PI() * (C16/2)^2 * D16 /1000</f>
-        <v>2.0142270575674295</v>
-      </c>
-      <c r="F16" s="26">
-        <v>2</v>
-      </c>
-      <c r="G16" s="28">
-        <f>E16*F$3</f>
-        <v>1.2689630462674806</v>
-      </c>
-      <c r="H16" s="28">
-        <f>F16*G16</f>
-        <v>2.5379260925349612</v>
-      </c>
-      <c r="I16" s="28">
-        <f>H16*2.2</f>
-        <v>5.583437403576915</v>
-      </c>
-      <c r="J16" t="s">
-        <v>701</v>
-      </c>
-      <c r="L16">
-        <v>1000</v>
-      </c>
-      <c r="M16" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+    <row r="16" spans="1:14">
+      <c r="C16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="26">
         <v>2.87</v>
       </c>
       <c r="B17" s="26">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C17" s="28">
         <f>A17*2.54</f>
@@ -3229,37 +4962,47 @@
       </c>
       <c r="D17" s="26">
         <f>B17*2.54</f>
-        <v>63.5</v>
+        <v>50.8</v>
       </c>
       <c r="E17" s="27">
         <f>PI() * (C17/2)^2 * D17 /1000</f>
-        <v>2.6502987599571441</v>
+        <v>2.1202390079657154</v>
       </c>
       <c r="F17" s="26">
         <v>2</v>
       </c>
       <c r="G17" s="28">
-        <f>E17*F$3</f>
-        <v>1.6696882187730009</v>
+        <f>E17*F$4</f>
+        <v>1.3357505750184007</v>
       </c>
       <c r="H17" s="28">
         <f>F17*G17</f>
-        <v>3.3393764375460018</v>
+        <v>2.6715011500368013</v>
       </c>
       <c r="I17" s="28">
         <f>H17*2.2</f>
-        <v>7.3466281626012044</v>
+        <v>5.8773025300809634</v>
       </c>
       <c r="J17" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>700</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.63607170238971467</v>
+      </c>
+      <c r="M17">
+        <v>1000</v>
+      </c>
+      <c r="N17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="26">
         <v>2.87</v>
       </c>
       <c r="B18" s="26">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C18" s="28">
         <f>A18*2.54</f>
@@ -3267,414 +5010,946 @@
       </c>
       <c r="D18" s="26">
         <f>B18*2.54</f>
-        <v>93.98</v>
+        <v>66.040000000000006</v>
       </c>
       <c r="E18" s="27">
         <f>PI() * (C18/2)^2 * D18 /1000</f>
-        <v>3.9224421647365735</v>
+        <v>2.7563107103554301</v>
       </c>
       <c r="F18" s="26">
         <v>2</v>
       </c>
       <c r="G18" s="28">
-        <f>E18*F$3</f>
-        <v>2.4711385637840415</v>
+        <f>E18*F$4</f>
+        <v>1.736475747523921</v>
       </c>
       <c r="H18" s="28">
         <f>F18*G18</f>
-        <v>4.942277127568083</v>
+        <v>3.472951495047842</v>
       </c>
       <c r="I18" s="28">
         <f>H18*2.2</f>
-        <v>10.873009680649783</v>
-      </c>
-      <c r="L18">
+        <v>7.6404932891052528</v>
+      </c>
+      <c r="J18" t="s">
+        <v>701</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.82689321310662911</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="26">
+        <v>2.87</v>
+      </c>
+      <c r="B19" s="26">
+        <v>38</v>
+      </c>
+      <c r="C19" s="28">
+        <f>A19*2.54</f>
+        <v>7.2898000000000005</v>
+      </c>
+      <c r="D19" s="26">
+        <f>B19*2.54</f>
+        <v>96.52</v>
+      </c>
+      <c r="E19" s="27">
+        <f>PI() * (C19/2)^2 * D19 /1000</f>
+        <v>4.028454115134859</v>
+      </c>
+      <c r="F19" s="26">
+        <v>2</v>
+      </c>
+      <c r="G19" s="28">
+        <f>E19*F$4</f>
+        <v>2.5379260925349612</v>
+      </c>
+      <c r="H19" s="28">
+        <f>F19*G19</f>
+        <v>5.0758521850699223</v>
+      </c>
+      <c r="I19" s="28">
+        <f>H19*2.2</f>
+        <v>11.16687480715383</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2085362345404578</v>
+      </c>
+      <c r="M19">
         <v>20</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N19" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="C19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="L19" s="2">
-        <f>L18/L14*L16</f>
+    <row r="20" spans="1:14">
+      <c r="C20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="M20" s="2">
+        <f>M19/M15*M17</f>
         <v>13.888888888888888</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20">
+    <row r="21" spans="1:14">
+      <c r="A21">
         <v>3.37</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>10</v>
       </c>
-      <c r="C20" s="1">
-        <f t="shared" ref="C20:D24" si="5">A20*2.54</f>
+      <c r="C21" s="1">
+        <f t="shared" ref="C21:D25" si="6">A21*2.54</f>
         <v>8.559800000000001</v>
       </c>
-      <c r="D20">
-        <f t="shared" si="5"/>
+      <c r="D21">
+        <f t="shared" si="6"/>
         <v>25.4</v>
       </c>
-      <c r="E20" s="2">
-        <f>PI() * (C20/2)^2 * D20 /1000</f>
+      <c r="E21" s="2">
+        <f>PI() * (C21/2)^2 * D21 /1000</f>
         <v>1.4616750470180424</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>1</v>
       </c>
-      <c r="G20" s="1">
-        <f>E20*F$3</f>
+      <c r="G21" s="1">
+        <f>E21*F$4</f>
         <v>0.92085527962136671</v>
       </c>
-      <c r="H20" s="1">
-        <f>F20*G20</f>
+      <c r="H21" s="1">
+        <f>F21*G21</f>
         <v>0.92085527962136671</v>
       </c>
-      <c r="I20" s="1">
-        <f>H20*2.2</f>
+      <c r="I21" s="1">
+        <f>H21*2.2</f>
         <v>2.0258816151670067</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="26">
+      <c r="K21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.4385025141054128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="26">
         <v>3.37</v>
       </c>
-      <c r="B21" s="26">
+      <c r="B22" s="26">
         <v>11</v>
       </c>
-      <c r="C21" s="28">
-        <f t="shared" si="5"/>
+      <c r="C22" s="28">
+        <f t="shared" si="6"/>
         <v>8.559800000000001</v>
       </c>
-      <c r="D21" s="26">
-        <f t="shared" si="5"/>
+      <c r="D22" s="26">
+        <f t="shared" si="6"/>
         <v>27.94</v>
       </c>
-      <c r="E21" s="27">
-        <f>PI() * (C21/2)^2 * D21 /1000</f>
+      <c r="E22" s="27">
+        <f>PI() * (C22/2)^2 * D22 /1000</f>
         <v>1.6078425517198471</v>
       </c>
-      <c r="F21" s="26">
+      <c r="F22" s="26">
         <v>1</v>
       </c>
-      <c r="G21" s="28">
-        <f>E21*F$3</f>
+      <c r="G22" s="28">
+        <f>E22*F$4</f>
         <v>1.0129408075835038</v>
       </c>
-      <c r="H21" s="28">
-        <f>F21*G21</f>
+      <c r="H22" s="28">
+        <f>F22*G22</f>
         <v>1.0129408075835038</v>
       </c>
-      <c r="I21" s="28">
-        <f>H21*2.2</f>
+      <c r="I22" s="28">
+        <f>H22*2.2</f>
         <v>2.2284697766837085</v>
       </c>
-      <c r="J21" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="C22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23">
+      <c r="J22" t="s">
+        <v>372</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48235276551595418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="C23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24">
         <v>3.37</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>20</v>
       </c>
-      <c r="C23" s="1">
-        <f>A23*2.54</f>
-        <v>8.559800000000001</v>
-      </c>
-      <c r="D23">
-        <f>B23*2.54</f>
-        <v>50.8</v>
-      </c>
-      <c r="E23" s="2">
-        <f>PI() * (C23/2)^2 * D23 /1000</f>
-        <v>2.9233500940360848</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1">
-        <f>E23*F$3</f>
-        <v>1.8417105592427334</v>
-      </c>
-      <c r="H23" s="1">
-        <f>F23*G23</f>
-        <v>1.8417105592427334</v>
-      </c>
-      <c r="I23" s="1">
-        <f>H23*2.2</f>
-        <v>4.0517632303340134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="26">
-        <v>3.37</v>
-      </c>
-      <c r="B24" s="26">
-        <v>21</v>
-      </c>
-      <c r="C24" s="28">
+      <c r="C24" s="1">
         <f>A24*2.54</f>
         <v>8.559800000000001</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24">
         <f>B24*2.54</f>
+        <v>50.8</v>
+      </c>
+      <c r="E24" s="2">
+        <f>PI() * (C24/2)^2 * D24 /1000</f>
+        <v>2.9233500940360848</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1">
+        <f>E24*F$4</f>
+        <v>1.8417105592427334</v>
+      </c>
+      <c r="H24" s="1">
+        <f>F24*G24</f>
+        <v>1.8417105592427334</v>
+      </c>
+      <c r="I24" s="1">
+        <f>H24*2.2</f>
+        <v>4.0517632303340134</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8770050282108256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="26">
+        <v>3.37</v>
+      </c>
+      <c r="B25" s="26">
+        <v>21</v>
+      </c>
+      <c r="C25" s="28">
+        <f>A25*2.54</f>
+        <v>8.559800000000001</v>
+      </c>
+      <c r="D25" s="26">
+        <f>B25*2.54</f>
         <v>53.34</v>
       </c>
-      <c r="E24" s="27">
-        <f>PI() * (C24/2)^2 * D24 /1000</f>
+      <c r="E25" s="27">
+        <f>PI() * (C25/2)^2 * D25 /1000</f>
         <v>3.0695175987378898</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F25" s="26">
         <v>1</v>
       </c>
-      <c r="G24" s="28">
-        <f>E24*F$3</f>
+      <c r="G25" s="28">
+        <f>E25*F$4</f>
         <v>1.9337960872048705</v>
       </c>
-      <c r="H24" s="28">
-        <f>F24*G24</f>
+      <c r="H25" s="28">
+        <f>F25*G25</f>
         <v>1.9337960872048705</v>
       </c>
-      <c r="I24" s="28">
-        <f>H24*2.2</f>
+      <c r="I25" s="28">
+        <f>H25*2.2</f>
         <v>4.2543513918507152</v>
       </c>
-      <c r="J24" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="C25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="K25" t="s">
-        <v>357</v>
-      </c>
-      <c r="L25">
-        <v>3.1</v>
-      </c>
-      <c r="M25" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="J25" t="s">
+        <v>373</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="1"/>
+        <v>0.92085527962136704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="C26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="K26" t="s">
+      <c r="K26" s="1"/>
+      <c r="L26" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="M26" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="C27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="L26">
+      <c r="M27" s="3">
         <v>250</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N27" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27">
-        <v>3.87</v>
-      </c>
-      <c r="B27">
-        <v>18</v>
-      </c>
-      <c r="C27" s="1">
-        <f>A27*2.54</f>
-        <v>9.8298000000000005</v>
-      </c>
-      <c r="D27">
-        <f>B27*2.54</f>
-        <v>45.72</v>
-      </c>
-      <c r="E27" s="2">
-        <f>PI() * (C27/2)^2 * D27 /1000</f>
-        <v>3.4696483918174978</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27" s="1">
-        <f>E27*F$3</f>
-        <v>2.1858784868450236</v>
-      </c>
-      <c r="H27" s="1">
-        <f>F27*G27</f>
-        <v>2.1858784868450236</v>
-      </c>
-      <c r="I27" s="1">
-        <f>H27*2.2</f>
-        <v>4.8089326710590523</v>
-      </c>
-      <c r="K27" t="s">
-        <v>359</v>
-      </c>
-      <c r="L27">
-        <v>50</v>
-      </c>
-      <c r="M27" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>3.87</v>
       </c>
       <c r="B28">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" ref="C28" si="6">A28*2.54</f>
+        <f>A28*2.54</f>
         <v>9.8298000000000005</v>
       </c>
       <c r="D28">
-        <f t="shared" ref="D28" si="7">B28*2.54</f>
-        <v>93.98</v>
+        <f>B28*2.54</f>
+        <v>45.72</v>
       </c>
       <c r="E28" s="2">
         <f>PI() * (C28/2)^2 * D28 /1000</f>
-        <v>7.1320550276248564</v>
+        <v>3.4696483918174978</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28" s="1">
-        <f>E28*F$3</f>
-        <v>4.4931946674036594</v>
+        <f>E28*F$4</f>
+        <v>2.1858784868450236</v>
       </c>
       <c r="H28" s="1">
         <f>F28*G28</f>
-        <v>4.4931946674036594</v>
+        <v>2.1858784868450236</v>
       </c>
       <c r="I28" s="1">
         <f>H28*2.2</f>
-        <v>9.8850282682880515</v>
-      </c>
-      <c r="K28" t="s">
-        <v>361</v>
-      </c>
-      <c r="L28" s="1">
-        <f>L25*(L26+100)/(L27+100)</f>
-        <v>7.2333333333333334</v>
-      </c>
-      <c r="M28" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>4.8089326710590523</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0408945175452495</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="M28" s="3">
+        <v>50</v>
+      </c>
+      <c r="N28" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>3.87</v>
       </c>
       <c r="B29">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" ref="C29" si="8">A29*2.54</f>
+        <f t="shared" ref="C29" si="7">A29*2.54</f>
         <v>9.8298000000000005</v>
       </c>
       <c r="D29">
-        <f t="shared" ref="D29" si="9">B29*2.54</f>
-        <v>124.46000000000001</v>
+        <f t="shared" ref="D29" si="8">B29*2.54</f>
+        <v>93.98</v>
       </c>
       <c r="E29" s="2">
         <f>PI() * (C29/2)^2 * D29 /1000</f>
-        <v>9.4451539555031889</v>
+        <v>7.1320550276248564</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29" s="1">
-        <f>E29*F$3</f>
-        <v>5.9504469919670093</v>
+        <f>E29*F$4</f>
+        <v>4.4931946674036594</v>
       </c>
       <c r="H29" s="1">
         <f>F29*G29</f>
-        <v>5.9504469919670093</v>
+        <v>4.4931946674036594</v>
       </c>
       <c r="I29" s="1">
         <f>H29*2.2</f>
+        <v>9.8850282682880515</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1396165082874572</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>703</v>
+      </c>
+      <c r="M29" s="21">
+        <f>M26*(M27+100)/(M28+100)</f>
+        <v>7.2333333333333334</v>
+      </c>
+      <c r="N29" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30">
+        <v>3.87</v>
+      </c>
+      <c r="B30">
+        <v>49</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" ref="C30" si="9">A30*2.54</f>
+        <v>9.8298000000000005</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="D30" si="10">B30*2.54</f>
+        <v>124.46000000000001</v>
+      </c>
+      <c r="E30" s="2">
+        <f>PI() * (C30/2)^2 * D30 /1000</f>
+        <v>9.4451539555031889</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1">
+        <f>E30*F$4</f>
+        <v>5.9504469919670093</v>
+      </c>
+      <c r="H30" s="1">
+        <f>F30*G30</f>
+        <v>5.9504469919670093</v>
+      </c>
+      <c r="I30" s="1">
+        <f>H30*2.2</f>
         <v>13.090983382327421</v>
       </c>
-      <c r="K29" t="s">
+      <c r="K30" s="1">
+        <f t="shared" si="1"/>
+        <v>2.833546186650957</v>
+      </c>
+      <c r="L30" s="23" t="s">
         <v>360</v>
       </c>
-      <c r="L29">
-        <v>5</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="M30" s="3">
+        <v>15</v>
+      </c>
+      <c r="N30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
-      <c r="C30" s="1"/>
-      <c r="K30" t="s">
+    <row r="31" spans="1:14">
+      <c r="C31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="M31" s="21">
+        <f>M29/M30*60</f>
+        <v>28.933333333333334</v>
+      </c>
+      <c r="N31" t="s">
         <v>362</v>
       </c>
-      <c r="L30" s="1">
-        <f>L28/L29*60</f>
-        <v>86.800000000000011</v>
-      </c>
-      <c r="M30" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="26">
+    </row>
+    <row r="32" spans="1:14">
+      <c r="C32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="26">
         <v>3.0680000000000001</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B33" s="26">
         <v>17</v>
       </c>
-      <c r="C32" s="28">
-        <f>A32*2.54</f>
+      <c r="C33" s="28">
+        <f>A33*2.54</f>
         <v>7.7927200000000001</v>
       </c>
-      <c r="D32" s="26">
-        <f>B32*2.54</f>
+      <c r="D33" s="26">
+        <f>B33*2.54</f>
         <v>43.18</v>
       </c>
-      <c r="E32" s="27">
-        <f>PI() * (C32/2)^2 * D32 /1000</f>
+      <c r="E33" s="27">
+        <f>PI() * (C33/2)^2 * D33 /1000</f>
         <v>2.0594472054167392</v>
       </c>
-      <c r="F32" s="26">
+      <c r="F33" s="26">
         <v>2</v>
       </c>
-      <c r="G32" s="28">
-        <f>E32*F$3</f>
+      <c r="G33" s="28">
+        <f>E33*F$4</f>
         <v>1.2974517394125458</v>
       </c>
-      <c r="H32" s="28">
-        <f>F32*G32</f>
+      <c r="H33" s="28">
+        <f>F33*G33</f>
         <v>2.5949034788250915</v>
       </c>
-      <c r="I32" s="28">
-        <f>H32*2.2</f>
+      <c r="I33" s="28">
+        <f>H33*2.2</f>
         <v>5.708787653415202</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.6178341616250218</v>
+      </c>
+      <c r="L33" s="23"/>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="K34" s="1"/>
+      <c r="L34" s="23" t="s">
+        <v>742</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36">
+        <v>5.87</v>
+      </c>
+      <c r="B36">
+        <v>36.5</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" ref="C36" si="11">A36*2.54</f>
+        <v>14.909800000000001</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ref="D36" si="12">B36*2.54</f>
+        <v>92.710000000000008</v>
+      </c>
+      <c r="E36" s="2">
+        <f>PI() * (C36/2)^2 * D36 /1000</f>
+        <v>16.186766361042661</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <f>E36*F$4</f>
+        <v>10.197662807456876</v>
+      </c>
+      <c r="H36" s="1">
+        <f>F36*G36</f>
+        <v>10.197662807456876</v>
+      </c>
+      <c r="I36" s="1">
+        <f>H36*2.2</f>
+        <v>22.434858176405129</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="1"/>
+        <v>4.8560299083127987</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="E38" s="2">
+        <f>E36/E18</f>
+        <v>5.8726203472740401</v>
+      </c>
+      <c r="F38" t="s">
+        <v>741</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="B5:L35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:9">
+      <c r="C5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="B6">
+        <v>0.02</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7">
+        <v>189</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8">
+        <f>B6*B7</f>
+        <v>3.7800000000000002</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8">
+        <f>E7*E6</f>
+        <v>88.899999999999991</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="C14" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
+      <c r="B15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="E15" s="21">
+        <f>B$13/D15*C15</f>
+        <v>1.0377358490566038</v>
+      </c>
+      <c r="F15" s="21">
+        <f t="shared" ref="F15:F21" si="0">B$13*E15</f>
+        <v>11.415094339622641</v>
+      </c>
+      <c r="H15" s="21">
+        <v>1</v>
+      </c>
+      <c r="I15" s="21">
+        <f>B$13*H15</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="E16" s="21">
+        <f>B$13/D16*C16</f>
+        <v>1.2941176470588236</v>
+      </c>
+      <c r="F16" s="21">
+        <f t="shared" si="0"/>
+        <v>14.23529411764706</v>
+      </c>
+      <c r="H16" s="21">
+        <v>1.24</v>
+      </c>
+      <c r="I16" s="21">
+        <f t="shared" ref="I16:I21" si="1">B$13*H16</f>
+        <v>13.64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="E17" s="21">
+        <f>B$13/D17*C17</f>
+        <v>1.5492957746478875</v>
+      </c>
+      <c r="F17" s="21">
+        <f t="shared" si="0"/>
+        <v>17.042253521126764</v>
+      </c>
+      <c r="H17" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="I17" s="21">
+        <f t="shared" si="1"/>
+        <v>15.399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="E18" s="21">
+        <f>B$13/D18*C18</f>
+        <v>1.5492957746478875</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="0"/>
+        <v>17.042253521126764</v>
+      </c>
+      <c r="H18" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="I18" s="21">
+        <f t="shared" si="1"/>
+        <v>15.399999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="E19" s="21">
+        <f>B$13/D19*C19</f>
+        <v>1.5068493150684932</v>
+      </c>
+      <c r="F19" s="21">
+        <f t="shared" si="0"/>
+        <v>16.575342465753426</v>
+      </c>
+      <c r="H19" s="21">
+        <v>1.4</v>
+      </c>
+      <c r="I19" s="21">
+        <f t="shared" si="1"/>
+        <v>15.399999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" t="s">
+        <v>295</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0.42</v>
+      </c>
+      <c r="F20" s="21">
+        <f t="shared" si="0"/>
+        <v>4.62</v>
+      </c>
+      <c r="H20" s="21">
+        <v>0.42</v>
+      </c>
+      <c r="I20" s="21">
+        <f t="shared" si="1"/>
+        <v>4.62</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3">
+        <v>30</v>
+      </c>
+      <c r="E21" s="21">
+        <f>B$13/D21*C21</f>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="F21" s="21">
+        <f t="shared" si="0"/>
+        <v>4.0333333333333332</v>
+      </c>
+      <c r="H21" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="I21" s="21">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" t="s">
+        <v>343</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="21">
+        <f>SUM(E15:E21)</f>
+        <v>7.7239610271463617</v>
+      </c>
+      <c r="F22" s="21">
+        <f>SUM(F15:F21)</f>
+        <v>84.963571298609992</v>
+      </c>
+      <c r="H22" s="21">
+        <f>SUM(H15:H21)</f>
+        <v>7.26</v>
+      </c>
+      <c r="I22" s="21">
+        <f>SUM(I15:I21)</f>
+        <v>79.860000000000014</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="L24" s="23" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="L25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12">
+      <c r="K27" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f>L$25^K28</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ref="L29:L35" si="2">L$25^K29</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="2"/>
+        <v>16777216</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="2"/>
+        <v>1073741824</v>
+      </c>
+    </row>
+    <row r="33" spans="11:12">
+      <c r="K33">
+        <v>6</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="2"/>
+        <v>68719476736</v>
+      </c>
+    </row>
+    <row r="34" spans="11:12">
+      <c r="K34">
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="2"/>
+        <v>4398046511104</v>
+      </c>
+    </row>
+    <row r="35" spans="11:12">
+      <c r="K35">
+        <v>8</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="2"/>
+        <v>281474976710656</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G210"/>
   <sheetViews>
@@ -3695,19 +5970,19 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="C1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D1" t="s">
+        <v>697</v>
+      </c>
+      <c r="E1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G1" t="s">
         <v>698</v>
-      </c>
-      <c r="E1" t="s">
-        <v>372</v>
-      </c>
-      <c r="F1" t="s">
-        <v>697</v>
-      </c>
-      <c r="G1" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3715,10 +5990,10 @@
         <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3731,7 +6006,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3739,7 +6014,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3747,7 +6022,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3795,10 +6070,10 @@
         <v>37</v>
       </c>
       <c r="D14" t="s">
+        <v>363</v>
+      </c>
+      <c r="G14" t="s">
         <v>364</v>
-      </c>
-      <c r="G14" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4824,7 +7099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A1CA2A-853B-ED4B-9B61-3E2DB850F93C}">
   <dimension ref="B1:F87"/>
   <sheetViews>
@@ -4842,28 +7117,28 @@
   <sheetData>
     <row r="1" spans="2:6">
       <c r="B1" s="34" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2" spans="2:6">
       <c r="B2" s="68" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="C3" s="37" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="C4" s="40" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -4871,19 +7146,19 @@
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="34" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D6" t="s">
         <v>545</v>
       </c>
-      <c r="D6" t="s">
-        <v>546</v>
-      </c>
       <c r="E6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -4891,46 +7166,46 @@
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D9" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="E9" t="s">
         <v>573</v>
-      </c>
-      <c r="E9" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="2:6">
@@ -4938,229 +7213,229 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
+        <v>574</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>571</v>
+      </c>
+      <c r="D14" s="37" t="s">
         <v>575</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>572</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="67" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E18" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C20" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C21" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C22" s="36" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="67" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D23" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E25" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C26" s="37" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D26" s="37" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28" spans="2:5">
       <c r="B28" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C28" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="29" spans="2:5">
       <c r="B29" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="2:5">
       <c r="B30" s="67" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D30" s="37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="2:5">
       <c r="B32" s="67" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D32" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="67" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C33" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D33" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" t="s">
+        <v>537</v>
+      </c>
+      <c r="C35" s="39" t="s">
         <v>538</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="D35" s="39" t="s">
+        <v>550</v>
+      </c>
+      <c r="E35" t="s">
         <v>539</v>
-      </c>
-      <c r="D35" s="39" t="s">
-        <v>551</v>
-      </c>
-      <c r="E35" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D36" s="37" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="38" spans="2:5">
       <c r="B38" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="39" spans="2:5">
       <c r="B39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C39" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E39" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="40" spans="2:5">
@@ -5168,370 +7443,370 @@
         <v>167</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E40" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="41" spans="2:5">
       <c r="B41" s="67" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C41" t="s">
+        <v>506</v>
+      </c>
+      <c r="D41" t="s">
         <v>507</v>
-      </c>
-      <c r="D41" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C43" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="2:5">
       <c r="B44" s="67" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C44" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D44" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" s="67" t="s">
+        <v>500</v>
+      </c>
+      <c r="C45" s="66" t="s">
+        <v>424</v>
+      </c>
+      <c r="D45" t="s">
         <v>501</v>
-      </c>
-      <c r="C45" s="66" t="s">
-        <v>425</v>
-      </c>
-      <c r="D45" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" s="34" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="67" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C49" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D49" s="40" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" s="67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" s="67" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C51" s="40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D51" s="40" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="53" spans="2:5">
       <c r="B53" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C53" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E53" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="54" spans="2:5">
       <c r="B54" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C54" s="38" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E54" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C55" s="38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E55" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C59" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E59" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D60" s="36" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E60" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D61" s="36" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E61" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="62" spans="2:5">
       <c r="B62" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C62" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63" spans="2:5">
       <c r="B63" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C63" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65" spans="2:5">
       <c r="B65" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D65" s="36" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E65" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="66" spans="2:5">
       <c r="B66" s="67" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C66" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D66" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="67" spans="2:5">
       <c r="B67" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D67" s="36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E67" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="B69" t="s">
+        <v>459</v>
+      </c>
+      <c r="C69" t="s">
         <v>460</v>
-      </c>
-      <c r="C69" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="70" spans="2:5">
       <c r="B70" s="67" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C70" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D70" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="71" spans="2:5">
       <c r="B71" s="67" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D71" s="40" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="B72" t="s">
+        <v>461</v>
+      </c>
+      <c r="C72" t="s">
         <v>462</v>
-      </c>
-      <c r="C72" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="73" spans="2:5">
       <c r="B73" s="67" t="s">
+        <v>467</v>
+      </c>
+      <c r="C73" s="66" t="s">
         <v>468</v>
       </c>
-      <c r="C73" s="66" t="s">
-        <v>469</v>
-      </c>
       <c r="D73" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="74" spans="2:5">
       <c r="B74" s="67" t="s">
+        <v>467</v>
+      </c>
+      <c r="C74" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="C74" s="40" t="s">
-        <v>469</v>
-      </c>
       <c r="D74" s="40" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="75" spans="2:5">
       <c r="B75" s="67" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C75" s="40" t="s">
+        <v>489</v>
+      </c>
+      <c r="D75" s="40" t="s">
         <v>490</v>
-      </c>
-      <c r="D75" s="40" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="76" spans="2:5">
       <c r="B76" s="67" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C76" s="66" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D76" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="77" spans="2:5">
       <c r="B77" s="67" t="s">
+        <v>595</v>
+      </c>
+      <c r="C77" s="40" t="s">
+        <v>594</v>
+      </c>
+      <c r="D77" s="40" t="s">
         <v>596</v>
       </c>
-      <c r="C77" s="40" t="s">
-        <v>595</v>
-      </c>
-      <c r="D77" s="40" t="s">
+      <c r="E77" t="s">
         <v>597</v>
-      </c>
-      <c r="E77" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="79" spans="2:5">
       <c r="B79" s="67" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C79" t="s">
+        <v>491</v>
+      </c>
+      <c r="D79" t="s">
         <v>492</v>
-      </c>
-      <c r="D79" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="80" spans="2:5">
       <c r="B80" s="67" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C80" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D80" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="81" spans="2:5">
       <c r="B81" s="67" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C81" t="s">
+        <v>496</v>
+      </c>
+      <c r="D81" t="s">
         <v>497</v>
-      </c>
-      <c r="D81" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="82" spans="2:5">
@@ -5539,57 +7814,57 @@
         <v>24</v>
       </c>
       <c r="C82" t="s">
+        <v>498</v>
+      </c>
+      <c r="D82" t="s">
         <v>499</v>
-      </c>
-      <c r="D82" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="83" spans="2:5">
       <c r="B83" s="67" t="s">
+        <v>599</v>
+      </c>
+      <c r="C83" t="s">
         <v>600</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>601</v>
-      </c>
-      <c r="D83" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="85" spans="2:5">
       <c r="B85" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C85" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D85" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="86" spans="2:5">
       <c r="B86" s="67" t="s">
+        <v>602</v>
+      </c>
+      <c r="C86" t="s">
         <v>603</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>604</v>
-      </c>
-      <c r="D86" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="87" spans="2:5">
       <c r="B87" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C87" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="D87" s="36" t="s">
+        <v>568</v>
+      </c>
+      <c r="E87" t="s">
         <v>512</v>
-      </c>
-      <c r="D87" s="36" t="s">
-        <v>569</v>
-      </c>
-      <c r="E87" t="s">
-        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -5598,7 +7873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD6AD22-5ABD-AE4D-A650-F4BBFE0C2BBE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -5625,25 +7900,25 @@
   <sheetData>
     <row r="2" spans="2:32">
       <c r="B2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AA2" s="34" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AB2" s="34" t="s">
+        <v>625</v>
+      </c>
+      <c r="AC2" s="34" t="s">
         <v>626</v>
       </c>
-      <c r="AC2" s="34" t="s">
+      <c r="AD2" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="AD2" s="8" t="s">
-        <v>628</v>
-      </c>
       <c r="AE2" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" spans="2:32" ht="17" thickBot="1">
@@ -5693,219 +7968,219 @@
         <v>15</v>
       </c>
       <c r="AA3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AB3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AC3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AD3" s="3">
         <v>2</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4" spans="2:32">
       <c r="B4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D4" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="E4" s="44" t="s">
         <v>519</v>
       </c>
-      <c r="E4" s="44" t="s">
-        <v>520</v>
-      </c>
       <c r="F4" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="G4" s="44" t="s">
         <v>519</v>
       </c>
-      <c r="G4" s="44" t="s">
-        <v>520</v>
-      </c>
       <c r="H4" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="I4" s="44" t="s">
         <v>519</v>
       </c>
-      <c r="I4" s="44" t="s">
-        <v>520</v>
-      </c>
       <c r="J4" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="K4" s="44" t="s">
         <v>519</v>
       </c>
-      <c r="K4" s="44" t="s">
-        <v>520</v>
-      </c>
       <c r="L4" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="M4" s="44" t="s">
         <v>519</v>
       </c>
-      <c r="M4" s="44" t="s">
-        <v>520</v>
-      </c>
       <c r="N4" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="O4" s="44" t="s">
         <v>519</v>
       </c>
-      <c r="O4" s="44" t="s">
-        <v>520</v>
-      </c>
       <c r="P4" s="45" t="s">
+        <v>518</v>
+      </c>
+      <c r="Q4" s="46" t="s">
         <v>519</v>
       </c>
-      <c r="Q4" s="46" t="s">
-        <v>520</v>
-      </c>
       <c r="AA4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AB4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AC4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AD4" s="3">
         <v>4</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="2:32" ht="17" thickBot="1">
       <c r="C5" s="60" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D5" s="62"/>
       <c r="E5" s="60" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F5" s="62"/>
       <c r="G5" s="60" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H5" s="62"/>
       <c r="I5" s="60" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J5" s="62"/>
       <c r="K5" s="60" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="L5" s="62"/>
       <c r="M5" s="60" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="N5" s="62"/>
       <c r="O5" s="60" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="P5" s="62"/>
       <c r="Q5" s="63" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="AA5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AB5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AC5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AD5" s="3">
         <v>6</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="2:32" ht="17" thickBot="1">
       <c r="AA6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AB6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AC6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AD6" s="3">
         <v>8</v>
       </c>
       <c r="AE6" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AF6" s="34"/>
     </row>
     <row r="7" spans="2:32">
       <c r="B7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D7" s="64"/>
       <c r="E7" s="54" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F7" s="64"/>
       <c r="G7" s="54" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H7" s="64"/>
       <c r="I7" s="47"/>
       <c r="J7" s="71"/>
       <c r="K7" s="71" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L7" s="71"/>
       <c r="M7" s="72"/>
       <c r="N7" s="69" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="O7" s="70"/>
       <c r="P7" s="65" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="Q7" s="65" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AA7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AB7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AC7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AD7" s="3">
         <v>10</v>
       </c>
       <c r="AE7" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="8" spans="2:32" ht="17" thickBot="1">
       <c r="C8" s="57" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D8" s="58" t="s">
+        <v>518</v>
+      </c>
+      <c r="E8" s="57" t="s">
         <v>519</v>
       </c>
-      <c r="E8" s="57" t="s">
-        <v>520</v>
-      </c>
       <c r="F8" s="58" t="s">
+        <v>518</v>
+      </c>
+      <c r="G8" s="57" t="s">
         <v>519</v>
       </c>
-      <c r="G8" s="57" t="s">
-        <v>520</v>
-      </c>
       <c r="H8" s="58" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I8" s="53"/>
       <c r="J8" s="51"/>
@@ -5913,68 +8188,68 @@
       <c r="L8" s="51"/>
       <c r="M8" s="52"/>
       <c r="N8" s="57" t="s">
+        <v>517</v>
+      </c>
+      <c r="O8" s="58" t="s">
+        <v>516</v>
+      </c>
+      <c r="P8" s="61" t="s">
         <v>518</v>
       </c>
-      <c r="O8" s="58" t="s">
-        <v>517</v>
-      </c>
-      <c r="P8" s="61" t="s">
+      <c r="Q8" s="61" t="s">
         <v>519</v>
       </c>
-      <c r="Q8" s="61" t="s">
-        <v>520</v>
-      </c>
       <c r="AA8" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AB8" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AC8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AD8" s="3">
         <v>12</v>
       </c>
       <c r="AE8" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9" spans="2:32">
       <c r="AA9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AB9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AC9" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AD9" s="3">
         <v>1</v>
       </c>
       <c r="AE9" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="10" spans="2:32">
       <c r="B10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AA10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AB10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AC10" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AD10" s="3">
         <v>3</v>
       </c>
       <c r="AE10" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="2:32" ht="17" thickBot="1">
@@ -6033,146 +8308,146 @@
         <v>18</v>
       </c>
       <c r="AA11" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AB11" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AC11" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AD11" s="3">
         <v>5</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="12" spans="2:32">
       <c r="B12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C12" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="D12" s="45" t="s">
         <v>517</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>518</v>
       </c>
       <c r="E12" s="41"/>
       <c r="F12" s="43"/>
       <c r="G12" s="42"/>
       <c r="H12" s="44" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I12" s="50" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="J12" s="50" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K12" s="45" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="N12" s="50" t="s">
         <v>517</v>
       </c>
-      <c r="N12" s="50" t="s">
-        <v>518</v>
-      </c>
       <c r="O12" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="P12" s="44" t="s">
         <v>516</v>
       </c>
-      <c r="P12" s="44" t="s">
+      <c r="Q12" s="50" t="s">
         <v>517</v>
       </c>
-      <c r="Q12" s="50" t="s">
-        <v>518</v>
-      </c>
       <c r="R12" s="45" t="s">
+        <v>515</v>
+      </c>
+      <c r="S12" s="44" t="s">
         <v>516</v>
       </c>
-      <c r="S12" s="44" t="s">
+      <c r="T12" s="50" t="s">
         <v>517</v>
       </c>
-      <c r="T12" s="50" t="s">
-        <v>518</v>
-      </c>
       <c r="U12" s="45" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AA12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AD12" s="3">
         <v>14</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="2:32" ht="17" thickBot="1">
       <c r="C13" s="60" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D13" s="52"/>
       <c r="E13" s="53"/>
       <c r="F13" s="51" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G13" s="52"/>
       <c r="H13" s="53"/>
       <c r="I13" s="49"/>
       <c r="J13" s="51" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K13" s="52"/>
       <c r="L13" s="3"/>
       <c r="M13" s="53"/>
       <c r="N13" s="51" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="O13" s="52"/>
       <c r="P13" s="53"/>
       <c r="Q13" s="51" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="R13" s="52"/>
       <c r="S13" s="53"/>
       <c r="T13" s="51" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="U13" s="52"/>
     </row>
     <row r="14" spans="2:32" ht="17" thickBot="1">
       <c r="AA14" t="s">
+        <v>687</v>
+      </c>
+      <c r="AC14" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>689</v>
-      </c>
       <c r="AE14" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="2:32">
       <c r="B15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D15" s="42"/>
       <c r="E15" s="54" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="54"/>
       <c r="H15" s="55" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I15" s="48"/>
       <c r="J15" s="56"/>
@@ -6180,406 +8455,406 @@
       <c r="L15" s="3"/>
       <c r="M15" s="54"/>
       <c r="N15" s="55" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="O15" s="48"/>
       <c r="P15" s="56"/>
       <c r="Q15" s="42"/>
       <c r="R15" s="55" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="S15" s="42"/>
       <c r="T15" s="54" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="U15" s="42"/>
       <c r="AC15" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AE15" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="16" spans="2:32" ht="17" thickBot="1">
       <c r="C16" s="57" t="s">
+        <v>516</v>
+      </c>
+      <c r="D16" s="58" t="s">
         <v>517</v>
       </c>
-      <c r="D16" s="58" t="s">
-        <v>518</v>
-      </c>
       <c r="E16" s="57" t="s">
+        <v>516</v>
+      </c>
+      <c r="F16" s="58" t="s">
         <v>517</v>
       </c>
-      <c r="F16" s="58" t="s">
-        <v>518</v>
-      </c>
       <c r="G16" s="57" t="s">
+        <v>516</v>
+      </c>
+      <c r="H16" s="59" t="s">
         <v>517</v>
       </c>
-      <c r="H16" s="59" t="s">
-        <v>518</v>
-      </c>
       <c r="I16" s="59" t="s">
+        <v>522</v>
+      </c>
+      <c r="J16" s="59" t="s">
         <v>523</v>
       </c>
-      <c r="J16" s="59" t="s">
+      <c r="K16" s="58" t="s">
         <v>524</v>
-      </c>
-      <c r="K16" s="58" t="s">
-        <v>525</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="57" t="s">
+        <v>516</v>
+      </c>
+      <c r="N16" s="59" t="s">
         <v>517</v>
       </c>
-      <c r="N16" s="59" t="s">
-        <v>518</v>
-      </c>
       <c r="O16" s="59" t="s">
+        <v>522</v>
+      </c>
+      <c r="P16" s="59" t="s">
         <v>523</v>
       </c>
-      <c r="P16" s="59" t="s">
+      <c r="Q16" s="58" t="s">
         <v>524</v>
-      </c>
-      <c r="Q16" s="58" t="s">
-        <v>525</v>
       </c>
       <c r="R16" s="59"/>
       <c r="S16" s="58"/>
       <c r="T16" s="57" t="s">
+        <v>516</v>
+      </c>
+      <c r="U16" s="58" t="s">
         <v>517</v>
-      </c>
-      <c r="U16" s="58" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="18" spans="27:31">
       <c r="AA18" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="19" spans="27:31">
       <c r="AA19" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AB19" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AC19" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AD19" s="3">
         <v>5</v>
       </c>
       <c r="AE19" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="21" spans="27:31">
       <c r="AA21" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="AB21" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AC21" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AD21" s="3">
         <v>7</v>
       </c>
       <c r="AE21" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" spans="27:31">
       <c r="AC22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AD22" s="3">
         <v>9</v>
       </c>
       <c r="AE22" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="24" spans="27:31">
       <c r="AA24" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AB24" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AC24" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AD24" s="3">
         <v>11</v>
       </c>
       <c r="AE24" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="25" spans="27:31">
       <c r="AC25" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AD25" s="3">
         <v>13</v>
       </c>
       <c r="AE25" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="26" spans="27:31">
       <c r="AC26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD26" s="3">
         <v>19</v>
       </c>
       <c r="AE26" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="27" spans="27:31">
       <c r="AC27" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AD27" s="3">
         <v>21</v>
       </c>
       <c r="AE27" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="29" spans="27:31">
       <c r="AA29" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AB29" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AC29" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AD29" s="3">
         <v>15</v>
       </c>
       <c r="AE29" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="30" spans="27:31">
       <c r="AC30" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AD30" s="3">
         <v>17</v>
       </c>
       <c r="AE30" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="31" spans="27:31">
       <c r="AC31" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="AD31" s="3">
         <v>23</v>
       </c>
       <c r="AE31" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="32" spans="27:31">
       <c r="AC32" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AD32" s="3">
         <v>25</v>
       </c>
       <c r="AE32" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="34" spans="27:32">
       <c r="AA34" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AB34" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AC34" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AD34" s="3">
         <v>6</v>
       </c>
       <c r="AE34" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="36" spans="27:32">
       <c r="AA36" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AB36" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AC36" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AD36" s="3">
         <v>8</v>
       </c>
       <c r="AE36" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="37" spans="27:32">
       <c r="AC37" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AD37" s="3">
         <v>10</v>
       </c>
       <c r="AE37" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="38" spans="27:32">
       <c r="AC38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AD38" s="3">
         <v>12</v>
       </c>
       <c r="AE38" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="39" spans="27:32">
       <c r="AC39" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AD39" s="3">
         <v>14</v>
       </c>
       <c r="AE39" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="40" spans="27:32">
       <c r="AC40" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AD40" s="3">
         <v>16</v>
       </c>
       <c r="AE40" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="42" spans="27:32">
       <c r="AA42" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AC42" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AD42" s="3">
         <v>18</v>
       </c>
       <c r="AE42" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="43" spans="27:32">
       <c r="AA43" t="s">
+        <v>636</v>
+      </c>
+      <c r="AC43" t="s">
         <v>637</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>638</v>
       </c>
       <c r="AD43" s="3">
         <v>20</v>
       </c>
       <c r="AE43" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="44" spans="27:32">
       <c r="AA44" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AB44" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AC44" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AD44" s="3">
         <v>22</v>
       </c>
       <c r="AE44" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="45" spans="27:32">
       <c r="AA45" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AB45" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AC45" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AD45" s="3">
         <v>24</v>
       </c>
       <c r="AE45" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="46" spans="27:32">
       <c r="AA46" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AB46" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AC46" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AD46" s="3">
         <v>26</v>
       </c>
       <c r="AE46" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="48" spans="27:32">
       <c r="AA48" t="s">
+        <v>687</v>
+      </c>
+      <c r="AC48" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>689</v>
-      </c>
       <c r="AE48" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AF48" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="49" spans="29:31">
       <c r="AC49" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AE49" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -6588,11 +8863,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED281B2-800D-E543-823D-46745B9B817E}">
   <dimension ref="B2:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -6605,38 +8880,38 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="D5" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>583</v>
-      </c>
       <c r="F5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="67" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -6645,26 +8920,26 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="G7" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="67" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E8" s="3">
         <v>4</v>
@@ -6673,12 +8948,12 @@
         <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="G9" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H9" s="3">
         <v>21</v>
@@ -6686,7 +8961,7 @@
     </row>
     <row r="10" spans="2:11">
       <c r="G10" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H10" s="3">
         <v>20</v>
@@ -6694,13 +8969,13 @@
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="67" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E11" s="3">
         <v>3</v>
@@ -6711,58 +8986,58 @@
     </row>
     <row r="12" spans="2:11">
       <c r="G12" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="2:11">
       <c r="G13" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="2:11">
       <c r="G14" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="2:11">
       <c r="G15" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="2:11">
       <c r="G16" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="67" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E17" s="3">
         <v>3</v>
@@ -6771,18 +9046,18 @@
         <v>3</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="2:8">
       <c r="B18" s="67" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E18" s="3">
         <v>3</v>
@@ -6791,18 +9066,18 @@
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="19" spans="2:8">
       <c r="B19" s="67" t="s">
+        <v>467</v>
+      </c>
+      <c r="C19" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="C19" s="40" t="s">
-        <v>469</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E19" s="3">
         <v>3</v>
@@ -6811,18 +9086,18 @@
         <v>3</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="20" spans="2:8">
       <c r="B20" s="67" t="s">
+        <v>593</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>594</v>
       </c>
-      <c r="C20" s="40" t="s">
-        <v>595</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E20" s="3">
         <v>3</v>
@@ -6831,15 +9106,15 @@
         <v>3</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E21" s="3">
         <v>2</v>
@@ -6848,15 +9123,15 @@
         <v>3</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="22" spans="2:8">
       <c r="B22" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E22" s="3">
         <v>4</v>
@@ -6865,34 +9140,34 @@
         <v>4</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="23" spans="2:8">
       <c r="G23" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="24" spans="2:8">
       <c r="G24" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="25" spans="2:8">
       <c r="B25" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>588</v>
       </c>
       <c r="E25" s="3">
         <v>5</v>
@@ -6903,34 +9178,34 @@
     </row>
     <row r="26" spans="2:8">
       <c r="G26" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="27" spans="2:8">
       <c r="G27" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="28" spans="2:8">
       <c r="G28" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="29" spans="2:8">
       <c r="B29" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E29" s="3">
         <v>2</v>
@@ -6941,10 +9216,10 @@
     </row>
     <row r="30" spans="2:8">
       <c r="B30" s="10" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E30" s="3">
         <v>2</v>
@@ -6969,7 +9244,1772 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13814647-7FE3-4241-A06A-2FA35BE4FEEB}">
+  <dimension ref="B6:M86"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="85.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:2" ht="21">
+      <c r="B6" s="73" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="18">
+      <c r="B8" s="73" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="18">
+      <c r="B10" s="73" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="18">
+      <c r="B12" s="73" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="18">
+      <c r="B14" s="73" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="20">
+      <c r="B16" s="73" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="20">
+      <c r="B18" s="73" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="18">
+      <c r="B20" s="74" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="C23" t="s">
+        <v>518</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="C24" t="s">
+        <v>713</v>
+      </c>
+      <c r="D24">
+        <v>1.41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="C25" t="s">
+        <v>714</v>
+      </c>
+      <c r="D25">
+        <v>14.7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="C26" t="s">
+        <v>715</v>
+      </c>
+      <c r="D26" s="66">
+        <f>D29+14.7</f>
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="C28" t="s">
+        <v>717</v>
+      </c>
+      <c r="D28" s="26">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="C29" t="s">
+        <v>716</v>
+      </c>
+      <c r="D29" s="26">
+        <v>45.3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="C31" t="s">
+        <v>722</v>
+      </c>
+      <c r="D31" s="22">
+        <f>(144*D23*D25*D28*D24/(33000*(D24-1)))*((D26/D25)^((D24-1)/(D23*D24))-1)</f>
+        <v>0.55732237182397459</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="C32" t="s">
+        <v>721</v>
+      </c>
+      <c r="D32">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13">
+      <c r="C33" t="s">
+        <v>720</v>
+      </c>
+      <c r="D33" s="1">
+        <f>D31*0.7457/D32</f>
+        <v>0.51949411583642224</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="C38" t="s">
+        <v>518</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="C39" t="s">
+        <v>713</v>
+      </c>
+      <c r="D39">
+        <v>1.41</v>
+      </c>
+      <c r="E39">
+        <v>1.41</v>
+      </c>
+      <c r="F39">
+        <v>1.41</v>
+      </c>
+      <c r="G39">
+        <v>1.41</v>
+      </c>
+      <c r="H39">
+        <v>1.41</v>
+      </c>
+      <c r="I39">
+        <v>1.41</v>
+      </c>
+      <c r="J39">
+        <v>1.41</v>
+      </c>
+      <c r="K39">
+        <v>1.41</v>
+      </c>
+      <c r="L39">
+        <v>1.41</v>
+      </c>
+      <c r="M39">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13">
+      <c r="C40" t="s">
+        <v>714</v>
+      </c>
+      <c r="D40">
+        <v>14.7</v>
+      </c>
+      <c r="E40">
+        <v>14.7</v>
+      </c>
+      <c r="F40">
+        <v>14.7</v>
+      </c>
+      <c r="G40">
+        <v>14.7</v>
+      </c>
+      <c r="H40">
+        <v>14.7</v>
+      </c>
+      <c r="I40">
+        <v>14.7</v>
+      </c>
+      <c r="J40">
+        <v>14.7</v>
+      </c>
+      <c r="K40">
+        <v>14.7</v>
+      </c>
+      <c r="L40">
+        <v>14.7</v>
+      </c>
+      <c r="M40">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13">
+      <c r="C41" t="s">
+        <v>715</v>
+      </c>
+      <c r="D41" s="66">
+        <f>D44+14.7</f>
+        <v>54.7</v>
+      </c>
+      <c r="E41" s="66">
+        <f>E44+14.7</f>
+        <v>54.7</v>
+      </c>
+      <c r="F41" s="66">
+        <f>F44+14.7</f>
+        <v>54.7</v>
+      </c>
+      <c r="G41" s="66">
+        <f>G44+14.7</f>
+        <v>54.7</v>
+      </c>
+      <c r="H41" s="66">
+        <f>H44+14.7</f>
+        <v>54.7</v>
+      </c>
+      <c r="I41" s="66">
+        <f>I44+14.7</f>
+        <v>54.7</v>
+      </c>
+      <c r="J41" s="66">
+        <f>J44+14.7</f>
+        <v>54.7</v>
+      </c>
+      <c r="K41" s="66">
+        <f>K44+14.7</f>
+        <v>54.7</v>
+      </c>
+      <c r="L41" s="66">
+        <f>L44+14.7</f>
+        <v>54.7</v>
+      </c>
+      <c r="M41" s="66">
+        <f>M44+14.7</f>
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13">
+      <c r="C43" t="s">
+        <v>717</v>
+      </c>
+      <c r="D43" s="26">
+        <v>1</v>
+      </c>
+      <c r="E43" s="26">
+        <v>2</v>
+      </c>
+      <c r="F43" s="26">
+        <v>3</v>
+      </c>
+      <c r="G43" s="26">
+        <v>4</v>
+      </c>
+      <c r="H43" s="26">
+        <v>5</v>
+      </c>
+      <c r="I43" s="26">
+        <v>6</v>
+      </c>
+      <c r="J43" s="26">
+        <v>7</v>
+      </c>
+      <c r="K43" s="26">
+        <v>8</v>
+      </c>
+      <c r="L43" s="26">
+        <v>9</v>
+      </c>
+      <c r="M43" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13">
+      <c r="C44" t="s">
+        <v>716</v>
+      </c>
+      <c r="D44" s="26">
+        <v>40</v>
+      </c>
+      <c r="E44" s="26">
+        <v>40</v>
+      </c>
+      <c r="F44" s="26">
+        <v>40</v>
+      </c>
+      <c r="G44" s="26">
+        <v>40</v>
+      </c>
+      <c r="H44" s="26">
+        <v>40</v>
+      </c>
+      <c r="I44" s="26">
+        <v>40</v>
+      </c>
+      <c r="J44" s="26">
+        <v>40</v>
+      </c>
+      <c r="K44" s="26">
+        <v>40</v>
+      </c>
+      <c r="L44" s="26">
+        <v>40</v>
+      </c>
+      <c r="M44" s="26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13">
+      <c r="C46" t="s">
+        <v>722</v>
+      </c>
+      <c r="D46" s="22">
+        <f>(144*D38*D40*D43*D39/(33000*(D39-1)))*((D41/D40)^((D39-1)/(D38*D39))-1)</f>
+        <v>0.1026537881276072</v>
+      </c>
+      <c r="E46" s="22">
+        <f>(144*E38*E40*E43*E39/(33000*(E39-1)))*((E41/E40)^((E39-1)/(E38*E39))-1)</f>
+        <v>0.2053075762552144</v>
+      </c>
+      <c r="F46" s="22">
+        <f>(144*F38*F40*F43*F39/(33000*(F39-1)))*((F41/F40)^((F39-1)/(F38*F39))-1)</f>
+        <v>0.30796136438282157</v>
+      </c>
+      <c r="G46" s="22">
+        <f>(144*G38*G40*G43*G39/(33000*(G39-1)))*((G41/G40)^((G39-1)/(G38*G39))-1)</f>
+        <v>0.41061515251042879</v>
+      </c>
+      <c r="H46" s="22">
+        <f>(144*H38*H40*H43*H39/(33000*(H39-1)))*((H41/H40)^((H39-1)/(H38*H39))-1)</f>
+        <v>0.51326894063803596</v>
+      </c>
+      <c r="I46" s="22">
+        <f>(144*I38*I40*I43*I39/(33000*(I39-1)))*((I41/I40)^((I39-1)/(I38*I39))-1)</f>
+        <v>0.61592272876564313</v>
+      </c>
+      <c r="J46" s="22">
+        <f>(144*J38*J40*J43*J39/(33000*(J39-1)))*((J41/J40)^((J39-1)/(J38*J39))-1)</f>
+        <v>0.71857651689325019</v>
+      </c>
+      <c r="K46" s="22">
+        <f>(144*K38*K40*K43*K39/(33000*(K39-1)))*((K41/K40)^((K39-1)/(K38*K39))-1)</f>
+        <v>0.82123030502085759</v>
+      </c>
+      <c r="L46" s="22">
+        <f>(144*L38*L40*L43*L39/(33000*(L39-1)))*((L41/L40)^((L39-1)/(L38*L39))-1)</f>
+        <v>0.92388409314846476</v>
+      </c>
+      <c r="M46" s="22">
+        <f>(144*M38*M40*M43*M39/(33000*(M39-1)))*((M41/M40)^((M39-1)/(M38*M39))-1)</f>
+        <v>1.0265378812760719</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13">
+      <c r="C47" t="s">
+        <v>721</v>
+      </c>
+      <c r="D47">
+        <v>0.8</v>
+      </c>
+      <c r="E47">
+        <v>0.8</v>
+      </c>
+      <c r="F47">
+        <v>0.8</v>
+      </c>
+      <c r="G47">
+        <v>0.8</v>
+      </c>
+      <c r="H47">
+        <v>0.8</v>
+      </c>
+      <c r="I47">
+        <v>0.8</v>
+      </c>
+      <c r="J47">
+        <v>0.8</v>
+      </c>
+      <c r="K47">
+        <v>0.8</v>
+      </c>
+      <c r="L47">
+        <v>0.8</v>
+      </c>
+      <c r="M47">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13">
+      <c r="C48" t="s">
+        <v>720</v>
+      </c>
+      <c r="D48" s="1">
+        <f>D46*0.7457/D47</f>
+        <v>9.5686162258445853E-2</v>
+      </c>
+      <c r="E48" s="1">
+        <f>E46*0.7457/E47</f>
+        <v>0.19137232451689171</v>
+      </c>
+      <c r="F48" s="1">
+        <f>F46*0.7457/F47</f>
+        <v>0.28705848677533757</v>
+      </c>
+      <c r="G48" s="1">
+        <f>G46*0.7457/G47</f>
+        <v>0.38274464903378341</v>
+      </c>
+      <c r="H48" s="1">
+        <f>H46*0.7457/H47</f>
+        <v>0.47843081129222925</v>
+      </c>
+      <c r="I48" s="1">
+        <f>I46*0.7457/I47</f>
+        <v>0.57411697355067515</v>
+      </c>
+      <c r="J48" s="1">
+        <f>J46*0.7457/J47</f>
+        <v>0.66980313580912076</v>
+      </c>
+      <c r="K48" s="1">
+        <f>K46*0.7457/K47</f>
+        <v>0.76548929806756683</v>
+      </c>
+      <c r="L48" s="1">
+        <f>L46*0.7457/L47</f>
+        <v>0.86117546032601267</v>
+      </c>
+      <c r="M48" s="1">
+        <f>M46*0.7457/M47</f>
+        <v>0.9568616225844585</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13">
+      <c r="C52" t="s">
+        <v>518</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13">
+      <c r="C53" t="s">
+        <v>713</v>
+      </c>
+      <c r="D53">
+        <v>1.41</v>
+      </c>
+      <c r="E53">
+        <v>1.41</v>
+      </c>
+      <c r="F53">
+        <v>1.41</v>
+      </c>
+      <c r="G53">
+        <v>1.41</v>
+      </c>
+      <c r="H53">
+        <v>1.41</v>
+      </c>
+      <c r="I53">
+        <v>1.41</v>
+      </c>
+      <c r="J53">
+        <v>1.41</v>
+      </c>
+      <c r="K53">
+        <v>1.41</v>
+      </c>
+      <c r="L53">
+        <v>1.41</v>
+      </c>
+      <c r="M53">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13">
+      <c r="C54" t="s">
+        <v>714</v>
+      </c>
+      <c r="D54">
+        <v>14.7</v>
+      </c>
+      <c r="E54">
+        <v>14.7</v>
+      </c>
+      <c r="F54">
+        <v>14.7</v>
+      </c>
+      <c r="G54">
+        <v>14.7</v>
+      </c>
+      <c r="H54">
+        <v>14.7</v>
+      </c>
+      <c r="I54">
+        <v>14.7</v>
+      </c>
+      <c r="J54">
+        <v>14.7</v>
+      </c>
+      <c r="K54">
+        <v>14.7</v>
+      </c>
+      <c r="L54">
+        <v>14.7</v>
+      </c>
+      <c r="M54">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13">
+      <c r="C55" t="s">
+        <v>715</v>
+      </c>
+      <c r="D55" s="66">
+        <f>D58+14.7</f>
+        <v>74.7</v>
+      </c>
+      <c r="E55" s="66">
+        <f>E58+14.7</f>
+        <v>74.7</v>
+      </c>
+      <c r="F55" s="66">
+        <f>F58+14.7</f>
+        <v>74.7</v>
+      </c>
+      <c r="G55" s="66">
+        <f>G58+14.7</f>
+        <v>74.7</v>
+      </c>
+      <c r="H55" s="66">
+        <f>H58+14.7</f>
+        <v>74.7</v>
+      </c>
+      <c r="I55" s="66">
+        <f>I58+14.7</f>
+        <v>74.7</v>
+      </c>
+      <c r="J55" s="66">
+        <f>J58+14.7</f>
+        <v>74.7</v>
+      </c>
+      <c r="K55" s="66">
+        <f>K58+14.7</f>
+        <v>74.7</v>
+      </c>
+      <c r="L55" s="66">
+        <f>L58+14.7</f>
+        <v>74.7</v>
+      </c>
+      <c r="M55" s="66">
+        <f>M58+14.7</f>
+        <v>74.7</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13">
+      <c r="C57" t="s">
+        <v>717</v>
+      </c>
+      <c r="D57" s="26">
+        <v>1</v>
+      </c>
+      <c r="E57" s="26">
+        <v>2</v>
+      </c>
+      <c r="F57" s="26">
+        <v>3</v>
+      </c>
+      <c r="G57" s="26">
+        <v>4</v>
+      </c>
+      <c r="H57" s="26">
+        <v>5</v>
+      </c>
+      <c r="I57" s="26">
+        <v>6</v>
+      </c>
+      <c r="J57" s="26">
+        <v>7</v>
+      </c>
+      <c r="K57" s="26">
+        <v>8</v>
+      </c>
+      <c r="L57" s="26">
+        <v>9</v>
+      </c>
+      <c r="M57" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13">
+      <c r="C58" t="s">
+        <v>716</v>
+      </c>
+      <c r="D58" s="26">
+        <v>60</v>
+      </c>
+      <c r="E58" s="26">
+        <v>60</v>
+      </c>
+      <c r="F58" s="26">
+        <v>60</v>
+      </c>
+      <c r="G58" s="26">
+        <v>60</v>
+      </c>
+      <c r="H58" s="26">
+        <v>60</v>
+      </c>
+      <c r="I58" s="26">
+        <v>60</v>
+      </c>
+      <c r="J58" s="26">
+        <v>60</v>
+      </c>
+      <c r="K58" s="26">
+        <v>60</v>
+      </c>
+      <c r="L58" s="26">
+        <v>60</v>
+      </c>
+      <c r="M58" s="26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13">
+      <c r="C60" t="s">
+        <v>722</v>
+      </c>
+      <c r="D60" s="22">
+        <f>(144*D52*D54*D57*D53/(33000*(D53-1)))*((D55/D54)^((D53-1)/(D52*D53))-1)</f>
+        <v>0.13331224899879454</v>
+      </c>
+      <c r="E60" s="22">
+        <f>(144*E52*E54*E57*E53/(33000*(E53-1)))*((E55/E54)^((E53-1)/(E52*E53))-1)</f>
+        <v>0.26662449799758908</v>
+      </c>
+      <c r="F60" s="22">
+        <f>(144*F52*F54*F57*F53/(33000*(F53-1)))*((F55/F54)^((F53-1)/(F52*F53))-1)</f>
+        <v>0.3999367469963836</v>
+      </c>
+      <c r="G60" s="22">
+        <f>(144*G52*G54*G57*G53/(33000*(G53-1)))*((G55/G54)^((G53-1)/(G52*G53))-1)</f>
+        <v>0.53324899599517817</v>
+      </c>
+      <c r="H60" s="22">
+        <f>(144*H52*H54*H57*H53/(33000*(H53-1)))*((H55/H54)^((H53-1)/(H52*H53))-1)</f>
+        <v>0.66656124499397262</v>
+      </c>
+      <c r="I60" s="22">
+        <f>(144*I52*I54*I57*I53/(33000*(I53-1)))*((I55/I54)^((I53-1)/(I52*I53))-1)</f>
+        <v>0.79987349399276719</v>
+      </c>
+      <c r="J60" s="22">
+        <f>(144*J52*J54*J57*J53/(33000*(J53-1)))*((J55/J54)^((J53-1)/(J52*J53))-1)</f>
+        <v>0.93318574299156154</v>
+      </c>
+      <c r="K60" s="22">
+        <f>(144*K52*K54*K57*K53/(33000*(K53-1)))*((K55/K54)^((K53-1)/(K52*K53))-1)</f>
+        <v>1.0664979919903563</v>
+      </c>
+      <c r="L60" s="22">
+        <f>(144*L52*L54*L57*L53/(33000*(L53-1)))*((L55/L54)^((L53-1)/(L52*L53))-1)</f>
+        <v>1.1998102409891507</v>
+      </c>
+      <c r="M60" s="22">
+        <f>(144*M52*M54*M57*M53/(33000*(M53-1)))*((M55/M54)^((M53-1)/(M52*M53))-1)</f>
+        <v>1.3331224899879452</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13">
+      <c r="C61" t="s">
+        <v>721</v>
+      </c>
+      <c r="D61">
+        <v>0.8</v>
+      </c>
+      <c r="E61">
+        <v>0.8</v>
+      </c>
+      <c r="F61">
+        <v>0.8</v>
+      </c>
+      <c r="G61">
+        <v>0.8</v>
+      </c>
+      <c r="H61">
+        <v>0.8</v>
+      </c>
+      <c r="I61">
+        <v>0.8</v>
+      </c>
+      <c r="J61">
+        <v>0.8</v>
+      </c>
+      <c r="K61">
+        <v>0.8</v>
+      </c>
+      <c r="L61">
+        <v>0.8</v>
+      </c>
+      <c r="M61">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13">
+      <c r="C62" t="s">
+        <v>720</v>
+      </c>
+      <c r="D62" s="1">
+        <f>D60*0.7457/D61</f>
+        <v>0.12426368009800136</v>
+      </c>
+      <c r="E62" s="1">
+        <f>E60*0.7457/E61</f>
+        <v>0.24852736019600272</v>
+      </c>
+      <c r="F62" s="1">
+        <f>F60*0.7457/F61</f>
+        <v>0.37279104029400406</v>
+      </c>
+      <c r="G62" s="1">
+        <f>G60*0.7457/G61</f>
+        <v>0.49705472039200543</v>
+      </c>
+      <c r="H62" s="1">
+        <f>H60*0.7457/H61</f>
+        <v>0.62131840049000664</v>
+      </c>
+      <c r="I62" s="1">
+        <f>I60*0.7457/I61</f>
+        <v>0.74558208058800812</v>
+      </c>
+      <c r="J62" s="1">
+        <f>J60*0.7457/J61</f>
+        <v>0.86984576068600938</v>
+      </c>
+      <c r="K62" s="1">
+        <f>K60*0.7457/K61</f>
+        <v>0.99410944078401087</v>
+      </c>
+      <c r="L62" s="1">
+        <f>L60*0.7457/L61</f>
+        <v>1.118373120882012</v>
+      </c>
+      <c r="M62" s="1">
+        <f>M60*0.7457/M61</f>
+        <v>1.2426368009800133</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13">
+      <c r="C66" t="s">
+        <v>518</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13">
+      <c r="C67" t="s">
+        <v>713</v>
+      </c>
+      <c r="D67">
+        <v>1.41</v>
+      </c>
+      <c r="E67">
+        <v>1.41</v>
+      </c>
+      <c r="F67">
+        <v>1.41</v>
+      </c>
+      <c r="G67">
+        <v>1.41</v>
+      </c>
+      <c r="H67">
+        <v>1.41</v>
+      </c>
+      <c r="I67">
+        <v>1.41</v>
+      </c>
+      <c r="J67">
+        <v>1.41</v>
+      </c>
+      <c r="K67">
+        <v>1.41</v>
+      </c>
+      <c r="L67">
+        <v>1.41</v>
+      </c>
+      <c r="M67">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13">
+      <c r="C68" t="s">
+        <v>714</v>
+      </c>
+      <c r="D68">
+        <v>14.7</v>
+      </c>
+      <c r="E68">
+        <v>14.7</v>
+      </c>
+      <c r="F68">
+        <v>14.7</v>
+      </c>
+      <c r="G68">
+        <v>14.7</v>
+      </c>
+      <c r="H68">
+        <v>14.7</v>
+      </c>
+      <c r="I68">
+        <v>14.7</v>
+      </c>
+      <c r="J68">
+        <v>14.7</v>
+      </c>
+      <c r="K68">
+        <v>14.7</v>
+      </c>
+      <c r="L68">
+        <v>14.7</v>
+      </c>
+      <c r="M68">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13">
+      <c r="C69" t="s">
+        <v>715</v>
+      </c>
+      <c r="D69" s="66">
+        <f>D72+14.7</f>
+        <v>104.7</v>
+      </c>
+      <c r="E69" s="66">
+        <f>E72+14.7</f>
+        <v>104.7</v>
+      </c>
+      <c r="F69" s="66">
+        <f>F72+14.7</f>
+        <v>104.7</v>
+      </c>
+      <c r="G69" s="66">
+        <f>G72+14.7</f>
+        <v>104.7</v>
+      </c>
+      <c r="H69" s="66">
+        <f>H72+14.7</f>
+        <v>104.7</v>
+      </c>
+      <c r="I69" s="66">
+        <f>I72+14.7</f>
+        <v>104.7</v>
+      </c>
+      <c r="J69" s="66">
+        <f>J72+14.7</f>
+        <v>104.7</v>
+      </c>
+      <c r="K69" s="66">
+        <f>K72+14.7</f>
+        <v>104.7</v>
+      </c>
+      <c r="L69" s="66">
+        <f>L72+14.7</f>
+        <v>104.7</v>
+      </c>
+      <c r="M69" s="66">
+        <f>M72+14.7</f>
+        <v>104.7</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13">
+      <c r="C71" t="s">
+        <v>717</v>
+      </c>
+      <c r="D71" s="26">
+        <v>1</v>
+      </c>
+      <c r="E71" s="26">
+        <v>2</v>
+      </c>
+      <c r="F71" s="26">
+        <v>3</v>
+      </c>
+      <c r="G71" s="26">
+        <v>4</v>
+      </c>
+      <c r="H71" s="26">
+        <v>5</v>
+      </c>
+      <c r="I71" s="26">
+        <v>6</v>
+      </c>
+      <c r="J71" s="26">
+        <v>7</v>
+      </c>
+      <c r="K71" s="26">
+        <v>8</v>
+      </c>
+      <c r="L71" s="26">
+        <v>9</v>
+      </c>
+      <c r="M71" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13">
+      <c r="C72" t="s">
+        <v>716</v>
+      </c>
+      <c r="D72" s="26">
+        <v>90</v>
+      </c>
+      <c r="E72" s="26">
+        <v>90</v>
+      </c>
+      <c r="F72" s="26">
+        <v>90</v>
+      </c>
+      <c r="G72" s="26">
+        <v>90</v>
+      </c>
+      <c r="H72" s="26">
+        <v>90</v>
+      </c>
+      <c r="I72" s="26">
+        <v>90</v>
+      </c>
+      <c r="J72" s="26">
+        <v>90</v>
+      </c>
+      <c r="K72" s="26">
+        <v>90</v>
+      </c>
+      <c r="L72" s="26">
+        <v>90</v>
+      </c>
+      <c r="M72" s="26">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13">
+      <c r="C74" t="s">
+        <v>722</v>
+      </c>
+      <c r="D74" s="22">
+        <f>(144*D66*D68*D71*D67/(33000*(D67-1)))*((D69/D68)^((D67-1)/(D66*D67))-1)</f>
+        <v>0.1698193120194646</v>
+      </c>
+      <c r="E74" s="22">
+        <f>(144*E66*E68*E71*E67/(33000*(E67-1)))*((E69/E68)^((E67-1)/(E66*E67))-1)</f>
+        <v>0.33963862403892919</v>
+      </c>
+      <c r="F74" s="22">
+        <f>(144*F66*F68*F71*F67/(33000*(F67-1)))*((F69/F68)^((F67-1)/(F66*F67))-1)</f>
+        <v>0.50945793605839373</v>
+      </c>
+      <c r="G74" s="22">
+        <f>(144*G66*G68*G71*G67/(33000*(G67-1)))*((G69/G68)^((G67-1)/(G66*G67))-1)</f>
+        <v>0.67927724807785839</v>
+      </c>
+      <c r="H74" s="22">
+        <f>(144*H66*H68*H71*H67/(33000*(H67-1)))*((H69/H68)^((H67-1)/(H66*H67))-1)</f>
+        <v>0.84909656009732293</v>
+      </c>
+      <c r="I74" s="22">
+        <f>(144*I66*I68*I71*I67/(33000*(I67-1)))*((I69/I68)^((I67-1)/(I66*I67))-1)</f>
+        <v>1.0189158721167875</v>
+      </c>
+      <c r="J74" s="22">
+        <f>(144*J66*J68*J71*J67/(33000*(J67-1)))*((J69/J68)^((J67-1)/(J66*J67))-1)</f>
+        <v>1.1887351841362519</v>
+      </c>
+      <c r="K74" s="22">
+        <f>(144*K66*K68*K71*K67/(33000*(K67-1)))*((K69/K68)^((K67-1)/(K66*K67))-1)</f>
+        <v>1.3585544961557168</v>
+      </c>
+      <c r="L74" s="22">
+        <f>(144*L66*L68*L71*L67/(33000*(L67-1)))*((L69/L68)^((L67-1)/(L66*L67))-1)</f>
+        <v>1.5283738081751812</v>
+      </c>
+      <c r="M74" s="22">
+        <f>(144*M66*M68*M71*M67/(33000*(M67-1)))*((M69/M68)^((M67-1)/(M66*M67))-1)</f>
+        <v>1.6981931201946459</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13">
+      <c r="C75" t="s">
+        <v>721</v>
+      </c>
+      <c r="D75">
+        <v>0.8</v>
+      </c>
+      <c r="E75">
+        <v>0.8</v>
+      </c>
+      <c r="F75">
+        <v>0.8</v>
+      </c>
+      <c r="G75">
+        <v>0.8</v>
+      </c>
+      <c r="H75">
+        <v>0.8</v>
+      </c>
+      <c r="I75">
+        <v>0.8</v>
+      </c>
+      <c r="J75">
+        <v>0.8</v>
+      </c>
+      <c r="K75">
+        <v>0.8</v>
+      </c>
+      <c r="L75">
+        <v>0.8</v>
+      </c>
+      <c r="M75">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13">
+      <c r="C76" t="s">
+        <v>720</v>
+      </c>
+      <c r="D76" s="1">
+        <f>D74*0.7457/D75</f>
+        <v>0.15829282621614343</v>
+      </c>
+      <c r="E76" s="1">
+        <f>E74*0.7457/E75</f>
+        <v>0.31658565243228687</v>
+      </c>
+      <c r="F76" s="1">
+        <f>F74*0.7457/F75</f>
+        <v>0.4748784786484303</v>
+      </c>
+      <c r="G76" s="1">
+        <f>G74*0.7457/G75</f>
+        <v>0.63317130486457374</v>
+      </c>
+      <c r="H76" s="1">
+        <f>H74*0.7457/H75</f>
+        <v>0.79146413108071711</v>
+      </c>
+      <c r="I76" s="1">
+        <f>I74*0.7457/I75</f>
+        <v>0.9497569572968606</v>
+      </c>
+      <c r="J76" s="1">
+        <f>J74*0.7457/J75</f>
+        <v>1.1080497835130039</v>
+      </c>
+      <c r="K76" s="1">
+        <f>K74*0.7457/K75</f>
+        <v>1.2663426097291475</v>
+      </c>
+      <c r="L76" s="1">
+        <f>L74*0.7457/L75</f>
+        <v>1.4246354359452909</v>
+      </c>
+      <c r="M76" s="1">
+        <f>M74*0.7457/M75</f>
+        <v>1.5829282621614342</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13">
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+    </row>
+    <row r="78" spans="3:13">
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+    </row>
+    <row r="80" spans="3:13">
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+    </row>
+    <row r="82" spans="3:13">
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="3:13">
+      <c r="D83">
+        <f>D71</f>
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ref="E83:M83" si="0">E71</f>
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13">
+      <c r="C84" t="s">
+        <v>724</v>
+      </c>
+      <c r="D84" s="1">
+        <f>D48</f>
+        <v>9.5686162258445853E-2</v>
+      </c>
+      <c r="E84" s="1">
+        <f t="shared" ref="E84:M84" si="1">E48</f>
+        <v>0.19137232451689171</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.28705848677533757</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38274464903378341</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.47843081129222925</v>
+      </c>
+      <c r="I84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.57411697355067515</v>
+      </c>
+      <c r="J84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.66980313580912076</v>
+      </c>
+      <c r="K84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.76548929806756683</v>
+      </c>
+      <c r="L84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86117546032601267</v>
+      </c>
+      <c r="M84" s="1">
+        <f t="shared" si="1"/>
+        <v>0.9568616225844585</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13">
+      <c r="C85" t="s">
+        <v>723</v>
+      </c>
+      <c r="D85" s="1">
+        <f>D62</f>
+        <v>0.12426368009800136</v>
+      </c>
+      <c r="E85" s="1">
+        <f t="shared" ref="E85:M85" si="2">E62</f>
+        <v>0.24852736019600272</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="2"/>
+        <v>0.37279104029400406</v>
+      </c>
+      <c r="G85" s="1">
+        <f t="shared" si="2"/>
+        <v>0.49705472039200543</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" si="2"/>
+        <v>0.62131840049000664</v>
+      </c>
+      <c r="I85" s="1">
+        <f t="shared" si="2"/>
+        <v>0.74558208058800812</v>
+      </c>
+      <c r="J85" s="1">
+        <f t="shared" si="2"/>
+        <v>0.86984576068600938</v>
+      </c>
+      <c r="K85" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99410944078401087</v>
+      </c>
+      <c r="L85" s="1">
+        <f t="shared" si="2"/>
+        <v>1.118373120882012</v>
+      </c>
+      <c r="M85" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2426368009800133</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13">
+      <c r="C86" t="s">
+        <v>725</v>
+      </c>
+      <c r="D86" s="1">
+        <f>D76</f>
+        <v>0.15829282621614343</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="shared" ref="E86:M86" si="3">E76</f>
+        <v>0.31658565243228687</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" si="3"/>
+        <v>0.4748784786484303</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" si="3"/>
+        <v>0.63317130486457374</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" si="3"/>
+        <v>0.79146413108071711</v>
+      </c>
+      <c r="I86" s="1">
+        <f t="shared" si="3"/>
+        <v>0.9497569572968606</v>
+      </c>
+      <c r="J86" s="1">
+        <f t="shared" si="3"/>
+        <v>1.1080497835130039</v>
+      </c>
+      <c r="K86" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2663426097291475</v>
+      </c>
+      <c r="L86" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4246354359452909</v>
+      </c>
+      <c r="M86" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5829282621614342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F13C8F-9705-F246-8105-C31D60AD91CE}">
+  <dimension ref="D6:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:5">
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5">
+      <c r="D7">
+        <v>22.4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5">
+      <c r="D8" s="30">
+        <f>D6/D7</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="E8" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5">
+      <c r="D10">
+        <v>1.4291</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5">
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="E12" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
+      <c r="D13" s="2">
+        <f>D12*D10*1440/1000</f>
+        <v>205.79040000000001</v>
+      </c>
+      <c r="E13" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" s="29">
+        <f>1000/D13*D12</f>
+        <v>485.93131652399722</v>
+      </c>
+      <c r="E15" t="s">
+        <v>728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CFB0EC-6744-8946-9D07-7CAD019B1738}">
+  <dimension ref="B4:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8">
+      <c r="F4" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>737</v>
+      </c>
+      <c r="C5">
+        <v>0.78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>752</v>
+      </c>
+      <c r="G5">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" t="s">
+        <v>738</v>
+      </c>
+      <c r="C6">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D6" s="75">
+        <f>C6*D$10</f>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="F6" t="s">
+        <v>753</v>
+      </c>
+      <c r="G6">
+        <v>0.21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" t="s">
+        <v>739</v>
+      </c>
+      <c r="C7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D7" s="75">
+        <f t="shared" ref="D7:D8" si="0">C7*D$10</f>
+        <v>4.0909090909090909E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>740</v>
+      </c>
+      <c r="C8">
+        <v>2E-3</v>
+      </c>
+      <c r="D8" s="75">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090922E-3</v>
+      </c>
+      <c r="G8" s="76">
+        <f>C6*D6</f>
+        <v>0.19855</v>
+      </c>
+      <c r="H8" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="C9">
+        <f>SUM(C5:C8)</f>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f>SUM(C6:C8)</f>
+        <v>0.22</v>
+      </c>
+      <c r="G9" s="76">
+        <f>G6-G8</f>
+        <v>1.1449999999999988E-2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="D10" s="1">
+        <f>C9/D9</f>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="E10" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" t="s">
+        <v>761</v>
+      </c>
+      <c r="C13">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>744</v>
+      </c>
+      <c r="E13" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" t="s">
+        <v>745</v>
+      </c>
+      <c r="C14">
+        <v>0.7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" t="s">
+        <v>746</v>
+      </c>
+      <c r="C15">
+        <f>C13*C14</f>
+        <v>15.399999999999999</v>
+      </c>
+      <c r="D15" t="s">
+        <v>744</v>
+      </c>
+      <c r="E15" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>747</v>
+      </c>
+      <c r="C17">
+        <v>1.8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>748</v>
+      </c>
+      <c r="C18">
+        <f>C15*C17</f>
+        <v>27.72</v>
+      </c>
+      <c r="D18" t="s">
+        <v>355</v>
+      </c>
+      <c r="E18" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>750</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>751</v>
+      </c>
+      <c r="C21">
+        <v>0.6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>749</v>
+      </c>
+      <c r="C22" s="2">
+        <f>C20/C21/(1-G5)</f>
+        <v>158.73015873015876</v>
+      </c>
+      <c r="D22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>764</v>
+      </c>
+      <c r="C23" s="2">
+        <f>C22*(C26/60)</f>
+        <v>35.088607594936704</v>
+      </c>
+      <c r="D23" t="s">
+        <v>765</v>
+      </c>
+      <c r="E23" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>754</v>
+      </c>
+      <c r="C25" s="2">
+        <f>C22*G5</f>
+        <v>125.39682539682543</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>755</v>
+      </c>
+      <c r="C26" s="2">
+        <f>C18/C25*60</f>
+        <v>13.263493670886072</v>
+      </c>
+      <c r="D26" t="s">
+        <v>362</v>
+      </c>
+      <c r="E26" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" t="s">
+        <v>760</v>
+      </c>
+      <c r="C29" s="2">
+        <f>C18/(C26/60)</f>
+        <v>125.39682539682543</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>773</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EF0ED8-79C6-3E4B-9C1C-705B81C0F61B}">
   <dimension ref="B8:E24"/>
   <sheetViews>
@@ -6981,35 +11021,35 @@
   <sheetData>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C8">
         <v>200</v>
       </c>
       <c r="D8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C9">
         <v>2.5</v>
       </c>
       <c r="D9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C10">
         <v>0.55000000000000004</v>
       </c>
       <c r="D10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -7020,72 +11060,72 @@
         <v>400</v>
       </c>
       <c r="D11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C13" s="2">
         <f>C8/C9</f>
         <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C14" s="22">
         <f>PI()*C10^2</f>
         <v>0.9503317777109126</v>
       </c>
       <c r="D14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C15" s="29">
         <f>(C13*1000/C14)/60</f>
         <v>1403.018782077314</v>
       </c>
       <c r="D15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C16" s="1">
         <f>C11/C15</f>
         <v>0.28509953331327381</v>
       </c>
       <c r="D16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C17" s="29">
         <f>2*PI()*C10*C11</f>
         <v>1382.3007675795091</v>
       </c>
       <c r="D17" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C19">
         <f>C9*1.1644</f>
@@ -7097,29 +11137,29 @@
     </row>
     <row r="20" spans="2:5">
       <c r="B20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C20" s="32">
         <v>1.9830000000000002E-5</v>
       </c>
       <c r="D20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E20" s="32"/>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C21" s="31">
         <f>C20/C19</f>
         <v>6.8120920645826168E-6</v>
       </c>
       <c r="D21" t="s">
+        <v>396</v>
+      </c>
+      <c r="E21" t="s">
         <v>397</v>
-      </c>
-      <c r="E21" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -7131,12 +11171,12 @@
         <v>5.5000000000000005E-3</v>
       </c>
       <c r="D22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C23" s="33">
         <f>(C10/100) * (C15/100) * C21</f>
@@ -7151,7 +11191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C5:D16"/>
   <sheetViews>
@@ -7220,7 +11260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:M14"/>
   <sheetViews>
@@ -7682,7 +11722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B6:C11"/>
   <sheetViews>
@@ -7725,12 +11765,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8148,7 +12188,7 @@
     </row>
     <row r="22" spans="2:8" ht="34">
       <c r="B22" s="17">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>258</v>
@@ -8171,7 +12211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B5:H37"/>
   <sheetViews>
@@ -8503,7 +12543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
@@ -8748,388 +12788,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="B5:L35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="2:9">
-      <c r="C5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6">
-        <v>0.02</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7">
-        <v>189</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7">
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8">
-        <f>B6*B7</f>
-        <v>3.7800000000000002</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8">
-        <f>E7*E6</f>
-        <v>88.899999999999991</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="3">
-        <v>11</v>
-      </c>
-      <c r="H13" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="C14" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" t="s">
-        <v>296</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="E15" s="21">
-        <f>B$13/D15*C15</f>
-        <v>1.0377358490566038</v>
-      </c>
-      <c r="F15" s="21">
-        <f t="shared" ref="F15:F21" si="0">B$13*E15</f>
-        <v>11.415094339622641</v>
-      </c>
-      <c r="H15" s="21">
-        <v>1</v>
-      </c>
-      <c r="I15" s="21">
-        <f>B$13*H15</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" t="s">
-        <v>308</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1</v>
-      </c>
-      <c r="D16" s="3">
-        <v>8.5</v>
-      </c>
-      <c r="E16" s="21">
-        <f>B$13/D16*C16</f>
-        <v>1.2941176470588236</v>
-      </c>
-      <c r="F16" s="21">
-        <f t="shared" si="0"/>
-        <v>14.23529411764706</v>
-      </c>
-      <c r="H16" s="21">
-        <v>1.24</v>
-      </c>
-      <c r="I16" s="21">
-        <f t="shared" ref="I16:I21" si="1">B$13*H16</f>
-        <v>13.64</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12">
-      <c r="B17" t="s">
-        <v>305</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="E17" s="21">
-        <f>B$13/D17*C17</f>
-        <v>1.5492957746478875</v>
-      </c>
-      <c r="F17" s="21">
-        <f t="shared" si="0"/>
-        <v>17.042253521126764</v>
-      </c>
-      <c r="H17" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="I17" s="21">
-        <f t="shared" si="1"/>
-        <v>15.399999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12">
-      <c r="B18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="3">
-        <v>7.1</v>
-      </c>
-      <c r="E18" s="21">
-        <f>B$13/D18*C18</f>
-        <v>1.5492957746478875</v>
-      </c>
-      <c r="F18" s="21">
-        <f t="shared" si="0"/>
-        <v>17.042253521126764</v>
-      </c>
-      <c r="H18" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="I18" s="21">
-        <f t="shared" si="1"/>
-        <v>15.399999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" t="s">
-        <v>307</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3">
-        <v>7.3</v>
-      </c>
-      <c r="E19" s="21">
-        <f>B$13/D19*C19</f>
-        <v>1.5068493150684932</v>
-      </c>
-      <c r="F19" s="21">
-        <f t="shared" si="0"/>
-        <v>16.575342465753426</v>
-      </c>
-      <c r="H19" s="21">
-        <v>1.4</v>
-      </c>
-      <c r="I19" s="21">
-        <f t="shared" si="1"/>
-        <v>15.399999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" t="s">
-        <v>295</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="E20" s="21">
-        <v>0.42</v>
-      </c>
-      <c r="F20" s="21">
-        <f t="shared" si="0"/>
-        <v>4.62</v>
-      </c>
-      <c r="H20" s="21">
-        <v>0.42</v>
-      </c>
-      <c r="I20" s="21">
-        <f t="shared" si="1"/>
-        <v>4.62</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" t="s">
-        <v>304</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>30</v>
-      </c>
-      <c r="E21" s="21">
-        <f>B$13/D21*C21</f>
-        <v>0.36666666666666664</v>
-      </c>
-      <c r="F21" s="21">
-        <f t="shared" si="0"/>
-        <v>4.0333333333333332</v>
-      </c>
-      <c r="H21" s="21">
-        <v>0.4</v>
-      </c>
-      <c r="I21" s="21">
-        <f t="shared" si="1"/>
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" t="s">
-        <v>343</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="21">
-        <f>SUM(E15:E21)</f>
-        <v>7.7239610271463617</v>
-      </c>
-      <c r="F22" s="21">
-        <f>SUM(F15:F21)</f>
-        <v>84.963571298609992</v>
-      </c>
-      <c r="H22" s="21">
-        <f>SUM(H15:H21)</f>
-        <v>7.26</v>
-      </c>
-      <c r="I22" s="21">
-        <f>SUM(I15:I21)</f>
-        <v>79.860000000000014</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12">
-      <c r="L24" s="23" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="L25">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12">
-      <c r="K27" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="L27" s="23" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <f>L$25^K28</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12">
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <f t="shared" ref="L29:L35" si="2">L$25^K29</f>
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="2"/>
-        <v>262144</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="K31">
-        <v>4</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="2"/>
-        <v>16777216</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12">
-      <c r="K32">
-        <v>5</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="2"/>
-        <v>1073741824</v>
-      </c>
-    </row>
-    <row r="33" spans="11:12">
-      <c r="K33">
-        <v>6</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="2"/>
-        <v>68719476736</v>
-      </c>
-    </row>
-    <row r="34" spans="11:12">
-      <c r="K34">
-        <v>7</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="2"/>
-        <v>4398046511104</v>
-      </c>
-    </row>
-    <row r="35" spans="11:12">
-      <c r="K35">
-        <v>8</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="2"/>
-        <v>281474976710656</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/documents/o2conc.xlsx
+++ b/documents/o2conc.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickos01/Desktop/O24U/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891C0D60-2F8C-C44A-A191-F969F8CCDE14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8CC7F3-DABC-4F49-A8ED-134BFD3012F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="500" windowWidth="25120" windowHeight="16820" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2760" yWindow="500" windowWidth="25120" windowHeight="16820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volume" sheetId="1" r:id="rId1"/>
-    <sheet name="Model" sheetId="21" r:id="rId2"/>
-    <sheet name="intercooler" sheetId="10" r:id="rId3"/>
-    <sheet name="Heater" sheetId="6" r:id="rId4"/>
-    <sheet name="Valves" sheetId="2" r:id="rId5"/>
-    <sheet name="Materials" sheetId="9" r:id="rId6"/>
-    <sheet name="Things I have built" sheetId="7" r:id="rId7"/>
-    <sheet name="vacuum +velocity" sheetId="5" r:id="rId8"/>
-    <sheet name="Column HW" sheetId="8" r:id="rId9"/>
-    <sheet name="electrical" sheetId="3" r:id="rId10"/>
-    <sheet name="bom" sheetId="4" r:id="rId11"/>
-    <sheet name="EquipmentList" sheetId="11" r:id="rId12"/>
-    <sheet name="RTU config" sheetId="12" r:id="rId13"/>
-    <sheet name="O2 RTU" sheetId="13" r:id="rId14"/>
-    <sheet name="Compressor" sheetId="14" r:id="rId15"/>
-    <sheet name="mol" sheetId="18" r:id="rId16"/>
+    <sheet name="Model-VPSA" sheetId="22" r:id="rId2"/>
+    <sheet name="Model" sheetId="21" r:id="rId3"/>
+    <sheet name="intercooler" sheetId="10" r:id="rId4"/>
+    <sheet name="Heater" sheetId="6" r:id="rId5"/>
+    <sheet name="Valves" sheetId="2" r:id="rId6"/>
+    <sheet name="Materials" sheetId="9" r:id="rId7"/>
+    <sheet name="Things I have built" sheetId="7" r:id="rId8"/>
+    <sheet name="vacuum +velocity" sheetId="5" r:id="rId9"/>
+    <sheet name="Column HW" sheetId="8" r:id="rId10"/>
+    <sheet name="electrical" sheetId="3" r:id="rId11"/>
+    <sheet name="bom" sheetId="4" r:id="rId12"/>
+    <sheet name="EquipmentList" sheetId="11" r:id="rId13"/>
+    <sheet name="RTU config" sheetId="12" r:id="rId14"/>
+    <sheet name="O2 RTU" sheetId="13" r:id="rId15"/>
+    <sheet name="Compressor" sheetId="14" r:id="rId16"/>
+    <sheet name="mol" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="790">
   <si>
     <t>liters</t>
   </si>
@@ -2487,9 +2488,6 @@
     <t xml:space="preserve">95% O2, 5% Ar </t>
   </si>
   <si>
-    <t>Product recovery ratio</t>
-  </si>
-  <si>
     <t>recovered in product</t>
   </si>
   <si>
@@ -2500,6 +2498,54 @@
   </si>
   <si>
     <t>Average waste collection rate during adsorption</t>
+  </si>
+  <si>
+    <t>Tap Plastic</t>
+  </si>
+  <si>
+    <t>King Star Board 1"</t>
+  </si>
+  <si>
+    <t>3", 300lb</t>
+  </si>
+  <si>
+    <t>14x20 custom</t>
+  </si>
+  <si>
+    <t>8-3/4x20 custom</t>
+  </si>
+  <si>
+    <t>Prodcycle</t>
+  </si>
+  <si>
+    <t>Purgecycle</t>
+  </si>
+  <si>
+    <t>not adsorbed/cycle</t>
+  </si>
+  <si>
+    <t>recovered</t>
+  </si>
+  <si>
+    <t>purge</t>
+  </si>
+  <si>
+    <t>product returned to purge per cycle</t>
+  </si>
+  <si>
+    <t>product delivered per cycle</t>
+  </si>
+  <si>
+    <t>Bed-product recovery ratio</t>
+  </si>
+  <si>
+    <t>.78 N2 + .01 O2</t>
+  </si>
+  <si>
+    <t>30lpm max</t>
+  </si>
+  <si>
+    <t>MonoColumn VPSA, same bed and pump as O24U</t>
   </si>
 </sst>
 </file>
@@ -4530,8 +4576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N38"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5566,6 +5612,253 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="C6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D6" t="s">
+        <v>319</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>49.99</v>
+      </c>
+      <c r="G6">
+        <f>E6*F6</f>
+        <v>99.98</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>49.99</v>
+      </c>
+      <c r="K6">
+        <f>I6*J6</f>
+        <v>99.98</v>
+      </c>
+      <c r="M6">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="C7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G12" si="0">E7*F7</f>
+        <v>39.979999999999997</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>16.79</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K12" si="1">I7*J7</f>
+        <v>33.58</v>
+      </c>
+      <c r="M7">
+        <v>16.79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="C8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" t="s">
+        <v>321</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>39.979999999999997</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>39.979999999999997</v>
+      </c>
+      <c r="M8">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="C9" t="s">
+        <v>322</v>
+      </c>
+      <c r="D9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>24.99</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>99.96</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>22.99</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>91.96</v>
+      </c>
+      <c r="M9">
+        <v>22.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="C10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D10" t="s">
+        <v>323</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>11.99</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>95.92</v>
+      </c>
+      <c r="I10">
+        <v>8</v>
+      </c>
+      <c r="J10">
+        <v>11.99</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>95.92</v>
+      </c>
+      <c r="M10">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="C11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <f>7.44/2</f>
+        <v>3.72</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>29.76</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11" s="1">
+        <f>25.99/8</f>
+        <v>3.2487499999999998</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>25.99</v>
+      </c>
+      <c r="M11" s="1">
+        <f>25.99/8</f>
+        <v>3.2487499999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="C12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D12" t="s">
+        <v>327</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>12.99</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>51.96</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>12.99</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>51.96</v>
+      </c>
+      <c r="M12">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="G13">
+        <f>SUM(G6:G12)</f>
+        <v>457.53999999999996</v>
+      </c>
+      <c r="K13">
+        <f>SUM(K6:K12)</f>
+        <v>439.37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B5:L35"/>
   <sheetViews>
@@ -5949,12 +6242,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6000,6 +6293,12 @@
       <c r="C4" t="s">
         <v>35</v>
       </c>
+      <c r="D4" t="s">
+        <v>774</v>
+      </c>
+      <c r="F4" t="s">
+        <v>775</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="B5">
@@ -6008,6 +6307,9 @@
       <c r="C5" t="s">
         <v>369</v>
       </c>
+      <c r="F5" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="B6">
@@ -6016,6 +6318,9 @@
       <c r="C6" t="s">
         <v>367</v>
       </c>
+      <c r="F6" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="B7">
@@ -6023,6 +6328,9 @@
       </c>
       <c r="C7" t="s">
         <v>368</v>
+      </c>
+      <c r="F7" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -7099,7 +7407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A1CA2A-853B-ED4B-9B61-3E2DB850F93C}">
   <dimension ref="B1:F87"/>
   <sheetViews>
@@ -7873,7 +8181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD6AD22-5ABD-AE4D-A650-F4BBFE0C2BBE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -8863,7 +9171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED281B2-800D-E543-823D-46745B9B817E}">
   <dimension ref="B2:K31"/>
   <sheetViews>
@@ -9244,7 +9552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13814647-7FE3-4241-A06A-2FA35BE4FEEB}">
   <dimension ref="B6:M86"/>
   <sheetViews>
@@ -10656,7 +10964,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F13C8F-9705-F246-8105-C31D60AD91CE}">
   <dimension ref="D6:E15"/>
   <sheetViews>
@@ -10731,11 +11039,521 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A9AFEC-C5CF-FF49-8E7B-E4151383DB70}">
+  <dimension ref="B3:K35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:10">
+      <c r="B3" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="H4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" t="s">
+        <v>737</v>
+      </c>
+      <c r="C5">
+        <v>0.78</v>
+      </c>
+      <c r="D5">
+        <v>0.78</v>
+      </c>
+      <c r="E5">
+        <v>0.78</v>
+      </c>
+      <c r="H5" t="s">
+        <v>752</v>
+      </c>
+      <c r="I5">
+        <v>0.79</v>
+      </c>
+      <c r="J5" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>738</v>
+      </c>
+      <c r="C6">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="E6">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="F6" s="75">
+        <f>C6*F$10</f>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="H6" t="s">
+        <v>753</v>
+      </c>
+      <c r="I6">
+        <v>0.21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>739</v>
+      </c>
+      <c r="C7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="F7" s="75">
+        <f t="shared" ref="F7:F8" si="0">C7*F$10</f>
+        <v>4.0909090909090909E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>740</v>
+      </c>
+      <c r="C8">
+        <v>2E-3</v>
+      </c>
+      <c r="D8">
+        <v>2E-3</v>
+      </c>
+      <c r="E8">
+        <v>2E-3</v>
+      </c>
+      <c r="F8" s="75">
+        <f t="shared" si="0"/>
+        <v>9.0909090909090922E-3</v>
+      </c>
+      <c r="I8" s="76">
+        <f>C6*F6</f>
+        <v>0.19855</v>
+      </c>
+      <c r="J8" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="C9">
+        <f>SUM(C5:C8)</f>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f>SUM(D5:D8)</f>
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f>SUM(E5:E8)</f>
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f>SUM(C6:C8)</f>
+        <v>0.22</v>
+      </c>
+      <c r="I9" s="76">
+        <f>I6-I8</f>
+        <v>1.1449999999999988E-2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="F10" s="1">
+        <f>C9/F9</f>
+        <v>4.5454545454545459</v>
+      </c>
+      <c r="G10" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>761</v>
+      </c>
+      <c r="C13">
+        <v>22</v>
+      </c>
+      <c r="D13">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>744</v>
+      </c>
+      <c r="G13" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>745</v>
+      </c>
+      <c r="C14">
+        <v>0.7</v>
+      </c>
+      <c r="D14">
+        <v>0.7</v>
+      </c>
+      <c r="E14">
+        <v>0.7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" t="s">
+        <v>746</v>
+      </c>
+      <c r="C15">
+        <f>C13*C14</f>
+        <v>15.399999999999999</v>
+      </c>
+      <c r="D15">
+        <f>D13*D14</f>
+        <v>15.399999999999999</v>
+      </c>
+      <c r="E15">
+        <f>E13*E14</f>
+        <v>15.399999999999999</v>
+      </c>
+      <c r="F15" t="s">
+        <v>744</v>
+      </c>
+      <c r="G15" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" t="s">
+        <v>747</v>
+      </c>
+      <c r="C17">
+        <v>1.8</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="B18" t="s">
+        <v>748</v>
+      </c>
+      <c r="C18">
+        <f>C15*C17</f>
+        <v>27.72</v>
+      </c>
+      <c r="D18">
+        <f>D15*D17</f>
+        <v>154</v>
+      </c>
+      <c r="E18">
+        <f>E15*E17</f>
+        <v>154</v>
+      </c>
+      <c r="F18" t="s">
+        <v>355</v>
+      </c>
+      <c r="G18" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" t="s">
+        <v>750</v>
+      </c>
+      <c r="C20">
+        <v>33.33</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" t="s">
+        <v>751</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" t="s">
+        <v>749</v>
+      </c>
+      <c r="C22" s="2">
+        <f>C20/C21/(1-$I5)</f>
+        <v>158.71428571428572</v>
+      </c>
+      <c r="D22" s="2">
+        <f>D20/D21/(1-$I5)</f>
+        <v>476.19047619047626</v>
+      </c>
+      <c r="E22" s="2">
+        <f>E20/E21/(1-$I5)</f>
+        <v>238.09523809523813</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" t="s">
+        <v>764</v>
+      </c>
+      <c r="C23" s="2">
+        <f>C22*(C28/60)</f>
+        <v>35.088607594936704</v>
+      </c>
+      <c r="D23" s="2">
+        <f>D22*(D28/60)</f>
+        <v>194.9367088607595</v>
+      </c>
+      <c r="E23" s="2">
+        <f>E22*(E28/60)</f>
+        <v>194.9367088607595</v>
+      </c>
+      <c r="F23" t="s">
+        <v>765</v>
+      </c>
+      <c r="G23" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" t="s">
+        <v>779</v>
+      </c>
+      <c r="C24" s="2">
+        <f>C20*(C28/60)</f>
+        <v>7.3686075949367078</v>
+      </c>
+      <c r="D24" s="2">
+        <f>D20*(D28/60)</f>
+        <v>40.936708860759488</v>
+      </c>
+      <c r="E24" s="2">
+        <f>E20*(E28/60)</f>
+        <v>40.936708860759488</v>
+      </c>
+      <c r="F24" t="s">
+        <v>355</v>
+      </c>
+      <c r="G24" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" t="s">
+        <v>780</v>
+      </c>
+      <c r="C25" s="2">
+        <f>C24/C21-C24</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <f>D24/D21-D24</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <f>E24/E21-E24</f>
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>355</v>
+      </c>
+      <c r="G25" t="s">
+        <v>784</v>
+      </c>
+      <c r="K25" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" t="s">
+        <v>754</v>
+      </c>
+      <c r="C27" s="2">
+        <f>C22*$I5</f>
+        <v>125.38428571428572</v>
+      </c>
+      <c r="D27" s="2">
+        <f>D22*$I5</f>
+        <v>376.19047619047626</v>
+      </c>
+      <c r="E27" s="2">
+        <f>E22*$I5</f>
+        <v>188.09523809523813</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" t="s">
+        <v>755</v>
+      </c>
+      <c r="C28" s="2">
+        <f>C18/C27*60</f>
+        <v>13.264820152901365</v>
+      </c>
+      <c r="D28" s="2">
+        <f>D18/D27*60</f>
+        <v>24.562025316455692</v>
+      </c>
+      <c r="E28" s="2">
+        <f>E18/E27*60</f>
+        <v>49.124050632911384</v>
+      </c>
+      <c r="F28" t="s">
+        <v>362</v>
+      </c>
+      <c r="G28" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" t="s">
+        <v>760</v>
+      </c>
+      <c r="C31" s="2">
+        <f>C18/(C28/60)</f>
+        <v>125.38428571428572</v>
+      </c>
+      <c r="D31" s="2">
+        <f>D18/(D28/60)</f>
+        <v>376.19047619047626</v>
+      </c>
+      <c r="E31" s="2">
+        <f>E18/(E28/60)</f>
+        <v>188.09523809523813</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="2">
+        <f>C23-C18</f>
+        <v>7.3686075949367051</v>
+      </c>
+      <c r="D33" s="2">
+        <f>D23-D18</f>
+        <v>40.936708860759495</v>
+      </c>
+      <c r="E33" s="2">
+        <f>E23-E18</f>
+        <v>40.936708860759495</v>
+      </c>
+      <c r="F33" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="2">
+        <f>C33*C21</f>
+        <v>7.3686075949367051</v>
+      </c>
+      <c r="D34" s="2">
+        <f>D33*D21</f>
+        <v>40.936708860759495</v>
+      </c>
+      <c r="E34" s="2">
+        <f>E33*E21</f>
+        <v>40.936708860759495</v>
+      </c>
+      <c r="F34" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="2">
+        <f>C33-C34</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <f>D33-D34</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <f>E33-E34</f>
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>783</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CFB0EC-6744-8946-9D07-7CAD019B1738}">
-  <dimension ref="B4:H29"/>
+  <dimension ref="B4:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -10746,7 +11564,7 @@
   <sheetData>
     <row r="4" spans="2:8">
       <c r="F4" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -10762,6 +11580,9 @@
       <c r="G5">
         <v>0.79</v>
       </c>
+      <c r="H5" t="s">
+        <v>787</v>
+      </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" t="s">
@@ -10812,7 +11633,7 @@
         <v>0.19855</v>
       </c>
       <c r="H8" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -10829,7 +11650,7 @@
         <v>1.1449999999999988E-2</v>
       </c>
       <c r="H9" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -10881,7 +11702,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:9">
       <c r="B17" t="s">
         <v>747</v>
       </c>
@@ -10892,7 +11713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:9">
       <c r="B18" t="s">
         <v>748</v>
       </c>
@@ -10907,7 +11728,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:9">
       <c r="B20" t="s">
         <v>750</v>
       </c>
@@ -10918,7 +11739,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:9">
       <c r="B21" t="s">
         <v>751</v>
       </c>
@@ -10929,7 +11750,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:9">
       <c r="B22" t="s">
         <v>749</v>
       </c>
@@ -10944,12 +11765,12 @@
         <v>767</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:9">
       <c r="B23" t="s">
         <v>764</v>
       </c>
       <c r="C23" s="2">
-        <f>C22*(C26/60)</f>
+        <f>C22*(C28/60)</f>
         <v>35.088607594936704</v>
       </c>
       <c r="D23" t="s">
@@ -10959,49 +11780,112 @@
         <v>766</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="24" spans="2:9">
+      <c r="B24" t="s">
+        <v>779</v>
+      </c>
+      <c r="C24" s="2">
+        <f>C20*(C28/60)</f>
+        <v>4.4211645569620242</v>
+      </c>
+      <c r="D24" t="s">
+        <v>355</v>
+      </c>
+      <c r="E24" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" t="s">
+        <v>780</v>
+      </c>
+      <c r="C25" s="2">
+        <f>C24/C21-C24</f>
+        <v>2.9474430379746828</v>
+      </c>
+      <c r="D25" t="s">
+        <v>355</v>
+      </c>
+      <c r="E25" t="s">
+        <v>784</v>
+      </c>
+      <c r="I25" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" t="s">
         <v>754</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C27" s="2">
         <f>C22*G5</f>
         <v>125.39682539682543</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>17</v>
       </c>
-      <c r="E25" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" t="s">
+      <c r="E27" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" t="s">
         <v>755</v>
       </c>
-      <c r="C26" s="2">
-        <f>C18/C25*60</f>
+      <c r="C28" s="2">
+        <f>C18/C27*60</f>
         <v>13.263493670886072</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>362</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E28" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
-      <c r="B29" t="s">
+    <row r="31" spans="2:9">
+      <c r="B31" t="s">
         <v>760</v>
       </c>
-      <c r="C29" s="2">
-        <f>C18/(C26/60)</f>
+      <c r="C31" s="2">
+        <f>C18/(C28/60)</f>
         <v>125.39682539682543</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>17</v>
       </c>
-      <c r="E29" t="s">
-        <v>773</v>
+      <c r="E31" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="2">
+        <f>C23-C18</f>
+        <v>7.3686075949367051</v>
+      </c>
+      <c r="D33" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" s="2">
+        <f>C33*C21</f>
+        <v>4.4211645569620233</v>
+      </c>
+      <c r="D34" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" s="2">
+        <f>C33-C34</f>
+        <v>2.9474430379746819</v>
+      </c>
+      <c r="D35" t="s">
+        <v>783</v>
       </c>
     </row>
   </sheetData>
@@ -11009,7 +11893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EF0ED8-79C6-3E4B-9C1C-705B81C0F61B}">
   <dimension ref="B8:E24"/>
   <sheetViews>
@@ -11191,12 +12075,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C5:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11233,7 +12117,7 @@
       <c r="C13" t="s">
         <v>235</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <f>D12/C11</f>
         <v>0.70628950806935764</v>
       </c>
@@ -11250,7 +12134,7 @@
       <c r="C16" t="s">
         <v>238</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <f>D13*D15/3</f>
         <v>47.085967204623842</v>
       </c>
@@ -11260,7 +12144,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:M14"/>
   <sheetViews>
@@ -11722,7 +12606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B6:C11"/>
   <sheetViews>
@@ -11765,7 +12649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:I22"/>
   <sheetViews>
@@ -12211,7 +13095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B5:H37"/>
   <sheetViews>
@@ -12541,251 +13425,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:M13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="C6" t="s">
-        <v>318</v>
-      </c>
-      <c r="D6" t="s">
-        <v>319</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>49.99</v>
-      </c>
-      <c r="G6">
-        <f>E6*F6</f>
-        <v>99.98</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
-      <c r="J6">
-        <v>49.99</v>
-      </c>
-      <c r="K6">
-        <f>I6*J6</f>
-        <v>99.98</v>
-      </c>
-      <c r="M6">
-        <v>49.99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="C7" t="s">
-        <v>316</v>
-      </c>
-      <c r="D7" t="s">
-        <v>320</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ref="G7:G12" si="0">E7*F7</f>
-        <v>39.979999999999997</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>16.79</v>
-      </c>
-      <c r="K7">
-        <f t="shared" ref="K7:K12" si="1">I7*J7</f>
-        <v>33.58</v>
-      </c>
-      <c r="M7">
-        <v>16.79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="C8" t="s">
-        <v>317</v>
-      </c>
-      <c r="D8" t="s">
-        <v>321</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>39.979999999999997</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-      <c r="J8">
-        <v>19.989999999999998</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>39.979999999999997</v>
-      </c>
-      <c r="M8">
-        <v>19.989999999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="C9" t="s">
-        <v>322</v>
-      </c>
-      <c r="D9" t="s">
-        <v>323</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>24.99</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>99.96</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-      <c r="J9">
-        <v>22.99</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>91.96</v>
-      </c>
-      <c r="M9">
-        <v>22.99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="C10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D10" t="s">
-        <v>323</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>11.99</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
-        <v>95.92</v>
-      </c>
-      <c r="I10">
-        <v>8</v>
-      </c>
-      <c r="J10">
-        <v>11.99</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="1"/>
-        <v>95.92</v>
-      </c>
-      <c r="M10">
-        <v>12.99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="C11" t="s">
-        <v>325</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <f>7.44/2</f>
-        <v>3.72</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
-        <v>29.76</v>
-      </c>
-      <c r="I11">
-        <v>8</v>
-      </c>
-      <c r="J11" s="1">
-        <f>25.99/8</f>
-        <v>3.2487499999999998</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>25.99</v>
-      </c>
-      <c r="M11" s="1">
-        <f>25.99/8</f>
-        <v>3.2487499999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="C12" t="s">
-        <v>326</v>
-      </c>
-      <c r="D12" t="s">
-        <v>327</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>12.99</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
-        <v>51.96</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
-      </c>
-      <c r="J12">
-        <v>12.99</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="1"/>
-        <v>51.96</v>
-      </c>
-      <c r="M12">
-        <v>12.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="G13">
-        <f>SUM(G6:G12)</f>
-        <v>457.53999999999996</v>
-      </c>
-      <c r="K13">
-        <f>SUM(K6:K12)</f>
-        <v>439.37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/documents/o2conc.xlsx
+++ b/documents/o2conc.xlsx
@@ -8,32 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mickos01/Desktop/O24U/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39585775-681B-EC4C-94AC-D0919BA9A5F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0255646F-5995-314A-A5D4-21A625B61A52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3260" yWindow="500" windowWidth="25120" windowHeight="16820" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="500" windowWidth="25120" windowHeight="16820" tabRatio="500" firstSheet="10" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Volume" sheetId="1" r:id="rId1"/>
     <sheet name="Compressor" sheetId="14" r:id="rId2"/>
-    <sheet name="Volume-radialflow" sheetId="26" r:id="rId3"/>
-    <sheet name="isotherm" sheetId="18" r:id="rId4"/>
-    <sheet name="Model-O24U" sheetId="21" r:id="rId5"/>
-    <sheet name="Model-tester" sheetId="24" r:id="rId6"/>
-    <sheet name="model-puffer" sheetId="23" r:id="rId7"/>
-    <sheet name="Model-VPSA" sheetId="22" r:id="rId8"/>
-    <sheet name="BOMcost" sheetId="25" r:id="rId9"/>
-    <sheet name="intercooler" sheetId="10" r:id="rId10"/>
-    <sheet name="Heater" sheetId="6" r:id="rId11"/>
-    <sheet name="Valves" sheetId="2" r:id="rId12"/>
-    <sheet name="Materials" sheetId="9" r:id="rId13"/>
-    <sheet name="Things I have built" sheetId="7" r:id="rId14"/>
-    <sheet name="vacuum +velocity" sheetId="5" r:id="rId15"/>
-    <sheet name="Column HW" sheetId="8" r:id="rId16"/>
-    <sheet name="electrical" sheetId="3" r:id="rId17"/>
-    <sheet name="bom" sheetId="4" r:id="rId18"/>
-    <sheet name="EquipmentList" sheetId="11" r:id="rId19"/>
-    <sheet name="RTU config" sheetId="12" r:id="rId20"/>
-    <sheet name="O2 RTU" sheetId="13" r:id="rId21"/>
+    <sheet name="Convection" sheetId="31" r:id="rId3"/>
+    <sheet name="Volume-radialflow" sheetId="26" r:id="rId4"/>
+    <sheet name="isotherm" sheetId="18" r:id="rId5"/>
+    <sheet name="Model-O24U" sheetId="21" r:id="rId6"/>
+    <sheet name="Model-tester" sheetId="24" r:id="rId7"/>
+    <sheet name="model-puffer" sheetId="23" r:id="rId8"/>
+    <sheet name="Model-VPSA" sheetId="22" r:id="rId9"/>
+    <sheet name="BOMcost" sheetId="25" r:id="rId10"/>
+    <sheet name="intercooler" sheetId="10" r:id="rId11"/>
+    <sheet name="Heater" sheetId="6" r:id="rId12"/>
+    <sheet name="Valves" sheetId="2" r:id="rId13"/>
+    <sheet name="Materials" sheetId="9" r:id="rId14"/>
+    <sheet name="Things I have built" sheetId="7" r:id="rId15"/>
+    <sheet name="vacuum +velocity" sheetId="5" r:id="rId16"/>
+    <sheet name="Column HW" sheetId="8" r:id="rId17"/>
+    <sheet name="electrical" sheetId="3" r:id="rId18"/>
+    <sheet name="bom" sheetId="4" r:id="rId19"/>
+    <sheet name="EquipmentList" sheetId="11" r:id="rId20"/>
+    <sheet name="RTU config" sheetId="12" r:id="rId21"/>
+    <sheet name="O2 RTU" sheetId="13" r:id="rId22"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="1068">
   <si>
     <t>liters</t>
   </si>
@@ -2759,6 +2760,9 @@
     <t>Air</t>
   </si>
   <si>
+    <t>Diameter</t>
+  </si>
+  <si>
     <t>fill factor</t>
   </si>
   <si>
@@ -2852,9 +2856,6 @@
     <t>ZW280</t>
   </si>
   <si>
-    <t>Thomas2660</t>
-  </si>
-  <si>
     <t>Welch 2585</t>
   </si>
   <si>
@@ -2870,9 +2871,6 @@
     <t>l/(min*kg)</t>
   </si>
   <si>
-    <t>200 lpm/50Hz</t>
-  </si>
-  <si>
     <t>Target system at scale - 50 l/m per slice, 2 slice minimum</t>
   </si>
   <si>
@@ -3017,9 +3015,6 @@
     <t>Axg 2:1</t>
   </si>
   <si>
-    <t>2660,2:1</t>
-  </si>
-  <si>
     <t>32.3 lpm O2</t>
   </si>
   <si>
@@ -3213,6 +3208,240 @@
   </si>
   <si>
     <t xml:space="preserve">3-D Modeling of Gas–Solid Two-Phase Flow in a Pi-Shaped Centripetal Radial Flow Adsorber </t>
+  </si>
+  <si>
+    <t>550W  2.8A</t>
+  </si>
+  <si>
+    <t>CFM FA</t>
+  </si>
+  <si>
+    <t>CFM net</t>
+  </si>
+  <si>
+    <t>200 lpm</t>
+  </si>
+  <si>
+    <t>2680N50</t>
+  </si>
+  <si>
+    <t>2680 2:1</t>
+  </si>
+  <si>
+    <t>Convection</t>
+  </si>
+  <si>
+    <t>Airflow over a surface</t>
+  </si>
+  <si>
+    <r>
+      <t>q = h</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> A dT</t>
+    </r>
+  </si>
+  <si>
+    <t>Newton's equation for convective heat transfer</t>
+  </si>
+  <si>
+    <r>
+      <t>h</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>cW</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> = 12.12 - 1.16 v + 11.6 v</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1/2</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.engineeringtoolbox.com/convective-heat-transfer-d_430.html</t>
+  </si>
+  <si>
+    <t>hc</t>
+  </si>
+  <si>
+    <t>internal air</t>
+  </si>
+  <si>
+    <t>surface</t>
+  </si>
+  <si>
+    <t>sccm/sec</t>
+  </si>
+  <si>
+    <t>accm/Sec</t>
+  </si>
+  <si>
+    <t>Finned split tube exchanger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cm </t>
+  </si>
+  <si>
+    <t>m^2</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Radiator convoluted fin tube</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Section Area</t>
+  </si>
+  <si>
+    <t>surface area</t>
+  </si>
+  <si>
+    <t>W/m^2*C</t>
+  </si>
+  <si>
+    <t>slpm</t>
+  </si>
+  <si>
+    <t>Flow rate</t>
+  </si>
+  <si>
+    <t>Pressure</t>
+  </si>
+  <si>
+    <t>Volumetric</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>Bed weight</t>
+  </si>
+  <si>
+    <t>N2 adsorbed</t>
+  </si>
+  <si>
+    <t>Air rate</t>
+  </si>
+  <si>
+    <t>N2 Rate</t>
+  </si>
+  <si>
+    <t>N2 ads time</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>seconds</t>
+  </si>
+  <si>
+    <t>O2 volume</t>
+  </si>
+  <si>
+    <t>Desorb rate</t>
+  </si>
+  <si>
+    <t>i/min</t>
+  </si>
+  <si>
+    <t>Desorb time</t>
+  </si>
+  <si>
+    <t>Cycle time</t>
+  </si>
+  <si>
+    <t>Product rate</t>
+  </si>
+  <si>
+    <t>good ratio</t>
+  </si>
+  <si>
+    <t>50/50</t>
+  </si>
+  <si>
+    <t>big pump</t>
+  </si>
+  <si>
+    <t>10CFM</t>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>4" Li-X</t>
+  </si>
+  <si>
+    <t>6" 1Li:3Na</t>
+  </si>
+  <si>
+    <t>3" LiNaX 1:1</t>
+  </si>
+  <si>
+    <t>PSA</t>
+  </si>
+  <si>
+    <t>VPSA</t>
+  </si>
+  <si>
+    <t>big p 1:3</t>
+  </si>
+  <si>
+    <t>30 row exchanger</t>
+  </si>
+  <si>
+    <t>40 row exchanger</t>
   </si>
 </sst>
 </file>
@@ -3408,7 +3637,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -3608,6 +3837,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3619,7 +3859,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3872,6 +4112,50 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4154,34 +4438,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.13774651361620141</c:v>
+                  <c:v>0.12746090107900782</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27549302723240282</c:v>
+                  <c:v>0.25492180215801563</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.41323954084860426</c:v>
+                  <c:v>0.38238270323702345</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55098605446480564</c:v>
+                  <c:v>0.50984360431603126</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68873256808100713</c:v>
+                  <c:v>0.63730450539503902</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.82647908169720852</c:v>
+                  <c:v>0.76476540647404689</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.96422559531340968</c:v>
+                  <c:v>0.89222630755305454</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1019721089296113</c:v>
+                  <c:v>1.0196872086320625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2397186225458128</c:v>
+                  <c:v>1.1471481097110705</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3774651361620143</c:v>
+                  <c:v>1.274609010790078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4265,34 +4549,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.19137232451689171</c:v>
+                  <c:v>0.15701341401709007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38274464903378341</c:v>
+                  <c:v>0.31402682803418014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57411697355067515</c:v>
+                  <c:v>0.47104024205127021</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76548929806756683</c:v>
+                  <c:v>0.62805365606836028</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9568616225844585</c:v>
+                  <c:v>0.78506707008545029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1482339471013503</c:v>
+                  <c:v>0.94208048410254042</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3396062716182415</c:v>
+                  <c:v>1.0990938981196303</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.5309785961351337</c:v>
+                  <c:v>1.2561073121367206</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7223509206520253</c:v>
+                  <c:v>1.4131207261538106</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.913723245168917</c:v>
+                  <c:v>1.5701341401709006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5213,6 +5497,72 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Air - heat transfer coefficient">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{640956A5-3713-4843-BD89-1EF21861B738}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6362700" y="393700"/>
+          <a:ext cx="5829300" cy="4394200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5476,10 +5826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:T177"/>
+  <dimension ref="B2:U177"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="G165" sqref="G165"/>
+      <selection activeCell="T69" sqref="T69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6449,7 +6799,7 @@
       <c r="N32" s="23"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="3:19">
+    <row r="33" spans="3:20">
       <c r="C33" s="26">
         <v>3.0680000000000001</v>
       </c>
@@ -6490,7 +6840,7 @@
       <c r="N33" s="23"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="3:19">
+    <row r="34" spans="3:20">
       <c r="M34" s="1"/>
       <c r="N34" s="23" t="s">
         <v>736</v>
@@ -6499,7 +6849,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="35" spans="3:19">
+    <row r="35" spans="3:20">
       <c r="C35" s="26">
         <v>2.87</v>
       </c>
@@ -6538,7 +6888,7 @@
       </c>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="3:19">
+    <row r="36" spans="3:20">
       <c r="C36">
         <v>5.87</v>
       </c>
@@ -6577,7 +6927,7 @@
         <v>4.8560299083127987</v>
       </c>
     </row>
-    <row r="37" spans="3:19">
+    <row r="37" spans="3:20">
       <c r="C37">
         <v>5.87</v>
       </c>
@@ -6615,12 +6965,19 @@
         <v>784</v>
       </c>
     </row>
-    <row r="39" spans="3:19">
-      <c r="O39" t="s">
+    <row r="38" spans="3:20" ht="17" thickBot="1"/>
+    <row r="39" spans="3:20">
+      <c r="O39" s="47" t="s">
         <v>844</v>
       </c>
-    </row>
-    <row r="40" spans="3:19">
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="126"/>
+      <c r="S39" s="127" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="40" spans="3:20">
       <c r="C40" s="26">
         <v>2.37</v>
       </c>
@@ -6660,57 +7017,66 @@
       <c r="N40" s="3" t="s">
         <v>838</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="128">
         <v>0.09</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="94">
         <v>0.09</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="94">
         <v>0.09</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="129">
         <v>0.09</v>
       </c>
-      <c r="S40" t="s">
+      <c r="S40" s="130">
+        <v>0.05</v>
+      </c>
+      <c r="T40" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="41" spans="3:19">
-      <c r="O41">
+    <row r="41" spans="3:20">
+      <c r="O41" s="128">
         <v>0.96499999999999997</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="94">
         <v>0.96499999999999997</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="94">
         <v>0.96499999999999997</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="129">
         <v>0.96499999999999997</v>
       </c>
-      <c r="S41" t="s">
+      <c r="S41" s="130">
+        <v>0.505</v>
+      </c>
+      <c r="T41" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="42" spans="3:19">
-      <c r="O42">
+    <row r="42" spans="3:20">
+      <c r="O42" s="128">
         <v>2.5</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="94">
         <v>2.5</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" s="94">
         <v>2.5</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="129">
         <v>2.5</v>
       </c>
-      <c r="S42" t="s">
+      <c r="S42" s="130">
+        <v>2.5</v>
+      </c>
+      <c r="T42" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="43" spans="3:19">
+    <row r="43" spans="3:20">
       <c r="C43">
         <v>4.87</v>
       </c>
@@ -6744,53 +7110,66 @@
         <f>J43*2.2</f>
         <v>15.442053344438493</v>
       </c>
-    </row>
-    <row r="44" spans="3:19">
+      <c r="O43" s="128"/>
+      <c r="P43" s="94"/>
+      <c r="Q43" s="94"/>
+      <c r="R43" s="129"/>
+      <c r="S43" s="130"/>
+    </row>
+    <row r="44" spans="3:20">
       <c r="N44" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="O44" s="1">
-        <f>O40*2.54</f>
+      <c r="O44" s="131">
+        <f t="shared" ref="O44:S46" si="24">O40*2.54</f>
         <v>0.2286</v>
       </c>
-      <c r="P44" s="1">
-        <f>P40*2.54</f>
+      <c r="P44" s="100">
+        <f t="shared" si="24"/>
         <v>0.2286</v>
       </c>
-      <c r="Q44" s="1">
-        <f>Q40*2.54</f>
+      <c r="Q44" s="100">
+        <f t="shared" si="24"/>
         <v>0.2286</v>
       </c>
-      <c r="R44" s="1">
-        <f>R40*2.54</f>
+      <c r="R44" s="132">
+        <f t="shared" si="24"/>
         <v>0.2286</v>
       </c>
-      <c r="S44" t="s">
+      <c r="S44" s="133">
+        <f t="shared" si="24"/>
+        <v>0.127</v>
+      </c>
+      <c r="T44" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="45" spans="3:19">
-      <c r="O45" s="1">
-        <f>O41*2.54</f>
+    <row r="45" spans="3:20">
+      <c r="O45" s="131">
+        <f t="shared" si="24"/>
         <v>2.4510999999999998</v>
       </c>
-      <c r="P45" s="1">
-        <f>P41*2.54</f>
+      <c r="P45" s="100">
+        <f t="shared" si="24"/>
         <v>2.4510999999999998</v>
       </c>
-      <c r="Q45" s="1">
-        <f>Q41*2.54</f>
+      <c r="Q45" s="100">
+        <f t="shared" si="24"/>
         <v>2.4510999999999998</v>
       </c>
-      <c r="R45" s="1">
-        <f>R41*2.54</f>
+      <c r="R45" s="132">
+        <f t="shared" si="24"/>
         <v>2.4510999999999998</v>
       </c>
-      <c r="S45" t="s">
+      <c r="S45" s="133">
+        <f t="shared" si="24"/>
+        <v>1.2827</v>
+      </c>
+      <c r="T45" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="46" spans="3:19">
+    <row r="46" spans="3:20">
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
       <c r="E46" s="28">
@@ -6821,27 +7200,31 @@
       <c r="L46" s="109" t="s">
         <v>829</v>
       </c>
-      <c r="O46" s="1">
-        <f>O42*2.54</f>
+      <c r="O46" s="131">
+        <f t="shared" si="24"/>
         <v>6.35</v>
       </c>
-      <c r="P46" s="1">
-        <f>P42*2.54</f>
+      <c r="P46" s="100">
+        <f t="shared" si="24"/>
         <v>6.35</v>
       </c>
-      <c r="Q46" s="1">
-        <f>Q42*2.54</f>
+      <c r="Q46" s="100">
+        <f t="shared" si="24"/>
         <v>6.35</v>
       </c>
-      <c r="R46" s="1">
-        <f>R42*2.54</f>
+      <c r="R46" s="132">
+        <f t="shared" si="24"/>
         <v>6.35</v>
       </c>
-      <c r="S46" t="s">
+      <c r="S46" s="133">
+        <f t="shared" si="24"/>
+        <v>6.35</v>
+      </c>
+      <c r="T46" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="47" spans="3:19">
+    <row r="47" spans="3:20">
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
       <c r="E47" s="28">
@@ -6872,56 +7255,69 @@
       <c r="L47" s="109" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="48" spans="3:19">
+      <c r="O47" s="128"/>
+      <c r="P47" s="94"/>
+      <c r="Q47" s="94"/>
+      <c r="R47" s="129"/>
+      <c r="S47" s="130"/>
+    </row>
+    <row r="48" spans="3:20">
       <c r="N48" t="s">
         <v>839</v>
       </c>
-      <c r="O48" s="1">
+      <c r="O48" s="131">
         <f>O45-O44</f>
         <v>2.2224999999999997</v>
       </c>
-      <c r="P48" s="1">
+      <c r="P48" s="100">
         <f>P45-P44</f>
         <v>2.2224999999999997</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="Q48" s="100">
         <f>Q45-Q44</f>
         <v>2.2224999999999997</v>
       </c>
-      <c r="R48" s="1">
+      <c r="R48" s="132">
         <f>R45-R44</f>
         <v>2.2224999999999997</v>
       </c>
-      <c r="S48" t="s">
+      <c r="S48" s="133">
+        <f>S45-S44</f>
+        <v>1.1556999999999999</v>
+      </c>
+      <c r="T48" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="49" spans="3:19">
+    <row r="49" spans="3:20">
       <c r="N49" t="s">
         <v>383</v>
       </c>
-      <c r="O49" s="1">
+      <c r="O49" s="131">
         <f>PI() * (O46/2) ^2</f>
         <v>31.669217443593606</v>
       </c>
-      <c r="P49" s="1">
+      <c r="P49" s="100">
         <f>PI() * (P46/2) ^2</f>
         <v>31.669217443593606</v>
       </c>
-      <c r="Q49" s="1">
+      <c r="Q49" s="100">
         <f>PI() * (Q46/2) ^2</f>
         <v>31.669217443593606</v>
       </c>
-      <c r="R49" s="1">
+      <c r="R49" s="132">
         <f>PI() * (R46/2) ^2</f>
         <v>31.669217443593606</v>
       </c>
-      <c r="S49" t="s">
+      <c r="S49" s="133">
+        <f>PI() * (S46/2) ^2</f>
+        <v>31.669217443593606</v>
+      </c>
+      <c r="T49" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="50" spans="3:19">
+    <row r="50" spans="3:20">
       <c r="C50" s="26">
         <v>1.37</v>
       </c>
@@ -6961,44 +7357,58 @@
       <c r="N50" t="s">
         <v>840</v>
       </c>
-      <c r="O50" s="1">
+      <c r="O50" s="131">
         <f>O48*O49</f>
         <v>70.384835768386779</v>
       </c>
-      <c r="P50" s="1">
+      <c r="P50" s="100">
         <f>P48*P49</f>
         <v>70.384835768386779</v>
       </c>
-      <c r="Q50" s="1">
+      <c r="Q50" s="100">
         <f>Q48*Q49</f>
         <v>70.384835768386779</v>
       </c>
-      <c r="R50" s="1">
+      <c r="R50" s="132">
         <f>R48*R49</f>
         <v>70.384835768386779</v>
       </c>
-      <c r="S50" t="s">
+      <c r="S50" s="133">
+        <f>S48*S49</f>
+        <v>36.600114599561131</v>
+      </c>
+      <c r="T50" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="52" spans="3:19">
+    <row r="51" spans="3:20">
+      <c r="O51" s="128"/>
+      <c r="P51" s="94"/>
+      <c r="Q51" s="94"/>
+      <c r="R51" s="129"/>
+      <c r="S51" s="130"/>
+    </row>
+    <row r="52" spans="3:20">
       <c r="N52" t="s">
         <v>842</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="128">
         <v>2</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="94">
         <v>2</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" s="94">
         <v>2</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="129">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19">
+      <c r="S52" s="130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20">
       <c r="C53" s="26">
         <v>1.38</v>
       </c>
@@ -7006,11 +7416,11 @@
         <v>18</v>
       </c>
       <c r="E53" s="28">
-        <f>C53*2.54</f>
+        <f t="shared" ref="E53:F56" si="25">C53*2.54</f>
         <v>3.5051999999999999</v>
       </c>
       <c r="F53" s="26">
-        <f>D53*2.54</f>
+        <f t="shared" si="25"/>
         <v>45.72</v>
       </c>
       <c r="G53" s="27">
@@ -7035,8 +7445,13 @@
       <c r="L53" s="109" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="54" spans="3:19">
+      <c r="O53" s="128"/>
+      <c r="P53" s="94"/>
+      <c r="Q53" s="94"/>
+      <c r="R53" s="129"/>
+      <c r="S53" s="130"/>
+    </row>
+    <row r="54" spans="3:20">
       <c r="C54" s="26">
         <v>1.61</v>
       </c>
@@ -7044,11 +7459,11 @@
         <v>18</v>
       </c>
       <c r="E54" s="28">
-        <f>C54*2.54</f>
+        <f t="shared" si="25"/>
         <v>4.0894000000000004</v>
       </c>
       <c r="F54" s="26">
-        <f>D54*2.54</f>
+        <f t="shared" si="25"/>
         <v>45.72</v>
       </c>
       <c r="G54" s="27">
@@ -7076,23 +7491,26 @@
       <c r="N54" t="s">
         <v>843</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="128">
         <v>1400</v>
       </c>
-      <c r="P54">
+      <c r="P54" s="94">
         <v>1680</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" s="94">
         <v>2000</v>
       </c>
-      <c r="R54">
+      <c r="R54" s="129">
         <v>1100</v>
       </c>
-      <c r="S54" t="s">
+      <c r="S54" s="130">
+        <v>1680</v>
+      </c>
+      <c r="T54" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="55" spans="3:19">
+    <row r="55" spans="3:20">
       <c r="C55" s="26">
         <v>2.0670000000000002</v>
       </c>
@@ -7100,11 +7518,11 @@
         <v>10</v>
       </c>
       <c r="E55" s="28">
-        <f>C55*2.54</f>
+        <f t="shared" si="25"/>
         <v>5.2501800000000003</v>
       </c>
       <c r="F55" s="26">
-        <f>D55*2.54</f>
+        <f t="shared" si="25"/>
         <v>25.4</v>
       </c>
       <c r="G55" s="27">
@@ -7129,8 +7547,13 @@
       <c r="L55" s="109" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row r="56" spans="3:19">
+      <c r="O55" s="128"/>
+      <c r="P55" s="94"/>
+      <c r="Q55" s="94"/>
+      <c r="R55" s="129"/>
+      <c r="S55" s="130"/>
+    </row>
+    <row r="56" spans="3:20">
       <c r="C56" s="26">
         <v>2.0670000000000002</v>
       </c>
@@ -7138,11 +7561,11 @@
         <v>6</v>
       </c>
       <c r="E56" s="28">
-        <f>C56*2.54</f>
+        <f t="shared" si="25"/>
         <v>5.2501800000000003</v>
       </c>
       <c r="F56" s="26">
-        <f>D56*2.54</f>
+        <f t="shared" si="25"/>
         <v>15.24</v>
       </c>
       <c r="G56" s="27">
@@ -7167,62 +7590,99 @@
       <c r="N56" t="s">
         <v>850</v>
       </c>
-      <c r="O56" s="1">
+      <c r="O56" s="131">
         <f>O54*O52*O50/1000</f>
         <v>197.07754015148296</v>
       </c>
-      <c r="P56" s="1">
+      <c r="P56" s="100">
         <f>P54*P52*P50/1000</f>
         <v>236.49304818177956</v>
       </c>
-      <c r="Q56" s="1">
+      <c r="Q56" s="100">
         <f>Q54*Q52*Q50/1000</f>
         <v>281.53934307354712</v>
       </c>
-      <c r="R56" s="1">
+      <c r="R56" s="132">
         <f>R54*R52*R50/1000</f>
         <v>309.69327738090186</v>
       </c>
-      <c r="S56" t="s">
+      <c r="S56" s="133">
+        <f>S54*S52*S50/1000</f>
+        <v>122.97638505452539</v>
+      </c>
+      <c r="T56" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="58" spans="3:19">
+    <row r="57" spans="3:20">
+      <c r="O57" s="128"/>
+      <c r="P57" s="94"/>
+      <c r="Q57" s="94"/>
+      <c r="R57" s="129"/>
+      <c r="S57" s="130"/>
+    </row>
+    <row r="58" spans="3:20">
       <c r="N58" t="s">
         <v>849</v>
       </c>
-      <c r="O58" s="1">
+      <c r="O58" s="131">
         <f>O45/O44</f>
         <v>10.722222222222221</v>
       </c>
-      <c r="P58" s="1">
+      <c r="P58" s="100">
         <f>P45/P44</f>
         <v>10.722222222222221</v>
       </c>
-      <c r="Q58" s="1">
+      <c r="Q58" s="100">
         <f>Q45/Q44</f>
         <v>10.722222222222221</v>
       </c>
-      <c r="R58" s="1">
+      <c r="R58" s="132">
         <f>R45/R44</f>
         <v>10.722222222222221</v>
       </c>
-    </row>
-    <row r="59" spans="3:19">
+      <c r="S58" s="133">
+        <f>S45/S44</f>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20">
       <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
-    </row>
-    <row r="60" spans="3:19" ht="17" thickBot="1">
+      <c r="O59" s="131"/>
+      <c r="P59" s="100"/>
+      <c r="Q59" s="100"/>
+      <c r="R59" s="129"/>
+      <c r="S59" s="130"/>
+    </row>
+    <row r="60" spans="3:20" ht="17" thickBot="1">
       <c r="N60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="1"/>
-    </row>
-    <row r="61" spans="3:19">
+      <c r="O60" s="134">
+        <f t="shared" ref="O60:R60" si="26">O56/28</f>
+        <v>7.0384835768386775</v>
+      </c>
+      <c r="P60" s="95">
+        <f t="shared" si="26"/>
+        <v>8.446180292206412</v>
+      </c>
+      <c r="Q60" s="95">
+        <f t="shared" si="26"/>
+        <v>10.054976538340968</v>
+      </c>
+      <c r="R60" s="135">
+        <f t="shared" si="26"/>
+        <v>11.060474192175066</v>
+      </c>
+      <c r="S60" s="136">
+        <f>S56/28</f>
+        <v>4.3920137519473359</v>
+      </c>
+      <c r="T60" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" ht="17" thickBot="1">
       <c r="C61" s="83" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D61" s="84"/>
       <c r="F61" s="34" t="s">
@@ -7243,20 +7703,33 @@
       <c r="K61">
         <v>6</v>
       </c>
-      <c r="N61" s="1" t="s">
-        <v>893</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>894</v>
-      </c>
-      <c r="P61" s="1" t="s">
-        <v>888</v>
-      </c>
-      <c r="Q61" s="1"/>
-    </row>
-    <row r="62" spans="3:19">
+      <c r="O61" s="137">
+        <f t="shared" ref="O61:R61" si="27">O60*0.8</f>
+        <v>5.6307868614709422</v>
+      </c>
+      <c r="P61" s="138">
+        <f t="shared" si="27"/>
+        <v>6.7569442337651298</v>
+      </c>
+      <c r="Q61" s="138">
+        <f t="shared" si="27"/>
+        <v>8.0439812306727756</v>
+      </c>
+      <c r="R61" s="139">
+        <f t="shared" si="27"/>
+        <v>8.8483793537400537</v>
+      </c>
+      <c r="S61" s="140">
+        <f>S60*0.8</f>
+        <v>3.513611001557869</v>
+      </c>
+      <c r="T61" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20">
       <c r="C62" s="85" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="D62" s="86">
         <v>1.1000000000000001</v>
@@ -7282,23 +7755,11 @@
         <f>J62*1.5</f>
         <v>169.57500000000002</v>
       </c>
-      <c r="M62" t="s">
-        <v>862</v>
-      </c>
-      <c r="N62" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="O62" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="P62" s="1">
-        <v>0.6</v>
-      </c>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="3:19">
+    <row r="63" spans="3:20">
       <c r="C63" s="85" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D63" s="86">
         <v>10</v>
@@ -7326,23 +7787,20 @@
         <f>PI()*K62</f>
         <v>532.73557423248917</v>
       </c>
-      <c r="M63" t="s">
-        <v>860</v>
-      </c>
-      <c r="N63">
-        <v>0.67</v>
-      </c>
-      <c r="O63" s="1">
-        <v>1</v>
-      </c>
-      <c r="P63" s="1">
-        <v>1</v>
+      <c r="N63" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>889</v>
       </c>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="3:19">
+    <row r="64" spans="3:20">
       <c r="C64" s="85" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D64" s="86">
         <v>0.6</v>
@@ -7365,11 +7823,23 @@
       <c r="K64">
         <v>22</v>
       </c>
+      <c r="M64" t="s">
+        <v>863</v>
+      </c>
+      <c r="N64" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="P64" s="1">
+        <v>0.6</v>
+      </c>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="2:20" ht="17" thickBot="1">
+    <row r="65" spans="2:21" ht="17" thickBot="1">
       <c r="C65" s="87" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D65" s="88">
         <f>D63/D62/D64</f>
@@ -7386,27 +7856,36 @@
         <v>177.07963267948966</v>
       </c>
       <c r="H65" s="29">
-        <f t="shared" ref="H65:K65" si="24">H63+(2*H64)</f>
+        <f t="shared" ref="H65:K65" si="28">H63+(2*H64)</f>
         <v>547.40042147019619</v>
       </c>
       <c r="I65" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>307.03537555513242</v>
       </c>
       <c r="J65" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>397.15704948832615</v>
       </c>
       <c r="K65" s="29">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v>576.73557423248917</v>
       </c>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
+      <c r="M65" t="s">
+        <v>861</v>
+      </c>
+      <c r="N65">
+        <v>0.67</v>
+      </c>
+      <c r="O65" s="1">
+        <v>1</v>
+      </c>
+      <c r="P65" s="1">
+        <v>1</v>
+      </c>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="2:20">
+    <row r="66" spans="2:21">
       <c r="F66" t="s">
         <v>855</v>
       </c>
@@ -7415,67 +7894,69 @@
         <v>6.9716390818696725</v>
       </c>
       <c r="H66" s="2">
-        <f t="shared" ref="H66:K66" si="25">H65/25.4</f>
-        <v>21.551197695677018</v>
+        <v>14.5</v>
       </c>
       <c r="I66" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="I66:K66" si="29">I65/25.4</f>
         <v>12.088006911619388</v>
       </c>
       <c r="J66" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>15.636104310564022</v>
       </c>
       <c r="K66" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>22.706124969783041</v>
       </c>
     </row>
-    <row r="68" spans="2:20">
+    <row r="68" spans="2:21">
       <c r="M68" s="3" t="s">
         <v>529</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="P68" s="109" t="s">
-        <v>945</v>
+        <v>1013</v>
+      </c>
+      <c r="P68" s="77" t="s">
+        <v>1014</v>
       </c>
       <c r="Q68" s="3" t="s">
         <v>891</v>
       </c>
       <c r="R68" s="3" t="s">
-        <v>896</v>
+        <v>1012</v>
       </c>
       <c r="S68" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T68" s="3" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="69" spans="2:20">
+    <row r="69" spans="2:21">
       <c r="H69" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="I69">
         <v>0.9</v>
       </c>
       <c r="J69" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="L69" s="110" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="M69" s="5">
         <v>30</v>
       </c>
       <c r="N69" s="5">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="O69" s="5">
-        <f>5.1*28*0.8</f>
-        <v>114.24</v>
+        <f>5.4*28*0.8</f>
+        <v>120.96000000000002</v>
       </c>
       <c r="P69" s="5">
         <v>171</v>
@@ -7488,59 +7969,67 @@
         <v>192</v>
       </c>
       <c r="S69" s="5">
-        <f>12*28*0.8</f>
-        <v>268.8</v>
-      </c>
-      <c r="T69" t="s">
+        <f>9*28*0.8</f>
+        <v>201.60000000000002</v>
+      </c>
+      <c r="T69" s="5">
+        <f>10.5*28*0.8</f>
+        <v>235.20000000000002</v>
+      </c>
+      <c r="U69" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:20">
+    <row r="70" spans="2:21">
       <c r="H70" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="L70" s="110" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="M70" s="5">
-        <f>M69*0.21*$I70*$I69</f>
+        <f t="shared" ref="M70:S70" si="30">M69*0.21*$I70*$I69</f>
         <v>5.67</v>
       </c>
       <c r="N70" s="5">
-        <f>N69*0.21*$I70*$I69</f>
-        <v>15.120000000000001</v>
+        <f t="shared" si="30"/>
+        <v>14.175000000000001</v>
       </c>
       <c r="O70" s="5">
-        <f>O69*0.21*$I70*$I69</f>
-        <v>21.591359999999998</v>
+        <f t="shared" si="30"/>
+        <v>22.861440000000002</v>
       </c>
       <c r="P70" s="5">
-        <f>P69*0.21*$I70*$I69</f>
+        <f t="shared" si="30"/>
         <v>32.318999999999996</v>
       </c>
       <c r="Q70" s="5">
-        <f>Q69*0.21*$I70*$I69</f>
+        <f t="shared" si="30"/>
         <v>30.240000000000002</v>
       </c>
       <c r="R70" s="5">
-        <f>R69*0.21*$I70*$I69</f>
+        <f t="shared" si="30"/>
         <v>36.288000000000004</v>
       </c>
       <c r="S70" s="5">
         <f>S69*0.21*$I70*$I69</f>
-        <v>50.803200000000004</v>
-      </c>
-      <c r="T70" t="s">
+        <v>38.102400000000003</v>
+      </c>
+      <c r="T70" s="5">
+        <f>T69*0.21*$I70*$I69</f>
+        <v>44.452800000000003</v>
+      </c>
+      <c r="U70" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="2:20">
+    <row r="71" spans="2:21">
       <c r="C71" s="3" t="s">
         <v>731</v>
       </c>
@@ -7551,54 +8040,58 @@
         <v>3.95</v>
       </c>
       <c r="F71" t="s">
+        <v>867</v>
+      </c>
+      <c r="H71" t="s">
         <v>866</v>
-      </c>
-      <c r="H71" t="s">
-        <v>865</v>
       </c>
       <c r="I71" s="2">
         <f>D65</f>
         <v>15.15151515151515</v>
       </c>
       <c r="J71" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="L71" s="110" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="M71" s="21">
-        <f>M70/$I71/$I70</f>
+        <f t="shared" ref="M71:S71" si="31">M70/$I71/$I70</f>
         <v>0.37422</v>
       </c>
       <c r="N71" s="21">
-        <f>N70/$I71/$I70</f>
-        <v>0.99792000000000014</v>
+        <f t="shared" si="31"/>
+        <v>0.9355500000000001</v>
       </c>
       <c r="O71" s="21">
-        <f>O70/$I71/$I70</f>
-        <v>1.4250297599999999</v>
+        <f t="shared" si="31"/>
+        <v>1.5088550400000003</v>
       </c>
       <c r="P71" s="21">
-        <f>P70/$I71/$I70</f>
+        <f t="shared" si="31"/>
         <v>2.133054</v>
       </c>
       <c r="Q71" s="21">
-        <f>Q70/$I71/$I70</f>
+        <f t="shared" si="31"/>
         <v>1.9958400000000003</v>
       </c>
       <c r="R71" s="21">
-        <f>R70/$I71/$I70</f>
+        <f t="shared" si="31"/>
         <v>2.3950080000000002</v>
       </c>
       <c r="S71" s="21">
         <f>S70/$I71/$I70</f>
-        <v>3.3530112000000005</v>
-      </c>
-      <c r="T71" t="s">
+        <v>2.5147584000000003</v>
+      </c>
+      <c r="T71" s="21">
+        <f>T70/$I71/$I70</f>
+        <v>2.9338848000000004</v>
+      </c>
+      <c r="U71" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="2:20">
+    <row r="72" spans="2:21">
       <c r="C72" s="3" t="s">
         <v>730</v>
       </c>
@@ -7609,50 +8102,54 @@
         <v>0.7</v>
       </c>
       <c r="H72" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="I72">
         <v>0.8</v>
       </c>
       <c r="J72" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="L72" s="110" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="M72" s="21">
-        <f>M71/$I72</f>
+        <f t="shared" ref="M72:S73" si="32">M71/$I72</f>
         <v>0.467775</v>
       </c>
       <c r="N72" s="21">
-        <f>N71/$I72</f>
-        <v>1.2474000000000001</v>
+        <f t="shared" si="32"/>
+        <v>1.1694375000000001</v>
       </c>
       <c r="O72" s="21">
-        <f>O71/$I72</f>
-        <v>1.7812871999999997</v>
+        <f t="shared" si="32"/>
+        <v>1.8860688000000003</v>
       </c>
       <c r="P72" s="21">
-        <f>P71/$I72</f>
+        <f t="shared" si="32"/>
         <v>2.6663174999999999</v>
       </c>
       <c r="Q72" s="21">
-        <f>Q71/$I72</f>
+        <f t="shared" si="32"/>
         <v>2.4948000000000001</v>
       </c>
       <c r="R72" s="21">
-        <f>R71/$I72</f>
+        <f t="shared" si="32"/>
         <v>2.99376</v>
       </c>
       <c r="S72" s="21">
         <f>S71/$I72</f>
-        <v>4.1912640000000003</v>
-      </c>
-      <c r="T72" t="s">
+        <v>3.1434480000000002</v>
+      </c>
+      <c r="T72" s="21">
+        <f>T71/$I72</f>
+        <v>3.6673560000000003</v>
+      </c>
+      <c r="U72" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="2:20">
+    <row r="73" spans="2:21">
       <c r="C73" s="3" t="s">
         <v>729</v>
       </c>
@@ -7669,44 +8166,48 @@
         <v>0.63</v>
       </c>
       <c r="J73" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="L73" s="110" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="M73" s="21">
-        <f>M72/$I73</f>
+        <f t="shared" si="32"/>
         <v>0.74249999999999994</v>
       </c>
       <c r="N73" s="21">
-        <f>N72/$I73</f>
-        <v>1.98</v>
+        <f t="shared" si="32"/>
+        <v>1.8562500000000002</v>
       </c>
       <c r="O73" s="21">
-        <f>O72/$I73</f>
-        <v>2.8274399999999997</v>
+        <f t="shared" si="32"/>
+        <v>2.9937600000000004</v>
       </c>
       <c r="P73" s="21">
-        <f>P72/$I73</f>
+        <f t="shared" si="32"/>
         <v>4.2322499999999996</v>
       </c>
       <c r="Q73" s="21">
-        <f>Q72/$I73</f>
+        <f t="shared" si="32"/>
         <v>3.96</v>
       </c>
       <c r="R73" s="21">
-        <f>R72/$I73</f>
+        <f t="shared" si="32"/>
         <v>4.7519999999999998</v>
       </c>
       <c r="S73" s="21">
         <f>S72/$I73</f>
-        <v>6.6528</v>
-      </c>
-      <c r="T73" t="s">
+        <v>4.9896000000000003</v>
+      </c>
+      <c r="T73" s="21">
+        <f>T72/$I73</f>
+        <v>5.8212000000000002</v>
+      </c>
+      <c r="U73" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="75" spans="2:20">
+    <row r="75" spans="2:21">
       <c r="C75" s="3" t="s">
         <v>346</v>
       </c>
@@ -7726,16 +8227,16 @@
         <v>348</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>7</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="N75" s="3" t="s">
         <v>733</v>
@@ -7744,10 +8245,10 @@
         <v>858</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="76" spans="2:20">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21">
       <c r="C76" s="79">
         <v>2.0670000000000002</v>
       </c>
@@ -7763,7 +8264,7 @@
         <v>50.8</v>
       </c>
       <c r="G76" s="80">
-        <f>PI() * (E76/2)^2 * F76 /1000</f>
+        <f t="shared" ref="G76:G81" si="33">PI() * (E76/2)^2 * F76 /1000</f>
         <v>1.099770282376189</v>
       </c>
       <c r="H76" s="78">
@@ -7778,7 +8279,7 @@
         <v>0.55428422231759933</v>
       </c>
       <c r="K76" s="79">
-        <f>J76*2.2</f>
+        <f t="shared" ref="K76:K81" si="34">J76*2.2</f>
         <v>1.2194252890987187</v>
       </c>
       <c r="M76" s="78">
@@ -7797,10 +8298,10 @@
         <v>1.5869701044389453</v>
       </c>
       <c r="Q76" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="77" spans="2:20">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21">
       <c r="B77" s="93"/>
       <c r="C77" s="94">
         <v>1.87</v>
@@ -7809,30 +8310,30 @@
         <v>31</v>
       </c>
       <c r="E77" s="100">
-        <f t="shared" ref="E77" si="26">C77*2.54</f>
+        <f t="shared" ref="E77" si="35">C77*2.54</f>
         <v>4.7498000000000005</v>
       </c>
       <c r="F77" s="94">
-        <f t="shared" ref="F77" si="27">D77*2.54</f>
+        <f t="shared" ref="F77" si="36">D77*2.54</f>
         <v>78.739999999999995</v>
       </c>
       <c r="G77" s="95">
-        <f>PI() * (E77/2)^2 * F77 /1000</f>
+        <f t="shared" si="33"/>
         <v>1.3951982990907659</v>
       </c>
       <c r="H77" s="94">
         <v>1</v>
       </c>
       <c r="I77" s="92">
-        <f t="shared" ref="I77:I81" si="28">G77*I$73</f>
+        <f t="shared" ref="I77:I81" si="37">G77*I$73</f>
         <v>0.8789749284271825</v>
       </c>
       <c r="J77" s="92">
-        <f t="shared" ref="J77:J81" si="29">H77*I77*I$72</f>
+        <f t="shared" ref="J77:J81" si="38">H77*I77*I$72</f>
         <v>0.703179942741746</v>
       </c>
       <c r="K77" s="100">
-        <f>J77*2.2</f>
+        <f t="shared" si="34"/>
         <v>1.5469958740318412</v>
       </c>
       <c r="L77" s="111"/>
@@ -7840,27 +8341,27 @@
         <v>1</v>
       </c>
       <c r="N77" s="5">
-        <f t="shared" ref="N77:N81" si="30">J77*I$71*I$70*M77</f>
+        <f t="shared" ref="N77:N81" si="39">J77*I$71*I$70*M77</f>
         <v>10.654241556693121</v>
       </c>
       <c r="O77" s="81">
-        <f t="shared" ref="O77:O81" si="31">N77/0.21/I$69/I$70</f>
+        <f t="shared" ref="O77:O81" si="40">N77/0.21/I$69/I$70</f>
         <v>56.371648448111749</v>
       </c>
       <c r="P77" s="5">
-        <f t="shared" ref="P77:P81" si="32">O77/28</f>
+        <f t="shared" ref="P77:P81" si="41">O77/28</f>
         <v>2.0132731588611339</v>
       </c>
       <c r="Q77" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="78" spans="2:20">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="78" spans="2:21">
       <c r="C78" s="78">
         <v>2.37</v>
       </c>
       <c r="D78" s="78">
-        <v>45</v>
+        <v>38.5</v>
       </c>
       <c r="E78" s="79">
         <f>C78*2.54</f>
@@ -7868,102 +8369,102 @@
       </c>
       <c r="F78" s="78">
         <f>D78*2.54</f>
-        <v>114.3</v>
+        <v>97.79</v>
       </c>
       <c r="G78" s="80">
-        <f>PI() * (E78/2)^2 * F78 /1000</f>
-        <v>3.2531211485687463</v>
+        <f t="shared" si="33"/>
+        <v>2.7832258715532605</v>
       </c>
       <c r="H78" s="78">
         <v>1</v>
       </c>
       <c r="I78" s="79">
-        <f t="shared" si="28"/>
-        <v>2.0494663235983102</v>
+        <f t="shared" si="37"/>
+        <v>1.753432299078554</v>
       </c>
       <c r="J78" s="79">
-        <f t="shared" si="29"/>
-        <v>1.6395730588786481</v>
+        <f t="shared" si="38"/>
+        <v>1.4027458392628434</v>
       </c>
       <c r="K78" s="79">
-        <f>J78*2.2</f>
-        <v>3.6070607295330261</v>
+        <f t="shared" si="34"/>
+        <v>3.0860408463782556</v>
       </c>
       <c r="M78" s="78">
         <v>1</v>
       </c>
       <c r="N78" s="80">
-        <f t="shared" si="30"/>
-        <v>24.842016043615878</v>
+        <f t="shared" si="39"/>
+        <v>21.253724837315808</v>
       </c>
       <c r="O78" s="101">
-        <f t="shared" si="31"/>
-        <v>131.43923832600996</v>
+        <f t="shared" si="40"/>
+        <v>112.45357056780851</v>
       </c>
       <c r="P78" s="80">
-        <f t="shared" si="32"/>
-        <v>4.6942585116432127</v>
+        <f t="shared" si="41"/>
+        <v>4.0161989488503043</v>
       </c>
       <c r="Q78" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="79" spans="2:20">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21">
       <c r="B79" s="93"/>
       <c r="C79" s="89">
         <v>2.87</v>
       </c>
       <c r="D79" s="89">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="E79" s="90">
-        <f t="shared" ref="E79" si="33">C79*2.54</f>
+        <f t="shared" ref="E79" si="42">C79*2.54</f>
         <v>7.2898000000000005</v>
       </c>
       <c r="F79" s="89">
-        <f t="shared" ref="F79" si="34">D79*2.54</f>
-        <v>91.44</v>
+        <f t="shared" ref="F79" si="43">D79*2.54</f>
+        <v>121.92</v>
       </c>
       <c r="G79" s="91">
-        <f>PI() * (E79/2)^2 * F79 /1000</f>
-        <v>3.8164302143382876</v>
+        <f t="shared" si="33"/>
+        <v>5.0885736191177164</v>
       </c>
       <c r="H79" s="89">
         <v>1</v>
       </c>
       <c r="I79" s="92">
-        <f t="shared" si="28"/>
-        <v>2.404351035033121</v>
+        <f t="shared" si="37"/>
+        <v>3.2058013800441616</v>
       </c>
       <c r="J79" s="92">
-        <f t="shared" si="29"/>
-        <v>1.9234808280264968</v>
+        <f t="shared" si="38"/>
+        <v>2.5646411040353296</v>
       </c>
       <c r="K79" s="90">
-        <f>J79*2.2</f>
-        <v>4.2316578216582936</v>
+        <f t="shared" si="34"/>
+        <v>5.6422104288777257</v>
       </c>
       <c r="L79" s="111"/>
       <c r="M79" s="94">
         <v>1</v>
       </c>
       <c r="N79" s="95">
-        <f t="shared" si="30"/>
-        <v>29.143648909492374</v>
+        <f t="shared" si="39"/>
+        <v>38.858198545989843</v>
       </c>
       <c r="O79" s="96">
-        <f t="shared" si="31"/>
-        <v>154.19920057932472</v>
+        <f t="shared" si="40"/>
+        <v>205.59893410576635</v>
       </c>
       <c r="P79" s="95">
-        <f t="shared" si="32"/>
-        <v>5.5071143064044543</v>
+        <f t="shared" si="41"/>
+        <v>7.3428190752059406</v>
       </c>
       <c r="Q79" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="80" spans="2:20">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="80" spans="2:21">
       <c r="C80" s="97">
         <v>3.87</v>
       </c>
@@ -7979,22 +8480,22 @@
         <v>101.6</v>
       </c>
       <c r="G80" s="99">
-        <f>PI() * (E80/2)^2 * F80 /1000</f>
+        <f t="shared" si="33"/>
         <v>7.7103297595944387</v>
       </c>
       <c r="H80" s="97">
         <v>1</v>
       </c>
       <c r="I80" s="98">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>4.8575077485444966</v>
       </c>
       <c r="J80" s="98">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>3.8860061988355974</v>
       </c>
       <c r="K80" s="98">
-        <f>J80*2.2</f>
+        <f t="shared" si="34"/>
         <v>8.5492136374383154</v>
       </c>
       <c r="L80" s="111"/>
@@ -8002,19 +8503,19 @@
         <v>0.85</v>
       </c>
       <c r="N80" s="99">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>50.047049530458452</v>
       </c>
       <c r="O80" s="102">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>264.79920386485952</v>
       </c>
       <c r="P80" s="99">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>9.4571144237449829</v>
       </c>
       <c r="Q80" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="81" spans="2:17">
@@ -8025,85 +8526,85 @@
         <v>46</v>
       </c>
       <c r="E81" s="21">
-        <f t="shared" ref="E81" si="35">C81*2.54</f>
+        <f t="shared" ref="E81" si="44">C81*2.54</f>
         <v>14.909800000000001</v>
       </c>
       <c r="F81" s="3">
-        <f t="shared" ref="F81" si="36">D81*2.54</f>
+        <f t="shared" ref="F81" si="45">D81*2.54</f>
         <v>116.84</v>
       </c>
       <c r="G81" s="5">
-        <f>PI() * (E81/2)^2 * F81 /1000</f>
+        <f t="shared" si="33"/>
         <v>20.399760345423626</v>
       </c>
       <c r="H81" s="3">
         <v>1</v>
       </c>
       <c r="I81" s="82">
-        <f t="shared" si="28"/>
+        <f t="shared" si="37"/>
         <v>12.851849017616885</v>
       </c>
       <c r="J81" s="82">
-        <f t="shared" si="29"/>
+        <f t="shared" si="38"/>
         <v>10.281479214093508</v>
       </c>
       <c r="K81" s="21">
-        <f>J81*2.2</f>
+        <f t="shared" si="34"/>
         <v>22.619254271005719</v>
       </c>
       <c r="L81" s="110" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="M81" s="3">
         <v>0.65</v>
       </c>
       <c r="N81" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>101.25699226001183</v>
       </c>
       <c r="O81" s="81">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>535.75128179900435</v>
       </c>
       <c r="P81" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>19.13397434996444</v>
       </c>
       <c r="Q81" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="83" spans="2:17">
       <c r="M83" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="84" spans="2:17">
       <c r="M84" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="85" spans="2:17">
       <c r="M85" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="86" spans="2:17">
       <c r="M86" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="88" spans="2:17">
       <c r="M88" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="89" spans="2:17">
       <c r="D89" s="26" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="M89" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="90" spans="2:17">
@@ -8111,60 +8612,60 @@
         <v>36</v>
       </c>
       <c r="C90" s="26" t="s">
+        <v>914</v>
+      </c>
+      <c r="D90" s="26" t="s">
+        <v>914</v>
+      </c>
+      <c r="F90" s="103" t="s">
         <v>915</v>
       </c>
-      <c r="D90" s="26" t="s">
-        <v>915</v>
-      </c>
-      <c r="F90" s="103" t="s">
-        <v>916</v>
-      </c>
       <c r="M90" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="91" spans="2:17">
       <c r="B91" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C91" s="104" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D91" s="108" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E91" s="107" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F91" s="103" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="M91" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="93" spans="2:17">
       <c r="M93" t="s">
+        <v>904</v>
+      </c>
+      <c r="N93" t="s">
         <v>905</v>
-      </c>
-      <c r="N93" t="s">
-        <v>906</v>
       </c>
     </row>
     <row r="94" spans="2:17">
       <c r="C94" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="M94" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="N94" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="95" spans="2:17">
       <c r="B95" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C95" s="26"/>
       <c r="D95" s="26"/>
@@ -8176,12 +8677,12 @@
       <c r="J95" s="26"/>
       <c r="K95" s="106"/>
       <c r="L95" s="109" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="96" spans="2:17">
       <c r="B96" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C96" s="66"/>
       <c r="D96" s="103"/>
@@ -8193,12 +8694,12 @@
       <c r="J96" s="103"/>
       <c r="K96" s="103"/>
       <c r="L96" s="109" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="97" spans="2:16">
       <c r="N97" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="P97">
         <v>160</v>
@@ -8206,7 +8707,7 @@
     </row>
     <row r="98" spans="2:16">
       <c r="B98" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C98" s="104">
         <v>1</v>
@@ -8230,15 +8731,15 @@
         <v>1</v>
       </c>
       <c r="L98" s="109" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="N98" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="99" spans="2:16">
       <c r="B99" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C99" s="107"/>
       <c r="D99" s="103"/>
@@ -8256,10 +8757,10 @@
       <c r="J99" s="103"/>
       <c r="K99" s="103"/>
       <c r="L99" s="109" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="O99" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="P99">
         <v>80</v>
@@ -8294,12 +8795,12 @@
         <v>1</v>
       </c>
       <c r="L100" s="109" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="103" spans="2:16">
       <c r="B103" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C103" s="26"/>
       <c r="D103" s="26"/>
@@ -8311,15 +8812,15 @@
       <c r="J103" s="26"/>
       <c r="K103" s="105"/>
       <c r="L103" s="109" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="N103" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="104" spans="2:16">
       <c r="B104" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C104" s="26"/>
       <c r="D104" s="26"/>
@@ -8331,24 +8832,24 @@
       <c r="J104" s="106"/>
       <c r="K104" s="106"/>
       <c r="L104" s="109" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="N104">
         <f>(228+114)/2</f>
         <v>171</v>
       </c>
       <c r="O104" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="105" spans="2:16">
       <c r="N105" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="106" spans="2:16">
       <c r="B106" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C106" s="104">
         <v>1</v>
@@ -8370,12 +8871,12 @@
       <c r="J106" s="107"/>
       <c r="K106" s="103"/>
       <c r="L106" s="109" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="107" spans="2:16">
       <c r="B107" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C107" s="104">
         <v>1</v>
@@ -8401,7 +8902,7 @@
         <v>1</v>
       </c>
       <c r="L107" s="109" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="N107">
         <v>228</v>
@@ -8436,14 +8937,14 @@
         <v>1</v>
       </c>
       <c r="L108" s="109" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N108">
         <f>N107-N104</f>
         <v>57</v>
       </c>
       <c r="O108" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="109" spans="2:16" ht="17" thickBot="1">
@@ -8451,12 +8952,12 @@
         <v>5</v>
       </c>
       <c r="O109" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="110" spans="2:16">
       <c r="B110" s="47" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C110" s="112"/>
       <c r="D110" s="113"/>
@@ -8468,19 +8969,19 @@
       <c r="J110" s="112"/>
       <c r="K110" s="112"/>
       <c r="L110" s="115" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N110" s="2">
         <f>N108*N109/2/60</f>
         <v>2.375</v>
       </c>
       <c r="O110" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="111" spans="2:16">
       <c r="B111" s="116" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C111" s="117"/>
       <c r="D111" s="117"/>
@@ -8492,7 +8993,7 @@
       <c r="J111" s="118"/>
       <c r="K111" s="119"/>
       <c r="L111" s="120" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="N111" s="22"/>
     </row>
@@ -8509,12 +9010,12 @@
       <c r="K112" s="93"/>
       <c r="L112" s="120"/>
       <c r="N112" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="113" spans="2:12">
       <c r="B113" s="116" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C113" s="121"/>
       <c r="D113" s="118"/>
@@ -8534,12 +9035,12 @@
       </c>
       <c r="K113" s="121"/>
       <c r="L113" s="120" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="114" spans="2:12">
       <c r="B114" s="116" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C114" s="122">
         <v>2</v>
@@ -8561,12 +9062,12 @@
         <v>2</v>
       </c>
       <c r="L114" s="120" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="115" spans="2:12" ht="17" thickBot="1">
       <c r="B115" s="124" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C115" s="49">
         <v>2</v>
@@ -8596,12 +9097,12 @@
         <v>2</v>
       </c>
       <c r="L115" s="125" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="117" spans="2:12">
       <c r="B117" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C117" s="26"/>
       <c r="D117" s="103"/>
@@ -8613,12 +9114,12 @@
       <c r="J117" s="103"/>
       <c r="K117" s="105"/>
       <c r="L117" s="109" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="118" spans="2:12">
       <c r="B118" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C118" s="26"/>
       <c r="D118" s="26"/>
@@ -8630,12 +9131,12 @@
       <c r="J118" s="106"/>
       <c r="K118" s="106"/>
       <c r="L118" s="109" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="120" spans="2:12">
       <c r="B120" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C120" s="107"/>
       <c r="D120" s="103"/>
@@ -8653,12 +9154,12 @@
       <c r="J120" s="103"/>
       <c r="K120" s="103"/>
       <c r="L120" s="109" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="121" spans="2:12">
       <c r="B121" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C121" s="108">
         <v>2</v>
@@ -8682,7 +9183,7 @@
         <v>1</v>
       </c>
       <c r="L121" s="109" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="122" spans="2:12">
@@ -8714,17 +9215,17 @@
         <v>1</v>
       </c>
       <c r="L122" s="109" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="124" spans="2:12">
       <c r="C124" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="125" spans="2:12">
       <c r="B125" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C125" s="26"/>
       <c r="D125" s="26"/>
@@ -8736,12 +9237,12 @@
       <c r="J125" s="26"/>
       <c r="K125" s="26"/>
       <c r="L125" s="109" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="126" spans="2:12">
       <c r="B126" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C126" s="26"/>
       <c r="D126" s="26"/>
@@ -8753,12 +9254,12 @@
       <c r="J126" s="26"/>
       <c r="K126" s="26"/>
       <c r="L126" s="109" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="127" spans="2:12">
       <c r="B127" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C127" s="66"/>
       <c r="D127" s="103"/>
@@ -8770,12 +9271,12 @@
       <c r="J127" s="103"/>
       <c r="K127" s="103"/>
       <c r="L127" s="109" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="128" spans="2:12">
       <c r="B128" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C128" s="66"/>
       <c r="D128" s="103"/>
@@ -8787,12 +9288,12 @@
       <c r="J128" s="103"/>
       <c r="K128" s="103"/>
       <c r="L128" s="109" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="130" spans="2:12">
       <c r="B130" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C130" s="108">
         <v>2</v>
@@ -8820,12 +9321,12 @@
         <v>2</v>
       </c>
       <c r="L130" s="109" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="131" spans="2:12">
       <c r="B131" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C131" s="107"/>
       <c r="D131" s="103">
@@ -8851,7 +9352,7 @@
         <v>1</v>
       </c>
       <c r="L131" s="109" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="132" spans="2:12">
@@ -8883,12 +9384,12 @@
         <v>2</v>
       </c>
       <c r="L132" s="109" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="134" spans="2:12">
       <c r="B134" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C134" s="26"/>
       <c r="D134" s="26"/>
@@ -8900,12 +9401,12 @@
       <c r="J134" s="26"/>
       <c r="K134" s="26"/>
       <c r="L134" s="109" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="135" spans="2:12">
       <c r="B135" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C135" s="26"/>
       <c r="D135" s="26"/>
@@ -8917,12 +9418,12 @@
       <c r="J135" s="26"/>
       <c r="K135" s="26"/>
       <c r="L135" s="109" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="136" spans="2:12">
       <c r="B136" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C136" s="26"/>
       <c r="D136" s="26"/>
@@ -8934,12 +9435,12 @@
       <c r="J136" s="26"/>
       <c r="K136" s="26"/>
       <c r="L136" s="109" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="137" spans="2:12">
       <c r="B137" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C137" s="103"/>
       <c r="D137" s="103"/>
@@ -8951,12 +9452,12 @@
       <c r="J137" s="103"/>
       <c r="K137" s="103"/>
       <c r="L137" s="109" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="138" spans="2:12">
       <c r="B138" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C138" s="103"/>
       <c r="D138" s="103"/>
@@ -8968,12 +9469,12 @@
       <c r="J138" s="103"/>
       <c r="K138" s="103"/>
       <c r="L138" s="109" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="139" spans="2:12">
       <c r="B139" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C139" s="103"/>
       <c r="D139" s="103"/>
@@ -8985,12 +9486,12 @@
       <c r="J139" s="103"/>
       <c r="K139" s="103"/>
       <c r="L139" s="109" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="141" spans="2:12">
       <c r="B141" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C141" s="108">
         <v>1.5</v>
@@ -9018,12 +9519,12 @@
         <v>1.5</v>
       </c>
       <c r="L141" s="109" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="142" spans="2:12">
       <c r="B142" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C142" s="103">
         <v>1.5</v>
@@ -9051,12 +9552,12 @@
         <v>1.5</v>
       </c>
       <c r="L142" s="109" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="143" spans="2:12">
       <c r="B143" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C143" s="108">
         <v>1.5</v>
@@ -9082,7 +9583,7 @@
         <v>1.5</v>
       </c>
       <c r="L143" s="109" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="144" spans="2:12">
@@ -9116,7 +9617,7 @@
     </row>
     <row r="146" spans="2:12">
       <c r="B146" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C146" s="108">
         <v>2</v>
@@ -9144,12 +9645,12 @@
         <v>2</v>
       </c>
       <c r="L146" s="109" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="147" spans="2:12">
       <c r="B147" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C147" s="103">
         <v>1.5</v>
@@ -9177,12 +9678,12 @@
         <v>2</v>
       </c>
       <c r="L147" s="109" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="148" spans="2:12">
       <c r="B148" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C148" s="108">
         <v>2</v>
@@ -9208,7 +9709,7 @@
         <v>1.5</v>
       </c>
       <c r="L148" s="109" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="149" spans="2:12">
@@ -9322,7 +9823,7 @@
     </row>
     <row r="160" spans="2:12">
       <c r="B160" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C160" s="26"/>
       <c r="D160" s="26"/>
@@ -9334,12 +9835,12 @@
       <c r="J160" s="26"/>
       <c r="K160" s="26"/>
       <c r="L160" s="109" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="161" spans="2:12">
       <c r="B161" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C161" s="26"/>
       <c r="D161" s="26"/>
@@ -9351,12 +9852,12 @@
       <c r="J161" s="26"/>
       <c r="K161" s="26"/>
       <c r="L161" s="109" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="162" spans="2:12">
       <c r="B162" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C162" s="66"/>
       <c r="D162" s="103"/>
@@ -9367,12 +9868,12 @@
       <c r="J162" s="103"/>
       <c r="K162" s="103"/>
       <c r="L162" s="109" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="163" spans="2:12">
       <c r="B163" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C163" s="66"/>
       <c r="D163" s="103"/>
@@ -9383,12 +9884,12 @@
       <c r="J163" s="103"/>
       <c r="K163" s="103"/>
       <c r="L163" s="109" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="165" spans="2:12">
       <c r="B165" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C165" s="108">
         <v>1</v>
@@ -9418,12 +9919,12 @@
         <v>1</v>
       </c>
       <c r="L165" s="109" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="166" spans="2:12">
       <c r="B166" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C166" s="108">
         <v>1</v>
@@ -9453,7 +9954,7 @@
         <v>2</v>
       </c>
       <c r="L166" s="109" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="167" spans="2:12">
@@ -9485,12 +9986,12 @@
         <v>2</v>
       </c>
       <c r="L167" s="109" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="170" spans="2:12">
       <c r="B170" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C170" s="26"/>
       <c r="D170" s="26"/>
@@ -9502,12 +10003,12 @@
       <c r="J170" s="26"/>
       <c r="K170" s="26"/>
       <c r="L170" s="109" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="171" spans="2:12">
       <c r="B171" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C171" s="26"/>
       <c r="D171" s="26"/>
@@ -9519,12 +10020,12 @@
       <c r="J171" s="26"/>
       <c r="K171" s="26"/>
       <c r="L171" s="109" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="172" spans="2:12">
       <c r="B172" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C172" s="103"/>
       <c r="E172" s="103"/>
@@ -9533,12 +10034,12 @@
       <c r="I172" s="103"/>
       <c r="K172" s="103"/>
       <c r="L172" s="109" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="173" spans="2:12">
       <c r="B173" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C173" s="103"/>
       <c r="E173" s="103"/>
@@ -9547,12 +10048,12 @@
       <c r="I173" s="103"/>
       <c r="K173" s="103"/>
       <c r="L173" s="109" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="175" spans="2:12">
       <c r="B175" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C175" s="103">
         <v>2</v>
@@ -9582,12 +10083,12 @@
         <v>2</v>
       </c>
       <c r="L175" s="109" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="176" spans="2:12">
       <c r="B176" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C176" s="108">
         <v>2</v>
@@ -9617,7 +10118,7 @@
         <v>2</v>
       </c>
       <c r="L176" s="109" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="177" spans="3:12">
@@ -9649,7 +10150,7 @@
         <v>2</v>
       </c>
       <c r="L177" s="109" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
   </sheetData>
@@ -9662,6 +10163,282 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED30A8A5-285A-BE41-9AEE-9F55011C8CBA}">
+  <dimension ref="C5:G23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:7">
+      <c r="D5" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7">
+      <c r="C6" t="s">
+        <v>811</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>813</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>814</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>815</v>
+      </c>
+      <c r="G6" s="77" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7">
+      <c r="C7" t="s">
+        <v>794</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="G7" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" t="s">
+        <v>792</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7">
+      <c r="C9" t="s">
+        <v>791</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" t="s">
+        <v>789</v>
+      </c>
+      <c r="D11" s="3">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3">
+        <v>130</v>
+      </c>
+      <c r="F11" s="3">
+        <v>260</v>
+      </c>
+      <c r="G11" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7">
+      <c r="C12" t="s">
+        <v>790</v>
+      </c>
+      <c r="D12" s="3">
+        <v>50</v>
+      </c>
+      <c r="E12" s="3">
+        <v>110</v>
+      </c>
+      <c r="F12" s="3">
+        <v>130</v>
+      </c>
+      <c r="G12" s="3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" t="s">
+        <v>791</v>
+      </c>
+      <c r="D13" s="3">
+        <v>50</v>
+      </c>
+      <c r="E13" s="3">
+        <v>160</v>
+      </c>
+      <c r="F13" s="3">
+        <v>220</v>
+      </c>
+      <c r="G13" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" t="s">
+        <v>792</v>
+      </c>
+      <c r="D14" s="3">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3">
+        <v>90</v>
+      </c>
+      <c r="F14" s="3">
+        <v>150</v>
+      </c>
+      <c r="G14" s="3">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="D16" s="3">
+        <f>SUM(D11:D15)</f>
+        <v>180</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" ref="E16:G16" si="0">SUM(E11:E15)</f>
+        <v>490</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="0"/>
+        <v>760</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" t="s">
+        <v>802</v>
+      </c>
+      <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>800</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="D19" s="3">
+        <f>(D16+D17) * D18</f>
+        <v>760</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" ref="E19:G19" si="1">(E16+E17) * E18</f>
+        <v>1980</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="1"/>
+        <v>3120</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="1"/>
+        <v>6020</v>
+      </c>
+    </row>
+    <row r="22" spans="3:7">
+      <c r="C22" t="s">
+        <v>809</v>
+      </c>
+      <c r="D22" s="3">
+        <v>40</v>
+      </c>
+      <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="3:7">
+      <c r="C23" t="s">
+        <v>810</v>
+      </c>
+      <c r="D23" s="3">
+        <v>40</v>
+      </c>
+      <c r="E23" s="3">
+        <v>48</v>
+      </c>
+      <c r="F23" s="3">
+        <v>100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="D6 G6" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EF0ED8-79C6-3E4B-9C1C-705B81C0F61B}">
   <dimension ref="B8:E24"/>
   <sheetViews>
@@ -9843,68 +10620,88 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C5:D16"/>
+  <dimension ref="C5:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="5" spans="3:4">
+    <row r="5" spans="3:5">
       <c r="C5" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="3:5">
       <c r="C6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="3:5">
       <c r="C7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
+    <row r="11" spans="3:5">
       <c r="C11">
         <v>28.317</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
+    <row r="12" spans="3:5">
       <c r="C12" t="s">
         <v>236</v>
       </c>
       <c r="D12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
       <c r="C13" t="s">
         <v>235</v>
       </c>
       <c r="D13" s="1">
-        <f>D12/C11</f>
-        <v>0.70628950806935764</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4">
+        <f>D12/$C11</f>
+        <v>1.7657237701733941</v>
+      </c>
+      <c r="E13" s="1">
+        <f>E12/$C11</f>
+        <v>3.0017304092947699</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
       <c r="C15" t="s">
         <v>237</v>
       </c>
       <c r="D15">
         <v>200</v>
       </c>
-    </row>
-    <row r="16" spans="3:4">
+      <c r="E15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
       <c r="C16" t="s">
         <v>238</v>
       </c>
       <c r="D16" s="2">
         <f>D13*D15/3</f>
-        <v>47.085967204623842</v>
+        <v>117.71491801155962</v>
+      </c>
+      <c r="E16" s="2">
+        <f>E13*E15/3</f>
+        <v>200.11536061965134</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
+      <c r="C24">
+        <f>17/25.4</f>
+        <v>0.6692913385826772</v>
       </c>
     </row>
   </sheetData>
@@ -9912,12 +10709,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:S14"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9987,10 +10784,10 @@
         <v>0.6</v>
       </c>
       <c r="D4" s="3">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="E4" s="3">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="F4" s="3">
         <v>0.23</v>
@@ -10149,7 +10946,7 @@
         <v>25</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3">
         <v>28</v>
@@ -10255,11 +11052,11 @@
       </c>
       <c r="D10" s="5">
         <f>962*D4*SQRT(((D7+14.7)^2-(D8+14.7)^2)/(D5*(D6+460)))</f>
-        <v>903.00854009626744</v>
+        <v>7224.0683207701395</v>
       </c>
       <c r="E10" s="5">
         <f>962*E4*SQRT(((E7+14.7)^2-(E8+14.7)^2)/(E5*(E6+460)))</f>
-        <v>138.23727984745159</v>
+        <v>1589.4914512035152</v>
       </c>
       <c r="F10" s="5">
         <f>962*F4*SQRT(((F7+14.7)^2-(F8+14.7)^2)/(F5*(F6+460)))</f>
@@ -10315,11 +11112,11 @@
       </c>
       <c r="D11" s="5">
         <f>D4*(816*(D7+14.7)/SQRT(D5*(D6+460)))</f>
-        <v>844.29454072549117</v>
+        <v>6754.3563258039294</v>
       </c>
       <c r="E11" s="5">
         <f>E4*(816*(E7+14.7)/SQRT(E5*(E6+460)))</f>
-        <v>333.88978058917405</v>
+        <v>2841.2531647588312</v>
       </c>
       <c r="F11" s="5">
         <f>F4*(816*(F7+14.7)/SQRT(F5*(F6+460)))</f>
@@ -10388,11 +11185,11 @@
       </c>
       <c r="D13" s="5">
         <f>MIN(D10*28.3168/60, D11*28.3168/60)</f>
-        <v>398.46199418025986</v>
+        <v>3187.6959534420789</v>
       </c>
       <c r="E13" s="5">
         <f>MIN(E10*28.3168/60, E11*28.3168/60)</f>
-        <v>65.240623433071946</v>
+        <v>750.15519209066167</v>
       </c>
       <c r="F13" s="5">
         <f>MIN(F10*28.3168/60, F11*28.3168/60)</f>
@@ -10448,11 +11245,11 @@
       </c>
       <c r="D14" s="5">
         <f>MIN(D10/60, D11/60)</f>
-        <v>14.071575678758187</v>
+        <v>112.57260543006549</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ref="E14:M14" si="12">MIN(E10/60, E11/60)</f>
-        <v>2.303954664124193</v>
+        <v>26.491524186725254</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="12"/>
@@ -10503,7 +11300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B6:C11"/>
   <sheetViews>
@@ -10546,11 +11343,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:I42"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
@@ -10989,7 +11786,7 @@
     </row>
     <row r="26" spans="2:9" ht="17">
       <c r="H26" s="18" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>250</v>
@@ -10997,16 +11794,16 @@
     </row>
     <row r="27" spans="2:9" ht="34">
       <c r="B27" s="17" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="28" spans="2:9" ht="34">
@@ -11014,41 +11811,41 @@
         <v>1975</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="66" customHeight="1">
       <c r="B29" s="17" t="s">
+        <v>999</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>1000</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>1001</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>1002</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>1003</v>
-      </c>
       <c r="I29" s="12" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="51">
       <c r="B30" s="17" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="31" spans="2:9" ht="17">
@@ -11056,113 +11853,113 @@
         <v>1980</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="32" spans="2:9" ht="39" customHeight="1">
       <c r="B32" s="17" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="51">
       <c r="B33" s="17" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="51">
       <c r="B34" s="17" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="68">
       <c r="B35" s="17" t="s">
+        <v>975</v>
+      </c>
+      <c r="H35" s="12" t="s">
         <v>977</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="51">
       <c r="B36" s="17" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="51">
       <c r="B37" s="17" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="51">
       <c r="B38" s="17" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="34">
       <c r="B39" s="17" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="34">
       <c r="B40" s="17" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="68">
       <c r="B41" s="17" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="51">
       <c r="B42" s="17" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -11170,7 +11967,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B5:H37"/>
   <sheetViews>
@@ -11502,7 +12299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M13"/>
   <sheetViews>
@@ -11749,7 +12546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B5:L35"/>
   <sheetViews>
@@ -12133,7 +12930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G210"/>
   <sheetViews>
@@ -13298,11 +14095,1526 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13814647-7FE3-4241-A06A-2FA35BE4FEEB}">
+  <dimension ref="B6:M86"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M62" sqref="M62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="85.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:2" ht="21">
+      <c r="B6" s="73" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="18">
+      <c r="B8" s="73" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="18">
+      <c r="B10" s="73" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="18">
+      <c r="B12" s="73" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="18">
+      <c r="B14" s="73" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="20">
+      <c r="B16" s="73" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="20">
+      <c r="B18" s="73" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" ht="18">
+      <c r="B20" s="74" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="C23" t="s">
+        <v>516</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>710</v>
+      </c>
+      <c r="G23" t="s">
+        <v>516</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="C24" t="s">
+        <v>711</v>
+      </c>
+      <c r="D24">
+        <v>1.41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>717</v>
+      </c>
+      <c r="G24" t="s">
+        <v>711</v>
+      </c>
+      <c r="H24">
+        <v>1.41</v>
+      </c>
+      <c r="I24">
+        <v>1.41</v>
+      </c>
+      <c r="J24" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="C25" t="s">
+        <v>712</v>
+      </c>
+      <c r="D25">
+        <v>14.7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>716</v>
+      </c>
+      <c r="G25" t="s">
+        <v>712</v>
+      </c>
+      <c r="H25">
+        <v>14.7</v>
+      </c>
+      <c r="I25">
+        <v>1.5</v>
+      </c>
+      <c r="J25" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="C26" t="s">
+        <v>713</v>
+      </c>
+      <c r="D26" s="66">
+        <f>D29+14.7</f>
+        <v>60</v>
+      </c>
+      <c r="E26" t="s">
+        <v>716</v>
+      </c>
+      <c r="G26" t="s">
+        <v>713</v>
+      </c>
+      <c r="H26" s="66">
+        <v>30</v>
+      </c>
+      <c r="I26" s="66">
+        <v>14.7</v>
+      </c>
+      <c r="J26" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="C28" t="s">
+        <v>715</v>
+      </c>
+      <c r="D28" s="26">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>294</v>
+      </c>
+      <c r="G28" t="s">
+        <v>715</v>
+      </c>
+      <c r="H28" s="26">
+        <v>12</v>
+      </c>
+      <c r="I28" s="26">
+        <v>7</v>
+      </c>
+      <c r="J28" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="C29" t="s">
+        <v>714</v>
+      </c>
+      <c r="D29" s="26">
+        <v>45.3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s">
+        <v>714</v>
+      </c>
+      <c r="H29" s="26">
+        <v>45.3</v>
+      </c>
+      <c r="I29" s="26">
+        <v>45.3</v>
+      </c>
+      <c r="J29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="C31" t="s">
+        <v>720</v>
+      </c>
+      <c r="D31" s="22">
+        <f>(144*D23*D25*D28*D24/(33000*(D24-1)))*((D26/D25)^((D24-1)/(D23*D24))-1)</f>
+        <v>0.55732237182397459</v>
+      </c>
+      <c r="G31" t="s">
+        <v>720</v>
+      </c>
+      <c r="H31" s="22">
+        <f>(144*H23*H25*H28*H24/(33000*(H24-1)))*((H26/H25)^((H24-1)/(H23*H24))-1)</f>
+        <v>0.61019754123029601</v>
+      </c>
+      <c r="I31" s="22">
+        <f>(144*I23*I25*I28*I24/(33000*(I24-1)))*((I26/I25)^((I24-1)/(I23*I24))-1)</f>
+        <v>0.14841644391600728</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="C32" t="s">
+        <v>719</v>
+      </c>
+      <c r="D32">
+        <v>0.8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>719</v>
+      </c>
+      <c r="H32">
+        <v>0.8</v>
+      </c>
+      <c r="I32">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13">
+      <c r="C33" t="s">
+        <v>718</v>
+      </c>
+      <c r="D33" s="1">
+        <f>D31*0.7457/D32</f>
+        <v>0.51949411583642224</v>
+      </c>
+      <c r="G33" t="s">
+        <v>718</v>
+      </c>
+      <c r="H33" s="1">
+        <f>H31*0.7457/H32</f>
+        <v>0.56878038311928969</v>
+      </c>
+      <c r="I33" s="1">
+        <f>I31*0.7457/I32</f>
+        <v>0.13834267778520828</v>
+      </c>
+    </row>
+    <row r="38" spans="3:13">
+      <c r="C38" t="s">
+        <v>516</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13">
+      <c r="C39" t="s">
+        <v>711</v>
+      </c>
+      <c r="D39">
+        <v>1.41</v>
+      </c>
+      <c r="E39">
+        <v>1.41</v>
+      </c>
+      <c r="F39">
+        <v>1.41</v>
+      </c>
+      <c r="G39">
+        <v>1.41</v>
+      </c>
+      <c r="H39">
+        <v>1.41</v>
+      </c>
+      <c r="I39">
+        <v>1.41</v>
+      </c>
+      <c r="J39">
+        <v>1.41</v>
+      </c>
+      <c r="K39">
+        <v>1.41</v>
+      </c>
+      <c r="L39">
+        <v>1.41</v>
+      </c>
+      <c r="M39">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13">
+      <c r="C40" t="s">
+        <v>712</v>
+      </c>
+      <c r="D40">
+        <v>14.7</v>
+      </c>
+      <c r="E40">
+        <v>14.7</v>
+      </c>
+      <c r="F40">
+        <v>14.7</v>
+      </c>
+      <c r="G40">
+        <v>14.7</v>
+      </c>
+      <c r="H40">
+        <v>14.7</v>
+      </c>
+      <c r="I40">
+        <v>14.7</v>
+      </c>
+      <c r="J40">
+        <v>14.7</v>
+      </c>
+      <c r="K40">
+        <v>14.7</v>
+      </c>
+      <c r="L40">
+        <v>14.7</v>
+      </c>
+      <c r="M40">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13">
+      <c r="C41" t="s">
+        <v>713</v>
+      </c>
+      <c r="D41" s="66">
+        <f t="shared" ref="D41:M41" si="0">D44+14.7</f>
+        <v>29.7</v>
+      </c>
+      <c r="E41" s="66">
+        <f t="shared" si="0"/>
+        <v>29.7</v>
+      </c>
+      <c r="F41" s="66">
+        <f t="shared" si="0"/>
+        <v>29.7</v>
+      </c>
+      <c r="G41" s="66">
+        <f t="shared" si="0"/>
+        <v>29.7</v>
+      </c>
+      <c r="H41" s="66">
+        <f t="shared" si="0"/>
+        <v>29.7</v>
+      </c>
+      <c r="I41" s="66">
+        <f t="shared" si="0"/>
+        <v>29.7</v>
+      </c>
+      <c r="J41" s="66">
+        <f t="shared" si="0"/>
+        <v>29.7</v>
+      </c>
+      <c r="K41" s="66">
+        <f t="shared" si="0"/>
+        <v>29.7</v>
+      </c>
+      <c r="L41" s="66">
+        <f t="shared" si="0"/>
+        <v>29.7</v>
+      </c>
+      <c r="M41" s="66">
+        <f t="shared" si="0"/>
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13">
+      <c r="C43" t="s">
+        <v>715</v>
+      </c>
+      <c r="D43" s="26">
+        <v>2</v>
+      </c>
+      <c r="E43" s="26">
+        <v>4</v>
+      </c>
+      <c r="F43" s="26">
+        <v>6</v>
+      </c>
+      <c r="G43" s="26">
+        <v>8</v>
+      </c>
+      <c r="H43" s="26">
+        <v>10</v>
+      </c>
+      <c r="I43" s="26">
+        <v>12</v>
+      </c>
+      <c r="J43" s="26">
+        <v>14</v>
+      </c>
+      <c r="K43" s="26">
+        <v>16</v>
+      </c>
+      <c r="L43" s="26">
+        <v>18</v>
+      </c>
+      <c r="M43" s="26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13">
+      <c r="C44" t="s">
+        <v>714</v>
+      </c>
+      <c r="D44" s="26">
+        <v>15</v>
+      </c>
+      <c r="E44" s="26">
+        <v>15</v>
+      </c>
+      <c r="F44" s="26">
+        <v>15</v>
+      </c>
+      <c r="G44" s="26">
+        <v>15</v>
+      </c>
+      <c r="H44" s="26">
+        <v>15</v>
+      </c>
+      <c r="I44" s="26">
+        <v>15</v>
+      </c>
+      <c r="J44" s="26">
+        <v>15</v>
+      </c>
+      <c r="K44" s="26">
+        <v>15</v>
+      </c>
+      <c r="L44" s="26">
+        <v>15</v>
+      </c>
+      <c r="M44" s="26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13">
+      <c r="C46" t="s">
+        <v>720</v>
+      </c>
+      <c r="D46" s="22">
+        <f t="shared" ref="D46:M46" si="1">(144*D38*D40*D43*D39/(33000*(D39-1)))*((D41/D40)^((D39-1)/(D38*D39))-1)</f>
+        <v>0.10011532880655918</v>
+      </c>
+      <c r="E46" s="22">
+        <f t="shared" si="1"/>
+        <v>0.20023065761311837</v>
+      </c>
+      <c r="F46" s="22">
+        <f t="shared" si="1"/>
+        <v>0.30034598641967758</v>
+      </c>
+      <c r="G46" s="22">
+        <f t="shared" si="1"/>
+        <v>0.40046131522623674</v>
+      </c>
+      <c r="H46" s="22">
+        <f t="shared" si="1"/>
+        <v>0.50057664403279589</v>
+      </c>
+      <c r="I46" s="22">
+        <f t="shared" si="1"/>
+        <v>0.60069197283935516</v>
+      </c>
+      <c r="J46" s="22">
+        <f t="shared" si="1"/>
+        <v>0.7008073016459142</v>
+      </c>
+      <c r="K46" s="22">
+        <f t="shared" si="1"/>
+        <v>0.80092263045247347</v>
+      </c>
+      <c r="L46" s="22">
+        <f t="shared" si="1"/>
+        <v>0.90103795925903263</v>
+      </c>
+      <c r="M46" s="22">
+        <f t="shared" si="1"/>
+        <v>1.0011532880655918</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13">
+      <c r="C47" t="s">
+        <v>719</v>
+      </c>
+      <c r="D47">
+        <v>0.8</v>
+      </c>
+      <c r="E47">
+        <v>0.8</v>
+      </c>
+      <c r="F47">
+        <v>0.8</v>
+      </c>
+      <c r="G47">
+        <v>0.8</v>
+      </c>
+      <c r="H47">
+        <v>0.8</v>
+      </c>
+      <c r="I47">
+        <v>0.8</v>
+      </c>
+      <c r="J47">
+        <v>0.8</v>
+      </c>
+      <c r="K47">
+        <v>0.8</v>
+      </c>
+      <c r="L47">
+        <v>0.8</v>
+      </c>
+      <c r="M47">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13">
+      <c r="C48" t="s">
+        <v>718</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" ref="D48:M48" si="2">D46*0.7457/D47</f>
+        <v>9.3320000863813979E-2</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="2"/>
+        <v>0.18664000172762796</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="2"/>
+        <v>0.27996000259144199</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="2"/>
+        <v>0.37328000345525592</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="2"/>
+        <v>0.46660000431906989</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" si="2"/>
+        <v>0.55992000518288398</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65324000604669774</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="2"/>
+        <v>0.74656000691051183</v>
+      </c>
+      <c r="L48" s="1">
+        <f t="shared" si="2"/>
+        <v>0.83988000777432581</v>
+      </c>
+      <c r="M48" s="1">
+        <f t="shared" si="2"/>
+        <v>0.93320000863813979</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13">
+      <c r="C52" t="s">
+        <v>516</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13">
+      <c r="C53" t="s">
+        <v>711</v>
+      </c>
+      <c r="D53">
+        <v>1.41</v>
+      </c>
+      <c r="E53">
+        <v>1.41</v>
+      </c>
+      <c r="F53">
+        <v>1.41</v>
+      </c>
+      <c r="G53">
+        <v>1.41</v>
+      </c>
+      <c r="H53">
+        <v>1.41</v>
+      </c>
+      <c r="I53">
+        <v>1.41</v>
+      </c>
+      <c r="J53">
+        <v>1.41</v>
+      </c>
+      <c r="K53">
+        <v>1.41</v>
+      </c>
+      <c r="L53">
+        <v>1.41</v>
+      </c>
+      <c r="M53">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13">
+      <c r="C54" t="s">
+        <v>712</v>
+      </c>
+      <c r="D54">
+        <v>14.7</v>
+      </c>
+      <c r="E54">
+        <v>14.7</v>
+      </c>
+      <c r="F54">
+        <v>14.7</v>
+      </c>
+      <c r="G54">
+        <v>14.7</v>
+      </c>
+      <c r="H54">
+        <v>14.7</v>
+      </c>
+      <c r="I54">
+        <v>14.7</v>
+      </c>
+      <c r="J54">
+        <v>14.7</v>
+      </c>
+      <c r="K54">
+        <v>14.7</v>
+      </c>
+      <c r="L54">
+        <v>14.7</v>
+      </c>
+      <c r="M54">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13">
+      <c r="C55" t="s">
+        <v>713</v>
+      </c>
+      <c r="D55" s="66">
+        <f t="shared" ref="D55:M55" si="3">D58+14.7</f>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="E55" s="66">
+        <f t="shared" si="3"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="F55" s="66">
+        <f t="shared" si="3"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="G55" s="66">
+        <f t="shared" si="3"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="H55" s="66">
+        <f t="shared" si="3"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I55" s="66">
+        <f t="shared" si="3"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="J55" s="66">
+        <f t="shared" si="3"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="K55" s="66">
+        <f t="shared" si="3"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="L55" s="66">
+        <f t="shared" si="3"/>
+        <v>37.200000000000003</v>
+      </c>
+      <c r="M55" s="66">
+        <f t="shared" si="3"/>
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="57" spans="3:13">
+      <c r="C57" t="s">
+        <v>715</v>
+      </c>
+      <c r="D57" s="26">
+        <v>2</v>
+      </c>
+      <c r="E57" s="26">
+        <v>4</v>
+      </c>
+      <c r="F57" s="26">
+        <v>6</v>
+      </c>
+      <c r="G57" s="26">
+        <v>8</v>
+      </c>
+      <c r="H57" s="26">
+        <v>10</v>
+      </c>
+      <c r="I57" s="26">
+        <v>12</v>
+      </c>
+      <c r="J57" s="26">
+        <v>14</v>
+      </c>
+      <c r="K57" s="26">
+        <v>16</v>
+      </c>
+      <c r="L57" s="26">
+        <v>18</v>
+      </c>
+      <c r="M57" s="26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13">
+      <c r="C58" t="s">
+        <v>714</v>
+      </c>
+      <c r="D58" s="26">
+        <v>22.5</v>
+      </c>
+      <c r="E58" s="26">
+        <v>22.5</v>
+      </c>
+      <c r="F58" s="26">
+        <v>22.5</v>
+      </c>
+      <c r="G58" s="26">
+        <v>22.5</v>
+      </c>
+      <c r="H58" s="26">
+        <v>22.5</v>
+      </c>
+      <c r="I58" s="26">
+        <v>22.5</v>
+      </c>
+      <c r="J58" s="26">
+        <v>22.5</v>
+      </c>
+      <c r="K58" s="26">
+        <v>22.5</v>
+      </c>
+      <c r="L58" s="26">
+        <v>22.5</v>
+      </c>
+      <c r="M58" s="26">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13">
+      <c r="C60" t="s">
+        <v>720</v>
+      </c>
+      <c r="D60" s="22">
+        <f t="shared" ref="D60:M60" si="4">(144*D52*D54*D57*D53/(33000*(D53-1)))*((D55/D54)^((D53-1)/(D52*D53))-1)</f>
+        <v>0.13674228357678189</v>
+      </c>
+      <c r="E60" s="22">
+        <f t="shared" si="4"/>
+        <v>0.27348456715356378</v>
+      </c>
+      <c r="F60" s="22">
+        <f t="shared" si="4"/>
+        <v>0.41022685073034565</v>
+      </c>
+      <c r="G60" s="22">
+        <f t="shared" si="4"/>
+        <v>0.54696913430712757</v>
+      </c>
+      <c r="H60" s="22">
+        <f t="shared" si="4"/>
+        <v>0.68371141788390943</v>
+      </c>
+      <c r="I60" s="22">
+        <f t="shared" si="4"/>
+        <v>0.8204537014606913</v>
+      </c>
+      <c r="J60" s="22">
+        <f t="shared" si="4"/>
+        <v>0.95719598503747305</v>
+      </c>
+      <c r="K60" s="22">
+        <f t="shared" si="4"/>
+        <v>1.0939382686142551</v>
+      </c>
+      <c r="L60" s="22">
+        <f t="shared" si="4"/>
+        <v>1.2306805521910371</v>
+      </c>
+      <c r="M60" s="22">
+        <f t="shared" si="4"/>
+        <v>1.3674228357678189</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13">
+      <c r="C61" t="s">
+        <v>719</v>
+      </c>
+      <c r="D61">
+        <v>0.8</v>
+      </c>
+      <c r="E61">
+        <v>0.8</v>
+      </c>
+      <c r="F61">
+        <v>0.8</v>
+      </c>
+      <c r="G61">
+        <v>0.8</v>
+      </c>
+      <c r="H61">
+        <v>0.8</v>
+      </c>
+      <c r="I61">
+        <v>0.8</v>
+      </c>
+      <c r="J61">
+        <v>0.8</v>
+      </c>
+      <c r="K61">
+        <v>0.8</v>
+      </c>
+      <c r="L61">
+        <v>0.8</v>
+      </c>
+      <c r="M61">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13">
+      <c r="C62" t="s">
+        <v>718</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" ref="D62:M62" si="5">D60*0.7457/D61</f>
+        <v>0.12746090107900782</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="5"/>
+        <v>0.25492180215801563</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="5"/>
+        <v>0.38238270323702345</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="5"/>
+        <v>0.50984360431603126</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="5"/>
+        <v>0.63730450539503902</v>
+      </c>
+      <c r="I62" s="1">
+        <f t="shared" si="5"/>
+        <v>0.76476540647404689</v>
+      </c>
+      <c r="J62" s="1">
+        <f t="shared" si="5"/>
+        <v>0.89222630755305454</v>
+      </c>
+      <c r="K62" s="1">
+        <f t="shared" si="5"/>
+        <v>1.0196872086320625</v>
+      </c>
+      <c r="L62" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1471481097110705</v>
+      </c>
+      <c r="M62" s="1">
+        <f t="shared" si="5"/>
+        <v>1.274609010790078</v>
+      </c>
+    </row>
+    <row r="66" spans="3:13">
+      <c r="C66" t="s">
+        <v>516</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="3:13">
+      <c r="C67" t="s">
+        <v>711</v>
+      </c>
+      <c r="D67">
+        <v>1.41</v>
+      </c>
+      <c r="E67">
+        <v>1.41</v>
+      </c>
+      <c r="F67">
+        <v>1.41</v>
+      </c>
+      <c r="G67">
+        <v>1.41</v>
+      </c>
+      <c r="H67">
+        <v>1.41</v>
+      </c>
+      <c r="I67">
+        <v>1.41</v>
+      </c>
+      <c r="J67">
+        <v>1.41</v>
+      </c>
+      <c r="K67">
+        <v>1.41</v>
+      </c>
+      <c r="L67">
+        <v>1.41</v>
+      </c>
+      <c r="M67">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="68" spans="3:13">
+      <c r="C68" t="s">
+        <v>712</v>
+      </c>
+      <c r="D68">
+        <v>14.7</v>
+      </c>
+      <c r="E68">
+        <v>14.7</v>
+      </c>
+      <c r="F68">
+        <v>14.7</v>
+      </c>
+      <c r="G68">
+        <v>14.7</v>
+      </c>
+      <c r="H68">
+        <v>14.7</v>
+      </c>
+      <c r="I68">
+        <v>14.7</v>
+      </c>
+      <c r="J68">
+        <v>14.7</v>
+      </c>
+      <c r="K68">
+        <v>14.7</v>
+      </c>
+      <c r="L68">
+        <v>14.7</v>
+      </c>
+      <c r="M68">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="69" spans="3:13">
+      <c r="C69" t="s">
+        <v>713</v>
+      </c>
+      <c r="D69" s="66">
+        <f t="shared" ref="D69:M69" si="6">D72+14.7</f>
+        <v>44.7</v>
+      </c>
+      <c r="E69" s="66">
+        <f t="shared" si="6"/>
+        <v>44.7</v>
+      </c>
+      <c r="F69" s="66">
+        <f t="shared" si="6"/>
+        <v>44.7</v>
+      </c>
+      <c r="G69" s="66">
+        <f t="shared" si="6"/>
+        <v>44.7</v>
+      </c>
+      <c r="H69" s="66">
+        <f t="shared" si="6"/>
+        <v>44.7</v>
+      </c>
+      <c r="I69" s="66">
+        <f t="shared" si="6"/>
+        <v>44.7</v>
+      </c>
+      <c r="J69" s="66">
+        <f t="shared" si="6"/>
+        <v>44.7</v>
+      </c>
+      <c r="K69" s="66">
+        <f t="shared" si="6"/>
+        <v>44.7</v>
+      </c>
+      <c r="L69" s="66">
+        <f t="shared" si="6"/>
+        <v>44.7</v>
+      </c>
+      <c r="M69" s="66">
+        <f t="shared" si="6"/>
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="71" spans="3:13">
+      <c r="C71" t="s">
+        <v>715</v>
+      </c>
+      <c r="D71" s="26">
+        <v>2</v>
+      </c>
+      <c r="E71" s="26">
+        <v>4</v>
+      </c>
+      <c r="F71" s="26">
+        <v>6</v>
+      </c>
+      <c r="G71" s="26">
+        <v>8</v>
+      </c>
+      <c r="H71" s="26">
+        <v>10</v>
+      </c>
+      <c r="I71" s="26">
+        <v>12</v>
+      </c>
+      <c r="J71" s="26">
+        <v>14</v>
+      </c>
+      <c r="K71" s="26">
+        <v>16</v>
+      </c>
+      <c r="L71" s="26">
+        <v>18</v>
+      </c>
+      <c r="M71" s="26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="3:13">
+      <c r="C72" t="s">
+        <v>714</v>
+      </c>
+      <c r="D72" s="26">
+        <v>30</v>
+      </c>
+      <c r="E72" s="26">
+        <v>30</v>
+      </c>
+      <c r="F72" s="26">
+        <v>30</v>
+      </c>
+      <c r="G72" s="26">
+        <v>30</v>
+      </c>
+      <c r="H72" s="26">
+        <v>30</v>
+      </c>
+      <c r="I72" s="26">
+        <v>30</v>
+      </c>
+      <c r="J72" s="26">
+        <v>30</v>
+      </c>
+      <c r="K72" s="26">
+        <v>30</v>
+      </c>
+      <c r="L72" s="26">
+        <v>30</v>
+      </c>
+      <c r="M72" s="26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="3:13">
+      <c r="C74" t="s">
+        <v>720</v>
+      </c>
+      <c r="D74" s="22">
+        <f t="shared" ref="D74:M74" si="7">(144*D66*D68*D71*D67/(33000*(D67-1)))*((D69/D68)^((D67-1)/(D66*D67))-1)</f>
+        <v>0.16844673623933493</v>
+      </c>
+      <c r="E74" s="22">
+        <f t="shared" si="7"/>
+        <v>0.33689347247866985</v>
+      </c>
+      <c r="F74" s="22">
+        <f t="shared" si="7"/>
+        <v>0.50534020871800478</v>
+      </c>
+      <c r="G74" s="22">
+        <f t="shared" si="7"/>
+        <v>0.67378694495733971</v>
+      </c>
+      <c r="H74" s="22">
+        <f t="shared" si="7"/>
+        <v>0.84223368119667463</v>
+      </c>
+      <c r="I74" s="22">
+        <f t="shared" si="7"/>
+        <v>1.0106804174360096</v>
+      </c>
+      <c r="J74" s="22">
+        <f t="shared" si="7"/>
+        <v>1.1791271536753443</v>
+      </c>
+      <c r="K74" s="22">
+        <f t="shared" si="7"/>
+        <v>1.3475738899146794</v>
+      </c>
+      <c r="L74" s="22">
+        <f t="shared" si="7"/>
+        <v>1.5160206261540143</v>
+      </c>
+      <c r="M74" s="22">
+        <f t="shared" si="7"/>
+        <v>1.6844673623933493</v>
+      </c>
+    </row>
+    <row r="75" spans="3:13">
+      <c r="C75" t="s">
+        <v>719</v>
+      </c>
+      <c r="D75">
+        <v>0.8</v>
+      </c>
+      <c r="E75">
+        <v>0.8</v>
+      </c>
+      <c r="F75">
+        <v>0.8</v>
+      </c>
+      <c r="G75">
+        <v>0.8</v>
+      </c>
+      <c r="H75">
+        <v>0.8</v>
+      </c>
+      <c r="I75">
+        <v>0.8</v>
+      </c>
+      <c r="J75">
+        <v>0.8</v>
+      </c>
+      <c r="K75">
+        <v>0.8</v>
+      </c>
+      <c r="L75">
+        <v>0.8</v>
+      </c>
+      <c r="M75">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="76" spans="3:13">
+      <c r="C76" t="s">
+        <v>718</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" ref="D76:M76" si="8">D74*0.7457/D75</f>
+        <v>0.15701341401709007</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" si="8"/>
+        <v>0.31402682803418014</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="8"/>
+        <v>0.47104024205127021</v>
+      </c>
+      <c r="G76" s="1">
+        <f t="shared" si="8"/>
+        <v>0.62805365606836028</v>
+      </c>
+      <c r="H76" s="1">
+        <f t="shared" si="8"/>
+        <v>0.78506707008545029</v>
+      </c>
+      <c r="I76" s="1">
+        <f t="shared" si="8"/>
+        <v>0.94208048410254042</v>
+      </c>
+      <c r="J76" s="1">
+        <f t="shared" si="8"/>
+        <v>1.0990938981196303</v>
+      </c>
+      <c r="K76" s="1">
+        <f t="shared" si="8"/>
+        <v>1.2561073121367206</v>
+      </c>
+      <c r="L76" s="1">
+        <f t="shared" si="8"/>
+        <v>1.4131207261538106</v>
+      </c>
+      <c r="M76" s="1">
+        <f t="shared" si="8"/>
+        <v>1.5701341401709006</v>
+      </c>
+    </row>
+    <row r="77" spans="3:13">
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+    </row>
+    <row r="78" spans="3:13">
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+    </row>
+    <row r="80" spans="3:13">
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="22"/>
+    </row>
+    <row r="82" spans="3:13">
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="3:13">
+      <c r="D83">
+        <f>D71</f>
+        <v>2</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ref="E83:M83" si="9">E71</f>
+        <v>4</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="9"/>
+        <v>14</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="9"/>
+        <v>18</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13">
+      <c r="C84" t="s">
+        <v>952</v>
+      </c>
+      <c r="D84" s="1">
+        <f>D48</f>
+        <v>9.3320000863813979E-2</v>
+      </c>
+      <c r="E84" s="1">
+        <f t="shared" ref="E84:M84" si="10">E48</f>
+        <v>0.18664000172762796</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="10"/>
+        <v>0.27996000259144199</v>
+      </c>
+      <c r="G84" s="1">
+        <f t="shared" si="10"/>
+        <v>0.37328000345525592</v>
+      </c>
+      <c r="H84" s="1">
+        <f t="shared" si="10"/>
+        <v>0.46660000431906989</v>
+      </c>
+      <c r="I84" s="1">
+        <f t="shared" si="10"/>
+        <v>0.55992000518288398</v>
+      </c>
+      <c r="J84" s="1">
+        <f t="shared" si="10"/>
+        <v>0.65324000604669774</v>
+      </c>
+      <c r="K84" s="1">
+        <f t="shared" si="10"/>
+        <v>0.74656000691051183</v>
+      </c>
+      <c r="L84" s="1">
+        <f t="shared" si="10"/>
+        <v>0.83988000777432581</v>
+      </c>
+      <c r="M84" s="1">
+        <f t="shared" si="10"/>
+        <v>0.93320000863813979</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13">
+      <c r="C85" t="s">
+        <v>954</v>
+      </c>
+      <c r="D85" s="1">
+        <f>D62</f>
+        <v>0.12746090107900782</v>
+      </c>
+      <c r="E85" s="1">
+        <f t="shared" ref="E85:M85" si="11">E62</f>
+        <v>0.25492180215801563</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="11"/>
+        <v>0.38238270323702345</v>
+      </c>
+      <c r="G85" s="1">
+        <f t="shared" si="11"/>
+        <v>0.50984360431603126</v>
+      </c>
+      <c r="H85" s="1">
+        <f t="shared" si="11"/>
+        <v>0.63730450539503902</v>
+      </c>
+      <c r="I85" s="1">
+        <f t="shared" si="11"/>
+        <v>0.76476540647404689</v>
+      </c>
+      <c r="J85" s="1">
+        <f t="shared" si="11"/>
+        <v>0.89222630755305454</v>
+      </c>
+      <c r="K85" s="1">
+        <f t="shared" si="11"/>
+        <v>1.0196872086320625</v>
+      </c>
+      <c r="L85" s="1">
+        <f t="shared" si="11"/>
+        <v>1.1471481097110705</v>
+      </c>
+      <c r="M85" s="1">
+        <f t="shared" si="11"/>
+        <v>1.274609010790078</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13">
+      <c r="C86" t="s">
+        <v>953</v>
+      </c>
+      <c r="D86" s="1">
+        <f>D76</f>
+        <v>0.15701341401709007</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="shared" ref="E86:M86" si="12">E76</f>
+        <v>0.31402682803418014</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" si="12"/>
+        <v>0.47104024205127021</v>
+      </c>
+      <c r="G86" s="1">
+        <f t="shared" si="12"/>
+        <v>0.62805365606836028</v>
+      </c>
+      <c r="H86" s="1">
+        <f t="shared" si="12"/>
+        <v>0.78506707008545029</v>
+      </c>
+      <c r="I86" s="1">
+        <f t="shared" si="12"/>
+        <v>0.94208048410254042</v>
+      </c>
+      <c r="J86" s="1">
+        <f t="shared" si="12"/>
+        <v>1.0990938981196303</v>
+      </c>
+      <c r="K86" s="1">
+        <f t="shared" si="12"/>
+        <v>1.2561073121367206</v>
+      </c>
+      <c r="L86" s="1">
+        <f t="shared" si="12"/>
+        <v>1.4131207261538106</v>
+      </c>
+      <c r="M86" s="1">
+        <f t="shared" si="12"/>
+        <v>1.5701341401709006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66A1CA2A-853B-ED4B-9B61-3E2DB850F93C}">
   <dimension ref="B1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
@@ -14072,1522 +16384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13814647-7FE3-4241-A06A-2FA35BE4FEEB}">
-  <dimension ref="B6:M86"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="2" max="2" width="85.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" spans="2:2" ht="21">
-      <c r="B6" s="73" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="18">
-      <c r="B8" s="73" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="18">
-      <c r="B10" s="73" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" ht="18">
-      <c r="B12" s="73" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" ht="18">
-      <c r="B14" s="73" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" ht="20">
-      <c r="B16" s="73" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="20">
-      <c r="B18" s="73" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="18">
-      <c r="B20" s="74" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="C23" t="s">
-        <v>516</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>710</v>
-      </c>
-      <c r="G23" t="s">
-        <v>516</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="C24" t="s">
-        <v>711</v>
-      </c>
-      <c r="D24">
-        <v>1.41</v>
-      </c>
-      <c r="E24" t="s">
-        <v>717</v>
-      </c>
-      <c r="G24" t="s">
-        <v>711</v>
-      </c>
-      <c r="H24">
-        <v>1.41</v>
-      </c>
-      <c r="I24">
-        <v>1.41</v>
-      </c>
-      <c r="J24" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="C25" t="s">
-        <v>712</v>
-      </c>
-      <c r="D25">
-        <v>14.7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>716</v>
-      </c>
-      <c r="G25" t="s">
-        <v>712</v>
-      </c>
-      <c r="H25">
-        <v>14.7</v>
-      </c>
-      <c r="I25">
-        <v>1.5</v>
-      </c>
-      <c r="J25" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="C26" t="s">
-        <v>713</v>
-      </c>
-      <c r="D26" s="66">
-        <f>D29+14.7</f>
-        <v>60</v>
-      </c>
-      <c r="E26" t="s">
-        <v>716</v>
-      </c>
-      <c r="G26" t="s">
-        <v>713</v>
-      </c>
-      <c r="H26" s="66">
-        <v>30</v>
-      </c>
-      <c r="I26" s="66">
-        <v>14.7</v>
-      </c>
-      <c r="J26" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="C28" t="s">
-        <v>715</v>
-      </c>
-      <c r="D28" s="26">
-        <v>5</v>
-      </c>
-      <c r="E28" t="s">
-        <v>294</v>
-      </c>
-      <c r="G28" t="s">
-        <v>715</v>
-      </c>
-      <c r="H28" s="26">
-        <v>12</v>
-      </c>
-      <c r="I28" s="26">
-        <v>7</v>
-      </c>
-      <c r="J28" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="C29" t="s">
-        <v>714</v>
-      </c>
-      <c r="D29" s="26">
-        <v>45.3</v>
-      </c>
-      <c r="E29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>714</v>
-      </c>
-      <c r="H29" s="26">
-        <v>45.3</v>
-      </c>
-      <c r="I29" s="26">
-        <v>45.3</v>
-      </c>
-      <c r="J29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="C31" t="s">
-        <v>720</v>
-      </c>
-      <c r="D31" s="22">
-        <f>(144*D23*D25*D28*D24/(33000*(D24-1)))*((D26/D25)^((D24-1)/(D23*D24))-1)</f>
-        <v>0.55732237182397459</v>
-      </c>
-      <c r="G31" t="s">
-        <v>720</v>
-      </c>
-      <c r="H31" s="22">
-        <f>(144*H23*H25*H28*H24/(33000*(H24-1)))*((H26/H25)^((H24-1)/(H23*H24))-1)</f>
-        <v>0.61019754123029601</v>
-      </c>
-      <c r="I31" s="22">
-        <f>(144*I23*I25*I28*I24/(33000*(I24-1)))*((I26/I25)^((I24-1)/(I23*I24))-1)</f>
-        <v>0.14841644391600728</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="C32" t="s">
-        <v>719</v>
-      </c>
-      <c r="D32">
-        <v>0.8</v>
-      </c>
-      <c r="G32" t="s">
-        <v>719</v>
-      </c>
-      <c r="H32">
-        <v>0.8</v>
-      </c>
-      <c r="I32">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="33" spans="3:13">
-      <c r="C33" t="s">
-        <v>718</v>
-      </c>
-      <c r="D33" s="1">
-        <f>D31*0.7457/D32</f>
-        <v>0.51949411583642224</v>
-      </c>
-      <c r="G33" t="s">
-        <v>718</v>
-      </c>
-      <c r="H33" s="1">
-        <f>H31*0.7457/H32</f>
-        <v>0.56878038311928969</v>
-      </c>
-      <c r="I33" s="1">
-        <f>I31*0.7457/I32</f>
-        <v>0.13834267778520828</v>
-      </c>
-    </row>
-    <row r="38" spans="3:13">
-      <c r="C38" t="s">
-        <v>516</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>1</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38">
-        <v>1</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="3:13">
-      <c r="C39" t="s">
-        <v>711</v>
-      </c>
-      <c r="D39">
-        <v>1.41</v>
-      </c>
-      <c r="E39">
-        <v>1.41</v>
-      </c>
-      <c r="F39">
-        <v>1.41</v>
-      </c>
-      <c r="G39">
-        <v>1.41</v>
-      </c>
-      <c r="H39">
-        <v>1.41</v>
-      </c>
-      <c r="I39">
-        <v>1.41</v>
-      </c>
-      <c r="J39">
-        <v>1.41</v>
-      </c>
-      <c r="K39">
-        <v>1.41</v>
-      </c>
-      <c r="L39">
-        <v>1.41</v>
-      </c>
-      <c r="M39">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="40" spans="3:13">
-      <c r="C40" t="s">
-        <v>712</v>
-      </c>
-      <c r="D40">
-        <v>14.7</v>
-      </c>
-      <c r="E40">
-        <v>14.7</v>
-      </c>
-      <c r="F40">
-        <v>14.7</v>
-      </c>
-      <c r="G40">
-        <v>14.7</v>
-      </c>
-      <c r="H40">
-        <v>14.7</v>
-      </c>
-      <c r="I40">
-        <v>14.7</v>
-      </c>
-      <c r="J40">
-        <v>14.7</v>
-      </c>
-      <c r="K40">
-        <v>14.7</v>
-      </c>
-      <c r="L40">
-        <v>14.7</v>
-      </c>
-      <c r="M40">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="41" spans="3:13">
-      <c r="C41" t="s">
-        <v>713</v>
-      </c>
-      <c r="D41" s="66">
-        <f t="shared" ref="D41:M41" si="0">D44+14.7</f>
-        <v>29.7</v>
-      </c>
-      <c r="E41" s="66">
-        <f t="shared" si="0"/>
-        <v>29.7</v>
-      </c>
-      <c r="F41" s="66">
-        <f t="shared" si="0"/>
-        <v>29.7</v>
-      </c>
-      <c r="G41" s="66">
-        <f t="shared" si="0"/>
-        <v>29.7</v>
-      </c>
-      <c r="H41" s="66">
-        <f t="shared" si="0"/>
-        <v>29.7</v>
-      </c>
-      <c r="I41" s="66">
-        <f t="shared" si="0"/>
-        <v>29.7</v>
-      </c>
-      <c r="J41" s="66">
-        <f t="shared" si="0"/>
-        <v>29.7</v>
-      </c>
-      <c r="K41" s="66">
-        <f t="shared" si="0"/>
-        <v>29.7</v>
-      </c>
-      <c r="L41" s="66">
-        <f t="shared" si="0"/>
-        <v>29.7</v>
-      </c>
-      <c r="M41" s="66">
-        <f t="shared" si="0"/>
-        <v>29.7</v>
-      </c>
-    </row>
-    <row r="43" spans="3:13">
-      <c r="C43" t="s">
-        <v>715</v>
-      </c>
-      <c r="D43" s="26">
-        <v>2</v>
-      </c>
-      <c r="E43" s="26">
-        <v>4</v>
-      </c>
-      <c r="F43" s="26">
-        <v>6</v>
-      </c>
-      <c r="G43" s="26">
-        <v>8</v>
-      </c>
-      <c r="H43" s="26">
-        <v>10</v>
-      </c>
-      <c r="I43" s="26">
-        <v>12</v>
-      </c>
-      <c r="J43" s="26">
-        <v>14</v>
-      </c>
-      <c r="K43" s="26">
-        <v>16</v>
-      </c>
-      <c r="L43" s="26">
-        <v>18</v>
-      </c>
-      <c r="M43" s="26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="3:13">
-      <c r="C44" t="s">
-        <v>714</v>
-      </c>
-      <c r="D44" s="26">
-        <v>15</v>
-      </c>
-      <c r="E44" s="26">
-        <v>15</v>
-      </c>
-      <c r="F44" s="26">
-        <v>15</v>
-      </c>
-      <c r="G44" s="26">
-        <v>15</v>
-      </c>
-      <c r="H44" s="26">
-        <v>15</v>
-      </c>
-      <c r="I44" s="26">
-        <v>15</v>
-      </c>
-      <c r="J44" s="26">
-        <v>15</v>
-      </c>
-      <c r="K44" s="26">
-        <v>15</v>
-      </c>
-      <c r="L44" s="26">
-        <v>15</v>
-      </c>
-      <c r="M44" s="26">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" spans="3:13">
-      <c r="C46" t="s">
-        <v>720</v>
-      </c>
-      <c r="D46" s="22">
-        <f t="shared" ref="D46:M46" si="1">(144*D38*D40*D43*D39/(33000*(D39-1)))*((D41/D40)^((D39-1)/(D38*D39))-1)</f>
-        <v>0.10011532880655918</v>
-      </c>
-      <c r="E46" s="22">
-        <f t="shared" si="1"/>
-        <v>0.20023065761311837</v>
-      </c>
-      <c r="F46" s="22">
-        <f t="shared" si="1"/>
-        <v>0.30034598641967758</v>
-      </c>
-      <c r="G46" s="22">
-        <f t="shared" si="1"/>
-        <v>0.40046131522623674</v>
-      </c>
-      <c r="H46" s="22">
-        <f t="shared" si="1"/>
-        <v>0.50057664403279589</v>
-      </c>
-      <c r="I46" s="22">
-        <f t="shared" si="1"/>
-        <v>0.60069197283935516</v>
-      </c>
-      <c r="J46" s="22">
-        <f t="shared" si="1"/>
-        <v>0.7008073016459142</v>
-      </c>
-      <c r="K46" s="22">
-        <f t="shared" si="1"/>
-        <v>0.80092263045247347</v>
-      </c>
-      <c r="L46" s="22">
-        <f t="shared" si="1"/>
-        <v>0.90103795925903263</v>
-      </c>
-      <c r="M46" s="22">
-        <f t="shared" si="1"/>
-        <v>1.0011532880655918</v>
-      </c>
-    </row>
-    <row r="47" spans="3:13">
-      <c r="C47" t="s">
-        <v>719</v>
-      </c>
-      <c r="D47">
-        <v>0.8</v>
-      </c>
-      <c r="E47">
-        <v>0.8</v>
-      </c>
-      <c r="F47">
-        <v>0.8</v>
-      </c>
-      <c r="G47">
-        <v>0.8</v>
-      </c>
-      <c r="H47">
-        <v>0.8</v>
-      </c>
-      <c r="I47">
-        <v>0.8</v>
-      </c>
-      <c r="J47">
-        <v>0.8</v>
-      </c>
-      <c r="K47">
-        <v>0.8</v>
-      </c>
-      <c r="L47">
-        <v>0.8</v>
-      </c>
-      <c r="M47">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="48" spans="3:13">
-      <c r="C48" t="s">
-        <v>718</v>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" ref="D48:M48" si="2">D46*0.7457/D47</f>
-        <v>9.3320000863813979E-2</v>
-      </c>
-      <c r="E48" s="1">
-        <f t="shared" si="2"/>
-        <v>0.18664000172762796</v>
-      </c>
-      <c r="F48" s="1">
-        <f t="shared" si="2"/>
-        <v>0.27996000259144199</v>
-      </c>
-      <c r="G48" s="1">
-        <f t="shared" si="2"/>
-        <v>0.37328000345525592</v>
-      </c>
-      <c r="H48" s="1">
-        <f t="shared" si="2"/>
-        <v>0.46660000431906989</v>
-      </c>
-      <c r="I48" s="1">
-        <f t="shared" si="2"/>
-        <v>0.55992000518288398</v>
-      </c>
-      <c r="J48" s="1">
-        <f t="shared" si="2"/>
-        <v>0.65324000604669774</v>
-      </c>
-      <c r="K48" s="1">
-        <f t="shared" si="2"/>
-        <v>0.74656000691051183</v>
-      </c>
-      <c r="L48" s="1">
-        <f t="shared" si="2"/>
-        <v>0.83988000777432581</v>
-      </c>
-      <c r="M48" s="1">
-        <f t="shared" si="2"/>
-        <v>0.93320000863813979</v>
-      </c>
-    </row>
-    <row r="52" spans="3:13">
-      <c r="C52" t="s">
-        <v>516</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>1</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52">
-        <v>1</v>
-      </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="3:13">
-      <c r="C53" t="s">
-        <v>711</v>
-      </c>
-      <c r="D53">
-        <v>1.41</v>
-      </c>
-      <c r="E53">
-        <v>1.41</v>
-      </c>
-      <c r="F53">
-        <v>1.41</v>
-      </c>
-      <c r="G53">
-        <v>1.41</v>
-      </c>
-      <c r="H53">
-        <v>1.41</v>
-      </c>
-      <c r="I53">
-        <v>1.41</v>
-      </c>
-      <c r="J53">
-        <v>1.41</v>
-      </c>
-      <c r="K53">
-        <v>1.41</v>
-      </c>
-      <c r="L53">
-        <v>1.41</v>
-      </c>
-      <c r="M53">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="54" spans="3:13">
-      <c r="C54" t="s">
-        <v>712</v>
-      </c>
-      <c r="D54">
-        <v>14.7</v>
-      </c>
-      <c r="E54">
-        <v>14.7</v>
-      </c>
-      <c r="F54">
-        <v>14.7</v>
-      </c>
-      <c r="G54">
-        <v>14.7</v>
-      </c>
-      <c r="H54">
-        <v>14.7</v>
-      </c>
-      <c r="I54">
-        <v>14.7</v>
-      </c>
-      <c r="J54">
-        <v>14.7</v>
-      </c>
-      <c r="K54">
-        <v>14.7</v>
-      </c>
-      <c r="L54">
-        <v>14.7</v>
-      </c>
-      <c r="M54">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="55" spans="3:13">
-      <c r="C55" t="s">
-        <v>713</v>
-      </c>
-      <c r="D55" s="66">
-        <f t="shared" ref="D55:M55" si="3">D58+14.7</f>
-        <v>39.700000000000003</v>
-      </c>
-      <c r="E55" s="66">
-        <f t="shared" si="3"/>
-        <v>39.700000000000003</v>
-      </c>
-      <c r="F55" s="66">
-        <f t="shared" si="3"/>
-        <v>39.700000000000003</v>
-      </c>
-      <c r="G55" s="66">
-        <f t="shared" si="3"/>
-        <v>39.700000000000003</v>
-      </c>
-      <c r="H55" s="66">
-        <f t="shared" si="3"/>
-        <v>39.700000000000003</v>
-      </c>
-      <c r="I55" s="66">
-        <f t="shared" si="3"/>
-        <v>39.700000000000003</v>
-      </c>
-      <c r="J55" s="66">
-        <f t="shared" si="3"/>
-        <v>39.700000000000003</v>
-      </c>
-      <c r="K55" s="66">
-        <f t="shared" si="3"/>
-        <v>39.700000000000003</v>
-      </c>
-      <c r="L55" s="66">
-        <f t="shared" si="3"/>
-        <v>39.700000000000003</v>
-      </c>
-      <c r="M55" s="66">
-        <f t="shared" si="3"/>
-        <v>39.700000000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="3:13">
-      <c r="C57" t="s">
-        <v>715</v>
-      </c>
-      <c r="D57" s="26">
-        <v>2</v>
-      </c>
-      <c r="E57" s="26">
-        <v>4</v>
-      </c>
-      <c r="F57" s="26">
-        <v>6</v>
-      </c>
-      <c r="G57" s="26">
-        <v>8</v>
-      </c>
-      <c r="H57" s="26">
-        <v>10</v>
-      </c>
-      <c r="I57" s="26">
-        <v>12</v>
-      </c>
-      <c r="J57" s="26">
-        <v>14</v>
-      </c>
-      <c r="K57" s="26">
-        <v>16</v>
-      </c>
-      <c r="L57" s="26">
-        <v>18</v>
-      </c>
-      <c r="M57" s="26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="3:13">
-      <c r="C58" t="s">
-        <v>714</v>
-      </c>
-      <c r="D58" s="26">
-        <v>25</v>
-      </c>
-      <c r="E58" s="26">
-        <v>25</v>
-      </c>
-      <c r="F58" s="26">
-        <v>25</v>
-      </c>
-      <c r="G58" s="26">
-        <v>25</v>
-      </c>
-      <c r="H58" s="26">
-        <v>25</v>
-      </c>
-      <c r="I58" s="26">
-        <v>25</v>
-      </c>
-      <c r="J58" s="26">
-        <v>25</v>
-      </c>
-      <c r="K58" s="26">
-        <v>25</v>
-      </c>
-      <c r="L58" s="26">
-        <v>25</v>
-      </c>
-      <c r="M58" s="26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="3:13">
-      <c r="C60" t="s">
-        <v>720</v>
-      </c>
-      <c r="D60" s="22">
-        <f t="shared" ref="D60:M60" si="4">(144*D52*D54*D57*D53/(33000*(D53-1)))*((D55/D54)^((D53-1)/(D52*D53))-1)</f>
-        <v>0.14777686857041858</v>
-      </c>
-      <c r="E60" s="22">
-        <f t="shared" si="4"/>
-        <v>0.29555373714083716</v>
-      </c>
-      <c r="F60" s="22">
-        <f t="shared" si="4"/>
-        <v>0.44333060571125571</v>
-      </c>
-      <c r="G60" s="22">
-        <f t="shared" si="4"/>
-        <v>0.59110747428167432</v>
-      </c>
-      <c r="H60" s="22">
-        <f t="shared" si="4"/>
-        <v>0.73888434285209292</v>
-      </c>
-      <c r="I60" s="22">
-        <f t="shared" si="4"/>
-        <v>0.88666121142251142</v>
-      </c>
-      <c r="J60" s="22">
-        <f t="shared" si="4"/>
-        <v>1.0344380799929298</v>
-      </c>
-      <c r="K60" s="22">
-        <f t="shared" si="4"/>
-        <v>1.1822149485633486</v>
-      </c>
-      <c r="L60" s="22">
-        <f t="shared" si="4"/>
-        <v>1.3299918171337672</v>
-      </c>
-      <c r="M60" s="22">
-        <f t="shared" si="4"/>
-        <v>1.4777686857041858</v>
-      </c>
-    </row>
-    <row r="61" spans="3:13">
-      <c r="C61" t="s">
-        <v>719</v>
-      </c>
-      <c r="D61">
-        <v>0.8</v>
-      </c>
-      <c r="E61">
-        <v>0.8</v>
-      </c>
-      <c r="F61">
-        <v>0.8</v>
-      </c>
-      <c r="G61">
-        <v>0.8</v>
-      </c>
-      <c r="H61">
-        <v>0.8</v>
-      </c>
-      <c r="I61">
-        <v>0.8</v>
-      </c>
-      <c r="J61">
-        <v>0.8</v>
-      </c>
-      <c r="K61">
-        <v>0.8</v>
-      </c>
-      <c r="L61">
-        <v>0.8</v>
-      </c>
-      <c r="M61">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="62" spans="3:13">
-      <c r="C62" t="s">
-        <v>718</v>
-      </c>
-      <c r="D62" s="1">
-        <f t="shared" ref="D62:M62" si="5">D60*0.7457/D61</f>
-        <v>0.13774651361620141</v>
-      </c>
-      <c r="E62" s="1">
-        <f t="shared" si="5"/>
-        <v>0.27549302723240282</v>
-      </c>
-      <c r="F62" s="1">
-        <f t="shared" si="5"/>
-        <v>0.41323954084860426</v>
-      </c>
-      <c r="G62" s="1">
-        <f t="shared" si="5"/>
-        <v>0.55098605446480564</v>
-      </c>
-      <c r="H62" s="1">
-        <f t="shared" si="5"/>
-        <v>0.68873256808100713</v>
-      </c>
-      <c r="I62" s="1">
-        <f t="shared" si="5"/>
-        <v>0.82647908169720852</v>
-      </c>
-      <c r="J62" s="1">
-        <f t="shared" si="5"/>
-        <v>0.96422559531340968</v>
-      </c>
-      <c r="K62" s="1">
-        <f t="shared" si="5"/>
-        <v>1.1019721089296113</v>
-      </c>
-      <c r="L62" s="1">
-        <f t="shared" si="5"/>
-        <v>1.2397186225458128</v>
-      </c>
-      <c r="M62" s="1">
-        <f t="shared" si="5"/>
-        <v>1.3774651361620143</v>
-      </c>
-    </row>
-    <row r="66" spans="3:13">
-      <c r="C66" t="s">
-        <v>516</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>1</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="3:13">
-      <c r="C67" t="s">
-        <v>711</v>
-      </c>
-      <c r="D67">
-        <v>1.41</v>
-      </c>
-      <c r="E67">
-        <v>1.41</v>
-      </c>
-      <c r="F67">
-        <v>1.41</v>
-      </c>
-      <c r="G67">
-        <v>1.41</v>
-      </c>
-      <c r="H67">
-        <v>1.41</v>
-      </c>
-      <c r="I67">
-        <v>1.41</v>
-      </c>
-      <c r="J67">
-        <v>1.41</v>
-      </c>
-      <c r="K67">
-        <v>1.41</v>
-      </c>
-      <c r="L67">
-        <v>1.41</v>
-      </c>
-      <c r="M67">
-        <v>1.41</v>
-      </c>
-    </row>
-    <row r="68" spans="3:13">
-      <c r="C68" t="s">
-        <v>712</v>
-      </c>
-      <c r="D68">
-        <v>14.7</v>
-      </c>
-      <c r="E68">
-        <v>14.7</v>
-      </c>
-      <c r="F68">
-        <v>14.7</v>
-      </c>
-      <c r="G68">
-        <v>14.7</v>
-      </c>
-      <c r="H68">
-        <v>14.7</v>
-      </c>
-      <c r="I68">
-        <v>14.7</v>
-      </c>
-      <c r="J68">
-        <v>14.7</v>
-      </c>
-      <c r="K68">
-        <v>14.7</v>
-      </c>
-      <c r="L68">
-        <v>14.7</v>
-      </c>
-      <c r="M68">
-        <v>14.7</v>
-      </c>
-    </row>
-    <row r="69" spans="3:13">
-      <c r="C69" t="s">
-        <v>713</v>
-      </c>
-      <c r="D69" s="66">
-        <f t="shared" ref="D69:M69" si="6">D72+14.7</f>
-        <v>54.7</v>
-      </c>
-      <c r="E69" s="66">
-        <f t="shared" si="6"/>
-        <v>54.7</v>
-      </c>
-      <c r="F69" s="66">
-        <f t="shared" si="6"/>
-        <v>54.7</v>
-      </c>
-      <c r="G69" s="66">
-        <f t="shared" si="6"/>
-        <v>54.7</v>
-      </c>
-      <c r="H69" s="66">
-        <f t="shared" si="6"/>
-        <v>54.7</v>
-      </c>
-      <c r="I69" s="66">
-        <f t="shared" si="6"/>
-        <v>54.7</v>
-      </c>
-      <c r="J69" s="66">
-        <f t="shared" si="6"/>
-        <v>54.7</v>
-      </c>
-      <c r="K69" s="66">
-        <f t="shared" si="6"/>
-        <v>54.7</v>
-      </c>
-      <c r="L69" s="66">
-        <f t="shared" si="6"/>
-        <v>54.7</v>
-      </c>
-      <c r="M69" s="66">
-        <f t="shared" si="6"/>
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="71" spans="3:13">
-      <c r="C71" t="s">
-        <v>715</v>
-      </c>
-      <c r="D71" s="26">
-        <v>2</v>
-      </c>
-      <c r="E71" s="26">
-        <v>4</v>
-      </c>
-      <c r="F71" s="26">
-        <v>6</v>
-      </c>
-      <c r="G71" s="26">
-        <v>8</v>
-      </c>
-      <c r="H71" s="26">
-        <v>10</v>
-      </c>
-      <c r="I71" s="26">
-        <v>12</v>
-      </c>
-      <c r="J71" s="26">
-        <v>14</v>
-      </c>
-      <c r="K71" s="26">
-        <v>16</v>
-      </c>
-      <c r="L71" s="26">
-        <v>18</v>
-      </c>
-      <c r="M71" s="26">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="3:13">
-      <c r="C72" t="s">
-        <v>714</v>
-      </c>
-      <c r="D72" s="26">
-        <v>40</v>
-      </c>
-      <c r="E72" s="26">
-        <v>40</v>
-      </c>
-      <c r="F72" s="26">
-        <v>40</v>
-      </c>
-      <c r="G72" s="26">
-        <v>40</v>
-      </c>
-      <c r="H72" s="26">
-        <v>40</v>
-      </c>
-      <c r="I72" s="26">
-        <v>40</v>
-      </c>
-      <c r="J72" s="26">
-        <v>40</v>
-      </c>
-      <c r="K72" s="26">
-        <v>40</v>
-      </c>
-      <c r="L72" s="26">
-        <v>40</v>
-      </c>
-      <c r="M72" s="26">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="3:13">
-      <c r="C74" t="s">
-        <v>720</v>
-      </c>
-      <c r="D74" s="22">
-        <f t="shared" ref="D74:M74" si="7">(144*D66*D68*D71*D67/(33000*(D67-1)))*((D69/D68)^((D67-1)/(D66*D67))-1)</f>
-        <v>0.2053075762552144</v>
-      </c>
-      <c r="E74" s="22">
-        <f t="shared" si="7"/>
-        <v>0.41061515251042879</v>
-      </c>
-      <c r="F74" s="22">
-        <f t="shared" si="7"/>
-        <v>0.61592272876564313</v>
-      </c>
-      <c r="G74" s="22">
-        <f t="shared" si="7"/>
-        <v>0.82123030502085759</v>
-      </c>
-      <c r="H74" s="22">
-        <f t="shared" si="7"/>
-        <v>1.0265378812760719</v>
-      </c>
-      <c r="I74" s="22">
-        <f t="shared" si="7"/>
-        <v>1.2318454575312863</v>
-      </c>
-      <c r="J74" s="22">
-        <f t="shared" si="7"/>
-        <v>1.4371530337865004</v>
-      </c>
-      <c r="K74" s="22">
-        <f t="shared" si="7"/>
-        <v>1.6424606100417152</v>
-      </c>
-      <c r="L74" s="22">
-        <f t="shared" si="7"/>
-        <v>1.8477681862969295</v>
-      </c>
-      <c r="M74" s="22">
-        <f t="shared" si="7"/>
-        <v>2.0530757625521439</v>
-      </c>
-    </row>
-    <row r="75" spans="3:13">
-      <c r="C75" t="s">
-        <v>719</v>
-      </c>
-      <c r="D75">
-        <v>0.8</v>
-      </c>
-      <c r="E75">
-        <v>0.8</v>
-      </c>
-      <c r="F75">
-        <v>0.8</v>
-      </c>
-      <c r="G75">
-        <v>0.8</v>
-      </c>
-      <c r="H75">
-        <v>0.8</v>
-      </c>
-      <c r="I75">
-        <v>0.8</v>
-      </c>
-      <c r="J75">
-        <v>0.8</v>
-      </c>
-      <c r="K75">
-        <v>0.8</v>
-      </c>
-      <c r="L75">
-        <v>0.8</v>
-      </c>
-      <c r="M75">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="76" spans="3:13">
-      <c r="C76" t="s">
-        <v>718</v>
-      </c>
-      <c r="D76" s="1">
-        <f t="shared" ref="D76:M76" si="8">D74*0.7457/D75</f>
-        <v>0.19137232451689171</v>
-      </c>
-      <c r="E76" s="1">
-        <f t="shared" si="8"/>
-        <v>0.38274464903378341</v>
-      </c>
-      <c r="F76" s="1">
-        <f t="shared" si="8"/>
-        <v>0.57411697355067515</v>
-      </c>
-      <c r="G76" s="1">
-        <f t="shared" si="8"/>
-        <v>0.76548929806756683</v>
-      </c>
-      <c r="H76" s="1">
-        <f t="shared" si="8"/>
-        <v>0.9568616225844585</v>
-      </c>
-      <c r="I76" s="1">
-        <f t="shared" si="8"/>
-        <v>1.1482339471013503</v>
-      </c>
-      <c r="J76" s="1">
-        <f t="shared" si="8"/>
-        <v>1.3396062716182415</v>
-      </c>
-      <c r="K76" s="1">
-        <f t="shared" si="8"/>
-        <v>1.5309785961351337</v>
-      </c>
-      <c r="L76" s="1">
-        <f t="shared" si="8"/>
-        <v>1.7223509206520253</v>
-      </c>
-      <c r="M76" s="1">
-        <f t="shared" si="8"/>
-        <v>1.913723245168917</v>
-      </c>
-    </row>
-    <row r="77" spans="3:13">
-      <c r="D77" s="26"/>
-      <c r="E77" s="26"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="26"/>
-      <c r="H77" s="26"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="26"/>
-      <c r="M77" s="26"/>
-    </row>
-    <row r="78" spans="3:13">
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="26"/>
-      <c r="M78" s="26"/>
-    </row>
-    <row r="80" spans="3:13">
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-      <c r="K80" s="22"/>
-      <c r="L80" s="22"/>
-      <c r="M80" s="22"/>
-    </row>
-    <row r="82" spans="3:13">
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-      <c r="L82" s="1"/>
-      <c r="M82" s="1"/>
-    </row>
-    <row r="83" spans="3:13">
-      <c r="D83">
-        <f>D71</f>
-        <v>2</v>
-      </c>
-      <c r="E83">
-        <f t="shared" ref="E83:M83" si="9">E71</f>
-        <v>4</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="G83">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="H83">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="I83">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="J83">
-        <f t="shared" si="9"/>
-        <v>14</v>
-      </c>
-      <c r="K83">
-        <f t="shared" si="9"/>
-        <v>16</v>
-      </c>
-      <c r="L83">
-        <f t="shared" si="9"/>
-        <v>18</v>
-      </c>
-      <c r="M83">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="3:13">
-      <c r="C84" t="s">
-        <v>954</v>
-      </c>
-      <c r="D84" s="1">
-        <f>D48</f>
-        <v>9.3320000863813979E-2</v>
-      </c>
-      <c r="E84" s="1">
-        <f t="shared" ref="E84:M84" si="10">E48</f>
-        <v>0.18664000172762796</v>
-      </c>
-      <c r="F84" s="1">
-        <f t="shared" si="10"/>
-        <v>0.27996000259144199</v>
-      </c>
-      <c r="G84" s="1">
-        <f t="shared" si="10"/>
-        <v>0.37328000345525592</v>
-      </c>
-      <c r="H84" s="1">
-        <f t="shared" si="10"/>
-        <v>0.46660000431906989</v>
-      </c>
-      <c r="I84" s="1">
-        <f t="shared" si="10"/>
-        <v>0.55992000518288398</v>
-      </c>
-      <c r="J84" s="1">
-        <f t="shared" si="10"/>
-        <v>0.65324000604669774</v>
-      </c>
-      <c r="K84" s="1">
-        <f t="shared" si="10"/>
-        <v>0.74656000691051183</v>
-      </c>
-      <c r="L84" s="1">
-        <f t="shared" si="10"/>
-        <v>0.83988000777432581</v>
-      </c>
-      <c r="M84" s="1">
-        <f t="shared" si="10"/>
-        <v>0.93320000863813979</v>
-      </c>
-    </row>
-    <row r="85" spans="3:13">
-      <c r="C85" t="s">
-        <v>956</v>
-      </c>
-      <c r="D85" s="1">
-        <f>D62</f>
-        <v>0.13774651361620141</v>
-      </c>
-      <c r="E85" s="1">
-        <f t="shared" ref="E85:M85" si="11">E62</f>
-        <v>0.27549302723240282</v>
-      </c>
-      <c r="F85" s="1">
-        <f t="shared" si="11"/>
-        <v>0.41323954084860426</v>
-      </c>
-      <c r="G85" s="1">
-        <f t="shared" si="11"/>
-        <v>0.55098605446480564</v>
-      </c>
-      <c r="H85" s="1">
-        <f t="shared" si="11"/>
-        <v>0.68873256808100713</v>
-      </c>
-      <c r="I85" s="1">
-        <f t="shared" si="11"/>
-        <v>0.82647908169720852</v>
-      </c>
-      <c r="J85" s="1">
-        <f t="shared" si="11"/>
-        <v>0.96422559531340968</v>
-      </c>
-      <c r="K85" s="1">
-        <f t="shared" si="11"/>
-        <v>1.1019721089296113</v>
-      </c>
-      <c r="L85" s="1">
-        <f t="shared" si="11"/>
-        <v>1.2397186225458128</v>
-      </c>
-      <c r="M85" s="1">
-        <f t="shared" si="11"/>
-        <v>1.3774651361620143</v>
-      </c>
-    </row>
-    <row r="86" spans="3:13">
-      <c r="C86" t="s">
-        <v>955</v>
-      </c>
-      <c r="D86" s="1">
-        <f>D76</f>
-        <v>0.19137232451689171</v>
-      </c>
-      <c r="E86" s="1">
-        <f t="shared" ref="E86:M86" si="12">E76</f>
-        <v>0.38274464903378341</v>
-      </c>
-      <c r="F86" s="1">
-        <f t="shared" si="12"/>
-        <v>0.57411697355067515</v>
-      </c>
-      <c r="G86" s="1">
-        <f t="shared" si="12"/>
-        <v>0.76548929806756683</v>
-      </c>
-      <c r="H86" s="1">
-        <f t="shared" si="12"/>
-        <v>0.9568616225844585</v>
-      </c>
-      <c r="I86" s="1">
-        <f t="shared" si="12"/>
-        <v>1.1482339471013503</v>
-      </c>
-      <c r="J86" s="1">
-        <f t="shared" si="12"/>
-        <v>1.3396062716182415</v>
-      </c>
-      <c r="K86" s="1">
-        <f t="shared" si="12"/>
-        <v>1.5309785961351337</v>
-      </c>
-      <c r="L86" s="1">
-        <f t="shared" si="12"/>
-        <v>1.7223509206520253</v>
-      </c>
-      <c r="M86" s="1">
-        <f t="shared" si="12"/>
-        <v>1.913723245168917</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD6AD22-5ABD-AE4D-A650-F4BBFE0C2BBE}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -16577,7 +17374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED281B2-800D-E543-823D-46745B9B817E}">
   <dimension ref="B2:K31"/>
   <sheetViews>
@@ -16959,10 +17756,428 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1929F55-6959-F041-B63F-D8E2040590AE}">
+  <dimension ref="A1:G39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20">
+      <c r="B5" s="73" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18">
+      <c r="B6" s="73"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="21">
+      <c r="B8" s="73" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="51">
+      <c r="C20" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
+        <v>859</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C22" s="3">
+        <v>38</v>
+      </c>
+      <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22">
+        <v>27</v>
+      </c>
+      <c r="F22">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C23" s="21">
+        <f>(C21/2)^2*PI()</f>
+        <v>13.854423602330987</v>
+      </c>
+      <c r="D23" s="21">
+        <f>(D21/2)^2*PI()</f>
+        <v>1.1309733552923256</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>40</v>
+      </c>
+      <c r="G23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C24" s="21">
+        <f>C23*C22</f>
+        <v>526.46809688857752</v>
+      </c>
+      <c r="D24" s="21">
+        <f>D23*D22</f>
+        <v>452.38934211693021</v>
+      </c>
+      <c r="E24" s="21">
+        <f>E23*E22</f>
+        <v>810</v>
+      </c>
+      <c r="F24" s="21">
+        <f>F23*F22</f>
+        <v>1080</v>
+      </c>
+      <c r="G24" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C26" s="3">
+        <v>75</v>
+      </c>
+      <c r="D26" s="3">
+        <v>160</v>
+      </c>
+      <c r="E26">
+        <v>200</v>
+      </c>
+      <c r="F26">
+        <v>550</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C27" s="3">
+        <v>150</v>
+      </c>
+      <c r="D27" s="3">
+        <v>150</v>
+      </c>
+      <c r="E27">
+        <v>150</v>
+      </c>
+      <c r="F27">
+        <v>150</v>
+      </c>
+      <c r="G27" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C29" s="3">
+        <f>C26*1000/60</f>
+        <v>1250</v>
+      </c>
+      <c r="D29" s="81">
+        <f>D26*1000/60</f>
+        <v>2666.6666666666665</v>
+      </c>
+      <c r="E29" s="81">
+        <f>E26*1000/60</f>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="F29" s="81">
+        <f>F26*1000/60</f>
+        <v>9166.6666666666661</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C30" s="3">
+        <f>C29*100/(100+C27)</f>
+        <v>500</v>
+      </c>
+      <c r="D30" s="81">
+        <f>D29*100/(100+D27)</f>
+        <v>1066.6666666666665</v>
+      </c>
+      <c r="E30" s="81">
+        <f>E29*100/(100+E27)</f>
+        <v>1333.3333333333335</v>
+      </c>
+      <c r="F30" s="81">
+        <f>F29*100/(100+F27)</f>
+        <v>3666.6666666666665</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="C31" s="5">
+        <f>C30/C23</f>
+        <v>36.08955625666561</v>
+      </c>
+      <c r="D31" s="5">
+        <f>D30/D23</f>
+        <v>943.14040350752782</v>
+      </c>
+      <c r="E31" s="5">
+        <f>E30/E23</f>
+        <v>44.44444444444445</v>
+      </c>
+      <c r="F31" s="5">
+        <f>F30/F23</f>
+        <v>91.666666666666657</v>
+      </c>
+      <c r="G31" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C32" s="21">
+        <f>C31/100</f>
+        <v>0.36089556256665611</v>
+      </c>
+      <c r="D32" s="21">
+        <f>D31/100</f>
+        <v>9.4314040350752784</v>
+      </c>
+      <c r="E32" s="21">
+        <f>E31/100</f>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="F32" s="21">
+        <f>F31/100</f>
+        <v>0.91666666666666652</v>
+      </c>
+      <c r="G32" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C34" s="21">
+        <f>12.12-(1.16*C32)+11.6*C32^0.5</f>
+        <v>18.670012874906931</v>
+      </c>
+      <c r="D34" s="21">
+        <f>12.12-(1.16*D32)+11.6*D32^0.5</f>
+        <v>36.803856953690378</v>
+      </c>
+      <c r="E34" s="21">
+        <f>12.12-(1.16*E32)+11.6*E32^0.5</f>
+        <v>19.337777777777777</v>
+      </c>
+      <c r="F34" s="21">
+        <f>12.12-(1.16*F32)+11.6*F32^0.5</f>
+        <v>22.162821116640188</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C35" s="21">
+        <f>PI()*C21*C22</f>
+        <v>501.39818751293097</v>
+      </c>
+      <c r="D35" s="21">
+        <f>PI()*D21*D22</f>
+        <v>1507.9644737231006</v>
+      </c>
+      <c r="E35" s="21">
+        <v>8500</v>
+      </c>
+      <c r="F35" s="21">
+        <v>11350</v>
+      </c>
+      <c r="G35" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" t="s">
+        <v>383</v>
+      </c>
+      <c r="C36" s="141">
+        <f>C35/10000</f>
+        <v>5.01398187512931E-2</v>
+      </c>
+      <c r="D36" s="141">
+        <f>D35/10000</f>
+        <v>0.15079644737231007</v>
+      </c>
+      <c r="E36" s="141">
+        <f>E35/10000</f>
+        <v>0.85</v>
+      </c>
+      <c r="F36" s="141">
+        <f>F35/10000</f>
+        <v>1.135</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C37" s="3">
+        <v>45</v>
+      </c>
+      <c r="D37" s="3">
+        <v>45</v>
+      </c>
+      <c r="E37" s="3">
+        <v>45</v>
+      </c>
+      <c r="F37" s="3">
+        <v>45</v>
+      </c>
+      <c r="G37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C38" s="3">
+        <v>25</v>
+      </c>
+      <c r="D38" s="3">
+        <v>25</v>
+      </c>
+      <c r="E38" s="3">
+        <v>25</v>
+      </c>
+      <c r="F38" s="3">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C39" s="21">
+        <f>C34*C36*(C37-C38)</f>
+        <v>18.722221232642841</v>
+      </c>
+      <c r="D39" s="21">
+        <f>D34*D36*(D37-D38)</f>
+        <v>110.99781756430397</v>
+      </c>
+      <c r="E39" s="21">
+        <f>E34*E36*(E37-E38)</f>
+        <v>328.74222222222221</v>
+      </c>
+      <c r="F39" s="21">
+        <f>F34*F36*(F37-F38)</f>
+        <v>503.0960393477323</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A92951-6279-C747-9995-D816418717D6}">
   <dimension ref="C6:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
@@ -16970,15 +18185,15 @@
   <sheetData>
     <row r="6" spans="3:7">
       <c r="C6" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="8" spans="3:7">
       <c r="C8" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D8">
         <v>0.63</v>
@@ -16986,7 +18201,7 @@
     </row>
     <row r="10" spans="3:7">
       <c r="C10" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D10">
         <v>1.5</v>
@@ -16997,7 +18212,7 @@
     </row>
     <row r="11" spans="3:7">
       <c r="C11" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D11">
         <v>7.8</v>
@@ -17008,7 +18223,7 @@
     </row>
     <row r="12" spans="3:7">
       <c r="C12" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D12">
         <v>18.7</v>
@@ -17038,19 +18253,19 @@
         <v>3442.0325838305453</v>
       </c>
       <c r="E15" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="16" spans="3:7">
       <c r="C16" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D16" s="2">
         <f>D8*D15</f>
         <v>2168.4805278132435</v>
       </c>
       <c r="E16" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
   </sheetData>
@@ -17058,12 +18273,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F13C8F-9705-F246-8105-C31D60AD91CE}">
-  <dimension ref="C4:H34"/>
+  <dimension ref="C4:P76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="M67" sqref="M67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -17300,7 +18515,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="34" spans="4:8">
+    <row r="34" spans="3:16">
       <c r="D34">
         <f>D31-D28</f>
         <v>31.359999999999996</v>
@@ -17319,6 +18534,899 @@
       </c>
       <c r="H34" t="s">
         <v>738</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16">
+      <c r="D39" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16">
+      <c r="C40" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D40" s="3">
+        <v>5</v>
+      </c>
+      <c r="E40" s="3">
+        <v>3.89</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="G40" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="I40" s="3">
+        <v>2.56</v>
+      </c>
+      <c r="J40" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16">
+      <c r="C41" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D41" s="5">
+        <f>D40*$G34</f>
+        <v>78.400000000000006</v>
+      </c>
+      <c r="E41" s="5">
+        <f>E40*$G34</f>
+        <v>60.995200000000011</v>
+      </c>
+      <c r="F41" s="5">
+        <f>F40*$G34</f>
+        <v>20.070400000000003</v>
+      </c>
+      <c r="G41" s="5">
+        <f>G40*$G34</f>
+        <v>40.140800000000006</v>
+      </c>
+      <c r="H41" s="5">
+        <f>H40*$G34</f>
+        <v>40.140800000000006</v>
+      </c>
+      <c r="I41" s="5">
+        <f>I40*$G34</f>
+        <v>40.140800000000006</v>
+      </c>
+      <c r="J41" s="5">
+        <f>J40*$G34</f>
+        <v>25.088000000000005</v>
+      </c>
+      <c r="K41" s="5">
+        <f>K40*$G34</f>
+        <v>10.976000000000001</v>
+      </c>
+      <c r="L41" s="5">
+        <f>L40*$G34</f>
+        <v>10.976000000000001</v>
+      </c>
+      <c r="M41" s="5">
+        <f>M40*$G34</f>
+        <v>8.6240000000000023</v>
+      </c>
+      <c r="N41" s="5">
+        <f>N40*$G34</f>
+        <v>8.6240000000000023</v>
+      </c>
+      <c r="O41" t="s">
+        <v>355</v>
+      </c>
+      <c r="P41" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16">
+      <c r="C42" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D42" s="3">
+        <v>550</v>
+      </c>
+      <c r="E42" s="3">
+        <v>550</v>
+      </c>
+      <c r="F42" s="3">
+        <v>264</v>
+      </c>
+      <c r="G42" s="3">
+        <v>264</v>
+      </c>
+      <c r="H42" s="3">
+        <v>210</v>
+      </c>
+      <c r="I42" s="3">
+        <v>192</v>
+      </c>
+      <c r="J42" s="3">
+        <v>192</v>
+      </c>
+      <c r="K42" s="3">
+        <v>85</v>
+      </c>
+      <c r="L42" s="3">
+        <v>75</v>
+      </c>
+      <c r="M42" s="3">
+        <v>100</v>
+      </c>
+      <c r="N42" s="3">
+        <v>50</v>
+      </c>
+      <c r="O42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16">
+      <c r="C43" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D43" s="5">
+        <f>D42*0.79</f>
+        <v>434.5</v>
+      </c>
+      <c r="E43" s="5">
+        <f>E42*0.79</f>
+        <v>434.5</v>
+      </c>
+      <c r="F43" s="5">
+        <f>F42*0.79</f>
+        <v>208.56</v>
+      </c>
+      <c r="G43" s="5">
+        <f>G42*0.79</f>
+        <v>208.56</v>
+      </c>
+      <c r="H43" s="5">
+        <f>H42*0.79</f>
+        <v>165.9</v>
+      </c>
+      <c r="I43" s="5">
+        <f>I42*0.79</f>
+        <v>151.68</v>
+      </c>
+      <c r="J43" s="5">
+        <f>J42*0.79</f>
+        <v>151.68</v>
+      </c>
+      <c r="K43" s="5">
+        <f>K42*0.79</f>
+        <v>67.150000000000006</v>
+      </c>
+      <c r="L43" s="5">
+        <f>L42*0.79</f>
+        <v>59.25</v>
+      </c>
+      <c r="M43" s="5">
+        <f>M42*0.79</f>
+        <v>79</v>
+      </c>
+      <c r="N43" s="5">
+        <f>N42*0.79</f>
+        <v>39.5</v>
+      </c>
+      <c r="O43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16">
+      <c r="C44" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D44" s="21">
+        <f>D41/D43</f>
+        <v>0.18043728423475261</v>
+      </c>
+      <c r="E44" s="21">
+        <f>E41/E43</f>
+        <v>0.14038020713463753</v>
+      </c>
+      <c r="F44" s="21">
+        <f>F41/F43</f>
+        <v>9.6233218258534731E-2</v>
+      </c>
+      <c r="G44" s="21">
+        <f>G41/G43</f>
+        <v>0.19246643651706946</v>
+      </c>
+      <c r="H44" s="21">
+        <f>H41/H43</f>
+        <v>0.24195780590717303</v>
+      </c>
+      <c r="I44" s="21">
+        <f>I41/I43</f>
+        <v>0.26464135021097052</v>
+      </c>
+      <c r="J44" s="21">
+        <f>J41/J43</f>
+        <v>0.16540084388185655</v>
+      </c>
+      <c r="K44" s="21">
+        <f>K41/K43</f>
+        <v>0.16345495160089352</v>
+      </c>
+      <c r="L44" s="21">
+        <f>L41/L43</f>
+        <v>0.18524894514767934</v>
+      </c>
+      <c r="M44" s="21">
+        <f>M41/M43</f>
+        <v>0.10916455696202534</v>
+      </c>
+      <c r="N44" s="21">
+        <f>N41/N43</f>
+        <v>0.21832911392405069</v>
+      </c>
+      <c r="O44" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16">
+      <c r="D45" s="5">
+        <f>D44*60</f>
+        <v>10.826237054085157</v>
+      </c>
+      <c r="E45" s="5">
+        <f>E44*60</f>
+        <v>8.4228124280782524</v>
+      </c>
+      <c r="F45" s="5">
+        <f>F44*60</f>
+        <v>5.7739930955120835</v>
+      </c>
+      <c r="G45" s="5">
+        <f>G44*60</f>
+        <v>11.547986191024167</v>
+      </c>
+      <c r="H45" s="5">
+        <f>H44*60</f>
+        <v>14.517468354430381</v>
+      </c>
+      <c r="I45" s="5">
+        <f>I44*60</f>
+        <v>15.878481012658231</v>
+      </c>
+      <c r="J45" s="5">
+        <f>J44*60</f>
+        <v>9.9240506329113938</v>
+      </c>
+      <c r="K45" s="5">
+        <f>K44*60</f>
+        <v>9.8072970960536114</v>
+      </c>
+      <c r="L45" s="5">
+        <f>L44*60</f>
+        <v>11.11493670886076</v>
+      </c>
+      <c r="M45" s="5">
+        <f>M44*60</f>
+        <v>6.5498734177215203</v>
+      </c>
+      <c r="N45" s="5">
+        <f>N44*60</f>
+        <v>13.099746835443041</v>
+      </c>
+      <c r="O45" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16">
+      <c r="C46" t="s">
+        <v>875</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16">
+      <c r="C47" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D47" s="5">
+        <f>D41*0.21/0.79*D46</f>
+        <v>18.756455696202533</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" ref="E47:J47" si="0">E41*0.21/0.79*E46</f>
+        <v>14.592522531645571</v>
+      </c>
+      <c r="F47" s="5">
+        <f>F41*0.21/0.79*F46</f>
+        <v>4.8016526582278489</v>
+      </c>
+      <c r="G47" s="5">
+        <f>G41*0.21/0.79*G46</f>
+        <v>9.6033053164556978</v>
+      </c>
+      <c r="H47" s="5">
+        <f>H41*0.21/0.79*H46</f>
+        <v>9.6033053164556978</v>
+      </c>
+      <c r="I47" s="5">
+        <f>I41*0.21/0.79*I46</f>
+        <v>9.6033053164556978</v>
+      </c>
+      <c r="J47" s="5">
+        <f>J41*0.21/0.79*J46</f>
+        <v>6.0020658227848118</v>
+      </c>
+      <c r="K47" s="5">
+        <f>K41*0.21/0.79*K46</f>
+        <v>2.6259037974683546</v>
+      </c>
+      <c r="L47" s="5">
+        <f>L41*0.21/0.79*L46</f>
+        <v>2.6259037974683546</v>
+      </c>
+      <c r="M47" s="5">
+        <f>M41*0.21/0.79*M46</f>
+        <v>2.0632101265822786</v>
+      </c>
+      <c r="N47" s="5">
+        <f>N41*0.21/0.79*N46</f>
+        <v>2.0632101265822786</v>
+      </c>
+      <c r="O47" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16">
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:15">
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:15">
+      <c r="C50" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D50" s="3">
+        <v>425</v>
+      </c>
+      <c r="E50" s="3">
+        <v>425</v>
+      </c>
+      <c r="F50" s="3">
+        <v>230</v>
+      </c>
+      <c r="G50" s="3">
+        <v>230</v>
+      </c>
+      <c r="H50" s="3">
+        <v>180</v>
+      </c>
+      <c r="I50" s="3">
+        <v>150</v>
+      </c>
+      <c r="J50" s="3">
+        <v>150</v>
+      </c>
+      <c r="K50" s="3">
+        <v>120</v>
+      </c>
+      <c r="L50" s="3">
+        <v>60</v>
+      </c>
+      <c r="M50" s="3">
+        <v>80</v>
+      </c>
+      <c r="N50" s="3">
+        <v>50</v>
+      </c>
+      <c r="O50" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15">
+      <c r="C51" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D51" s="21">
+        <f>D41/D50</f>
+        <v>0.18447058823529414</v>
+      </c>
+      <c r="E51" s="21">
+        <f>E41/E50</f>
+        <v>0.14351811764705885</v>
+      </c>
+      <c r="F51" s="21">
+        <f>F41/F50</f>
+        <v>8.726260869565218E-2</v>
+      </c>
+      <c r="G51" s="21">
+        <f>G41/G50</f>
+        <v>0.17452521739130436</v>
+      </c>
+      <c r="H51" s="21">
+        <f>H41/H50</f>
+        <v>0.22300444444444448</v>
+      </c>
+      <c r="I51" s="21">
+        <f>I41/I50</f>
+        <v>0.26760533333333336</v>
+      </c>
+      <c r="J51" s="21">
+        <f>J41/J50</f>
+        <v>0.16725333333333336</v>
+      </c>
+      <c r="K51" s="21">
+        <f>K41/K50</f>
+        <v>9.1466666666666668E-2</v>
+      </c>
+      <c r="L51" s="21">
+        <f>L41/L50</f>
+        <v>0.18293333333333334</v>
+      </c>
+      <c r="M51" s="21">
+        <f>M41/M50</f>
+        <v>0.10780000000000003</v>
+      </c>
+      <c r="N51" s="21">
+        <f>N41/N50</f>
+        <v>0.17248000000000005</v>
+      </c>
+      <c r="O51" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15">
+      <c r="D52" s="5">
+        <f>D51*60</f>
+        <v>11.068235294117649</v>
+      </c>
+      <c r="E52" s="5">
+        <f>E51*60</f>
+        <v>8.6110870588235304</v>
+      </c>
+      <c r="F52" s="5">
+        <f>F51*60</f>
+        <v>5.2357565217391304</v>
+      </c>
+      <c r="G52" s="5">
+        <f>G51*60</f>
+        <v>10.471513043478261</v>
+      </c>
+      <c r="H52" s="5">
+        <f>H51*60</f>
+        <v>13.380266666666669</v>
+      </c>
+      <c r="I52" s="5">
+        <f>I51*60</f>
+        <v>16.056320000000003</v>
+      </c>
+      <c r="J52" s="5">
+        <f>J51*60</f>
+        <v>10.035200000000001</v>
+      </c>
+      <c r="K52" s="5">
+        <f>K51*60</f>
+        <v>5.4880000000000004</v>
+      </c>
+      <c r="L52" s="5">
+        <f>L51*60</f>
+        <v>10.976000000000001</v>
+      </c>
+      <c r="M52" s="5">
+        <f>M51*60</f>
+        <v>6.4680000000000017</v>
+      </c>
+      <c r="N52" s="5">
+        <f>N51*60</f>
+        <v>10.348800000000002</v>
+      </c>
+      <c r="O52" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15">
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:15">
+      <c r="C54" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D54" s="21">
+        <f>D44+D51</f>
+        <v>0.36490787247004675</v>
+      </c>
+      <c r="E54" s="21">
+        <f>E44+E51</f>
+        <v>0.28389832478169641</v>
+      </c>
+      <c r="F54" s="21">
+        <f>F44+F51</f>
+        <v>0.18349582695418692</v>
+      </c>
+      <c r="G54" s="21">
+        <f>G44+G51</f>
+        <v>0.36699165390837385</v>
+      </c>
+      <c r="H54" s="21">
+        <f>H44+H51</f>
+        <v>0.46496225035161753</v>
+      </c>
+      <c r="I54" s="21">
+        <f>I44+I51</f>
+        <v>0.53224668354430382</v>
+      </c>
+      <c r="J54" s="21">
+        <f>J44+J51</f>
+        <v>0.33265417721518992</v>
+      </c>
+      <c r="K54" s="21">
+        <f>K44+K51</f>
+        <v>0.25492161826756021</v>
+      </c>
+      <c r="L54" s="21">
+        <f>L44+L51</f>
+        <v>0.3681822784810127</v>
+      </c>
+      <c r="M54" s="21">
+        <f>M44+M51</f>
+        <v>0.21696455696202538</v>
+      </c>
+      <c r="N54" s="21">
+        <f>N44+N51</f>
+        <v>0.39080911392405071</v>
+      </c>
+      <c r="O54" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15">
+      <c r="D55" s="5">
+        <f>D54*60</f>
+        <v>21.894472348202804</v>
+      </c>
+      <c r="E55" s="5">
+        <f>E54*60</f>
+        <v>17.033899486901785</v>
+      </c>
+      <c r="F55" s="5">
+        <f>F54*60</f>
+        <v>11.009749617251215</v>
+      </c>
+      <c r="G55" s="5">
+        <f>G54*60</f>
+        <v>22.01949923450243</v>
+      </c>
+      <c r="H55" s="5">
+        <f>H54*60</f>
+        <v>27.897735021097052</v>
+      </c>
+      <c r="I55" s="5">
+        <f>I54*60</f>
+        <v>31.93480101265823</v>
+      </c>
+      <c r="J55" s="5">
+        <f>J54*60</f>
+        <v>19.959250632911395</v>
+      </c>
+      <c r="K55" s="5">
+        <f>K54*60</f>
+        <v>15.295297096053613</v>
+      </c>
+      <c r="L55" s="5">
+        <f>L54*60</f>
+        <v>22.090936708860763</v>
+      </c>
+      <c r="M55" s="5">
+        <f>M54*60</f>
+        <v>13.017873417721523</v>
+      </c>
+      <c r="N55" s="5">
+        <f>N54*60</f>
+        <v>23.448546835443043</v>
+      </c>
+      <c r="O55" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="56" spans="3:15">
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:15">
+      <c r="C57" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D57" s="5">
+        <f>D47/D54</f>
+        <v>51.400523560209422</v>
+      </c>
+      <c r="E57" s="5">
+        <f>E47/E54</f>
+        <v>51.400523560209415</v>
+      </c>
+      <c r="F57" s="5">
+        <f>F47/F54</f>
+        <v>26.16763954761036</v>
+      </c>
+      <c r="G57" s="5">
+        <f>G47/G54</f>
+        <v>26.16763954761036</v>
+      </c>
+      <c r="H57" s="5">
+        <f>H47/H54</f>
+        <v>20.653946227233305</v>
+      </c>
+      <c r="I57" s="5">
+        <f>I47/I54</f>
+        <v>18.042959427207638</v>
+      </c>
+      <c r="J57" s="5">
+        <f>J47/J54</f>
+        <v>18.042959427207641</v>
+      </c>
+      <c r="K57" s="5">
+        <f>K47/K54</f>
+        <v>10.300828212663639</v>
+      </c>
+      <c r="L57" s="5">
+        <f>L47/L54</f>
+        <v>7.132075471698113</v>
+      </c>
+      <c r="M57" s="5">
+        <f>M47/M54</f>
+        <v>9.5094339622641488</v>
+      </c>
+      <c r="N57" s="5">
+        <f>N47/N54</f>
+        <v>5.2793296089385473</v>
+      </c>
+      <c r="O57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15">
+      <c r="M64" s="3" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="65" spans="12:15">
+      <c r="L65" t="s">
+        <v>1042</v>
+      </c>
+      <c r="M65" s="3">
+        <v>1.7</v>
+      </c>
+      <c r="N65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="12:15">
+      <c r="L66" t="s">
+        <v>1043</v>
+      </c>
+      <c r="M66" s="5">
+        <f>M65*$E34</f>
+        <v>20.944000000000006</v>
+      </c>
+      <c r="N66" t="s">
+        <v>355</v>
+      </c>
+      <c r="O66" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="67" spans="12:15">
+      <c r="L67" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M67" s="3">
+        <v>160</v>
+      </c>
+      <c r="N67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="12:15">
+      <c r="L68" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M68" s="5">
+        <f>M67*0.79</f>
+        <v>126.4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="12:15">
+      <c r="L69" t="s">
+        <v>1046</v>
+      </c>
+      <c r="M69" s="21">
+        <f>M66/M68</f>
+        <v>0.1656962025316456</v>
+      </c>
+      <c r="N69" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="70" spans="12:15">
+      <c r="M70" s="5">
+        <f>M69*60</f>
+        <v>9.9417721518987356</v>
+      </c>
+      <c r="N70" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="71" spans="12:15">
+      <c r="L71" t="s">
+        <v>875</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="72" spans="12:15">
+      <c r="L72" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M72" s="5">
+        <f>M66*0.21/0.79*M71</f>
+        <v>3.340435443037975</v>
+      </c>
+      <c r="N72" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="73" spans="12:15">
+      <c r="L73" t="s">
+        <v>1053</v>
+      </c>
+      <c r="M73" s="21">
+        <f>M69</f>
+        <v>0.1656962025316456</v>
+      </c>
+      <c r="N73" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="74" spans="12:15">
+      <c r="M74" s="5">
+        <f>M73*60</f>
+        <v>9.9417721518987356</v>
+      </c>
+      <c r="N74" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="75" spans="12:15">
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="12:15">
+      <c r="L76" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M76" s="5">
+        <f>M72/M73</f>
+        <v>20.159999999999997</v>
+      </c>
+      <c r="N76" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -17326,7 +19434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CFB0EC-6744-8946-9D07-7CAD019B1738}">
   <dimension ref="B4:I37"/>
   <sheetViews>
@@ -17692,7 +19800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E71511-C29E-654E-8993-320416F52514}">
   <dimension ref="B3:K35"/>
   <sheetViews>
@@ -18202,7 +20310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45514C10-E1BF-0D47-B37D-C161F481941A}">
   <dimension ref="B3:L35"/>
   <sheetViews>
@@ -18792,7 +20900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A9AFEC-C5CF-FF49-8E7B-E4151383DB70}">
   <dimension ref="B3:K35"/>
   <sheetViews>
@@ -19300,280 +21408,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED30A8A5-285A-BE41-9AEE-9F55011C8CBA}">
-  <dimension ref="C5:G23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="3:7">
-      <c r="D5" s="3" t="s">
-        <v>795</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>793</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7">
-      <c r="C6" t="s">
-        <v>811</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>813</v>
-      </c>
-      <c r="E6" s="77" t="s">
-        <v>814</v>
-      </c>
-      <c r="F6" s="77" t="s">
-        <v>815</v>
-      </c>
-      <c r="G6" s="77" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="C7" t="s">
-        <v>794</v>
-      </c>
-      <c r="D7" s="3">
-        <v>10</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>808</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>807</v>
-      </c>
-      <c r="G7" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7">
-      <c r="C8" t="s">
-        <v>792</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>797</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>798</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>804</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7">
-      <c r="C9" t="s">
-        <v>791</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="11" spans="3:7">
-      <c r="C11" t="s">
-        <v>789</v>
-      </c>
-      <c r="D11" s="3">
-        <v>50</v>
-      </c>
-      <c r="E11" s="3">
-        <v>130</v>
-      </c>
-      <c r="F11" s="3">
-        <v>260</v>
-      </c>
-      <c r="G11" s="3">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7">
-      <c r="C12" t="s">
-        <v>790</v>
-      </c>
-      <c r="D12" s="3">
-        <v>50</v>
-      </c>
-      <c r="E12" s="3">
-        <v>110</v>
-      </c>
-      <c r="F12" s="3">
-        <v>130</v>
-      </c>
-      <c r="G12" s="3">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7">
-      <c r="C13" t="s">
-        <v>791</v>
-      </c>
-      <c r="D13" s="3">
-        <v>50</v>
-      </c>
-      <c r="E13" s="3">
-        <v>160</v>
-      </c>
-      <c r="F13" s="3">
-        <v>220</v>
-      </c>
-      <c r="G13" s="3">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7">
-      <c r="C14" t="s">
-        <v>792</v>
-      </c>
-      <c r="D14" s="3">
-        <v>30</v>
-      </c>
-      <c r="E14" s="3">
-        <v>90</v>
-      </c>
-      <c r="F14" s="3">
-        <v>150</v>
-      </c>
-      <c r="G14" s="3">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7">
-      <c r="D16" s="3">
-        <f>SUM(D11:D15)</f>
-        <v>180</v>
-      </c>
-      <c r="E16" s="3">
-        <f t="shared" ref="E16:G16" si="0">SUM(E11:E15)</f>
-        <v>490</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>760</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="0"/>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" t="s">
-        <v>802</v>
-      </c>
-      <c r="D17" s="3">
-        <v>200</v>
-      </c>
-      <c r="E17" s="3">
-        <v>500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="D18" s="3">
-        <v>2</v>
-      </c>
-      <c r="E18" s="3">
-        <v>2</v>
-      </c>
-      <c r="F18" s="3">
-        <v>2</v>
-      </c>
-      <c r="G18" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="D19" s="3">
-        <f>(D16+D17) * D18</f>
-        <v>760</v>
-      </c>
-      <c r="E19" s="3">
-        <f t="shared" ref="E19:G19" si="1">(E16+E17) * E18</f>
-        <v>1980</v>
-      </c>
-      <c r="F19" s="3">
-        <f t="shared" si="1"/>
-        <v>3120</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="1"/>
-        <v>6020</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" t="s">
-        <v>809</v>
-      </c>
-      <c r="D22" s="3">
-        <v>40</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="C23" t="s">
-        <v>810</v>
-      </c>
-      <c r="D23" s="3">
-        <v>40</v>
-      </c>
-      <c r="E23" s="3">
-        <v>48</v>
-      </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="D6 G6" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
 </file>